--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1229586B-DF0E-463E-BBA4-B4D8596B8BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8955BA-014C-4D89-8A61-D5E9DF6D3566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1101,6 +1101,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,6 +1137,15 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,18 +1163,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2836,18 +2836,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -2855,16 +2855,16 @@
       <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
       <c r="K2" s="35"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -2872,121 +2872,121 @@
       <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
       <c r="K3" s="37"/>
       <c r="L3" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="59"/>
       <c r="O3" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="37"/>
       <c r="L4" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="58"/>
+      <c r="N4" s="59"/>
       <c r="O4" s="39"/>
     </row>
     <row r="5" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="37"/>
       <c r="L5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="58"/>
+      <c r="N5" s="59"/>
       <c r="O5" s="39"/>
     </row>
     <row r="6" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
       <c r="K6" s="37"/>
       <c r="L6" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="58"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="39"/>
     </row>
     <row r="7" spans="1:15" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="56"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="37"/>
       <c r="L7" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="58"/>
+      <c r="N7" s="59"/>
       <c r="O7" s="39"/>
     </row>
     <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="56"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
       <c r="K8" s="35"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -2994,16 +2994,16 @@
       <c r="O8" s="39"/>
     </row>
     <row r="9" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="56"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
       <c r="K9" s="35"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -3011,16 +3011,16 @@
       <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="54"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
       <c r="K10" s="35"/>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
@@ -3028,35 +3028,35 @@
       <c r="O10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="37"/>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
       <c r="K12" s="37"/>
       <c r="L12" s="42" t="s">
         <v>108</v>
@@ -3072,16 +3072,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="56"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
       <c r="K13" s="37"/>
       <c r="L13" s="43" t="s">
         <v>112</v>
@@ -3097,16 +3097,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
       <c r="K14" s="37"/>
       <c r="L14" s="47"/>
       <c r="M14" s="48"/>
@@ -3114,16 +3114,16 @@
       <c r="O14" s="48"/>
     </row>
     <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="56"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="37"/>
       <c r="L15" s="47"/>
       <c r="M15" s="48"/>
@@ -3131,16 +3131,16 @@
       <c r="O15" s="48"/>
     </row>
     <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="56"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="37"/>
       <c r="L16" s="49"/>
       <c r="M16" s="50"/>
@@ -3148,16 +3148,16 @@
       <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="56"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
       <c r="K17" s="37"/>
       <c r="L17" s="49"/>
       <c r="M17" s="50"/>
@@ -3165,16 +3165,16 @@
       <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
       <c r="K18" s="37"/>
       <c r="L18" s="49"/>
       <c r="M18" s="50"/>
@@ -3182,16 +3182,16 @@
       <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="37"/>
       <c r="L19" s="49"/>
       <c r="M19" s="50"/>
@@ -3199,16 +3199,16 @@
       <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="37"/>
       <c r="L20" s="49"/>
       <c r="M20" s="50"/>
@@ -3239,7 +3239,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="49.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3352,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="I3" s="23"/>
       <c r="J3" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="5" t="s">
@@ -3404,7 +3404,7 @@
       <c r="B4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3422,7 +3422,7 @@
       </c>
       <c r="I4" s="23"/>
       <c r="J4" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
@@ -3452,15 +3452,15 @@
     </row>
     <row r="5" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -3492,7 +3492,7 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="28" t="s">
@@ -3545,7 +3545,7 @@
       <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="69"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3563,7 +3563,7 @@
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
@@ -3590,7 +3590,7 @@
       <c r="B8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3633,7 +3633,7 @@
       <c r="B9" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="B10" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3717,7 +3717,7 @@
       <c r="B11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="B12" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="B13" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -3840,15 +3840,15 @@
     </row>
     <row r="14" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
       <c r="K14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3877,7 +3877,7 @@
       <c r="B15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="63" t="s">
         <v>97</v>
       </c>
       <c r="D15" s="19" t="s">
@@ -3927,7 +3927,7 @@
       <c r="B16" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="B17" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="19" t="s">
         <v>54</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="B18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="19" t="s">
         <v>45</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="B19" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="19" t="s">
         <v>56</v>
       </c>
@@ -4116,15 +4116,15 @@
     </row>
     <row r="20" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -4153,7 +4153,7 @@
       <c r="B21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="71" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -4203,7 +4203,7 @@
       <c r="B22" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="67"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="19" t="s">
         <v>90</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="B23" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="67"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="19" t="s">
         <v>91</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="71"/>
+      <c r="N23" s="51"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -4299,7 +4299,7 @@
       <c r="B24" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="67"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="19" t="s">
         <v>92</v>
       </c>
@@ -4347,7 +4347,7 @@
       <c r="B25" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="67"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="19" t="s">
         <v>93</v>
       </c>
@@ -4392,15 +4392,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -4429,7 +4429,7 @@
       <c r="B27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="71" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="26" t="s">
@@ -4479,7 +4479,7 @@
       <c r="B28" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="67"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="19" t="s">
         <v>94</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="B29" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="67"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="26" t="s">
         <v>96</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="B30" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="67"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="26" t="s">
         <v>68</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="B31" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="67"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="26" t="s">
         <v>67</v>
       </c>
@@ -4668,15 +4668,15 @@
     </row>
     <row r="32" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -4705,7 +4705,7 @@
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="63" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="26" t="s">
@@ -4755,7 +4755,7 @@
       <c r="B34" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="64"/>
       <c r="D34" s="26" t="s">
         <v>70</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="B35" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="69"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="26" t="s">
         <v>77</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="B36" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="69"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="26" t="s">
         <v>82</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="B37" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="69"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="26" t="s">
         <v>71</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="B38" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="70"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="26" t="s">
         <v>73</v>
       </c>
@@ -4924,15 +4924,15 @@
     </row>
     <row r="39" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="64"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="66"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4948,7 +4948,7 @@
       <c r="B40" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="71" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="26" t="s">
@@ -4983,7 +4983,7 @@
       <c r="B41" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="67"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="26" t="s">
         <v>84</v>
       </c>
@@ -5013,7 +5013,7 @@
       <c r="B42" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="67"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="26" t="s">
         <v>72</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="B43" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="67"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="26" t="s">
         <v>74</v>
       </c>
@@ -5080,15 +5080,15 @@
     </row>
     <row r="44" spans="1:32" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -38167,11 +38167,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C13"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B39:J39"/>
@@ -38181,6 +38176,11 @@
     <mergeCell ref="C33:C38"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C13"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E21:F21 E19 E24:E25 E40:F43 E45:F45 F21:F25 E33:F38 E27:F31 E3:F3 E17 F17:F19 E6:F12">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A1E1B-2281-4F5A-8A11-EF4C79DC595D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD62527-2F3B-4FFA-9DE5-384D6D0E725B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="0" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -1054,9 +1054,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1111,6 +1108,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,6 +1144,15 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1160,15 +1169,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2953,11 +2953,11 @@
       <c r="H1" s="54"/>
       <c r="I1" s="54"/>
       <c r="J1" s="55"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56"/>
@@ -2970,11 +2970,11 @@
       <c r="H2" s="57"/>
       <c r="I2" s="57"/>
       <c r="J2" s="58"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
@@ -2987,15 +2987,15 @@
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
       <c r="J3" s="58"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="37" t="s">
         <v>99</v>
       </c>
       <c r="M3" s="59" t="s">
         <v>100</v>
       </c>
       <c r="N3" s="60"/>
-      <c r="O3" s="39"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56"/>
@@ -3008,15 +3008,15 @@
       <c r="H4" s="57"/>
       <c r="I4" s="57"/>
       <c r="J4" s="58"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="40" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="39" t="s">
         <v>101</v>
       </c>
       <c r="M4" s="59" t="s">
         <v>102</v>
       </c>
       <c r="N4" s="60"/>
-      <c r="O4" s="39"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56"/>
@@ -3029,15 +3029,15 @@
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
       <c r="J5" s="58"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38" t="s">
+      <c r="K5" s="36"/>
+      <c r="L5" s="37" t="s">
         <v>103</v>
       </c>
       <c r="M5" s="59" t="s">
         <v>104</v>
       </c>
       <c r="N5" s="60"/>
-      <c r="O5" s="39"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56"/>
@@ -3050,15 +3050,15 @@
       <c r="H6" s="57"/>
       <c r="I6" s="57"/>
       <c r="J6" s="58"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="40" t="s">
+      <c r="K6" s="36"/>
+      <c r="L6" s="39" t="s">
         <v>105</v>
       </c>
       <c r="M6" s="59" t="s">
         <v>114</v>
       </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="39"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56"/>
@@ -3071,15 +3071,15 @@
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
       <c r="J7" s="58"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38" t="s">
+      <c r="K7" s="36"/>
+      <c r="L7" s="37" t="s">
         <v>106</v>
       </c>
       <c r="M7" s="59" t="s">
         <v>115</v>
       </c>
       <c r="N7" s="60"/>
-      <c r="O7" s="39"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56"/>
@@ -3092,11 +3092,11 @@
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="58"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56"/>
@@ -3109,11 +3109,11 @@
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56"/>
@@ -3126,11 +3126,11 @@
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="58"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56"/>
@@ -3143,7 +3143,7 @@
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="58"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="61" t="s">
         <v>107</v>
       </c>
@@ -3162,17 +3162,17 @@
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="58"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42" t="s">
+      <c r="K12" s="36"/>
+      <c r="L12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3187,17 +3187,17 @@
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="58"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="43" t="s">
+      <c r="K13" s="36"/>
+      <c r="L13" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="45" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3212,11 +3212,11 @@
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="58"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56"/>
@@ -3229,11 +3229,11 @@
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="58"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
@@ -3246,11 +3246,11 @@
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="58"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56"/>
@@ -3263,11 +3263,11 @@
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="58"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56"/>
@@ -3280,11 +3280,11 @@
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56"/>
@@ -3297,11 +3297,11 @@
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="58"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
@@ -3314,11 +3314,11 @@
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3343,8 +3343,8 @@
   <dimension ref="A1:AF1075"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3457,7 +3457,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3506,10 +3506,10 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3557,15 +3557,15 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -3597,7 +3597,7 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="64" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3647,10 +3647,10 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="8" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3735,10 +3735,10 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -3777,10 +3777,10 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3819,10 +3819,10 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -3861,10 +3861,10 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -3945,10 +3945,10 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="19" t="s">
         <v>117</v>
       </c>
@@ -3981,10 +3981,10 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="19" t="s">
         <v>118</v>
       </c>
@@ -4059,15 +4059,15 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4093,10 +4093,10 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="34" t="s">
-        <v>29</v>
+      <c r="B18" s="52" t="s">
+        <v>32</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="64" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -4143,10 +4143,10 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="34" t="s">
-        <v>30</v>
+      <c r="B19" s="52" t="s">
+        <v>33</v>
       </c>
-      <c r="C19" s="71"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="19" t="s">
         <v>44</v>
       </c>
@@ -4191,10 +4191,10 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="32" t="s">
-        <v>31</v>
+      <c r="B20" s="52" t="s">
+        <v>34</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
@@ -4239,10 +4239,10 @@
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="32" t="s">
-        <v>32</v>
+      <c r="B21" s="52" t="s">
+        <v>35</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="19" t="s">
         <v>45</v>
       </c>
@@ -4287,10 +4287,10 @@
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="32" t="s">
-        <v>33</v>
+      <c r="B22" s="52" t="s">
+        <v>36</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="19" t="s">
         <v>56</v>
       </c>
@@ -4335,15 +4335,15 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -4372,7 +4372,7 @@
       <c r="B24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="72" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -4419,10 +4419,10 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="72"/>
       <c r="D25" s="19" t="s">
         <v>90</v>
       </c>
@@ -4467,10 +4467,10 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="19" t="s">
         <v>91</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="51"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="19" t="s">
         <v>92</v>
       </c>
@@ -4563,10 +4563,10 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="19" t="s">
         <v>93</v>
       </c>
@@ -4611,15 +4611,15 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -4648,7 +4648,7 @@
       <c r="B30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="72" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -4695,10 +4695,10 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="19" t="s">
         <v>94</v>
       </c>
@@ -4743,10 +4743,10 @@
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="26" t="s">
         <v>96</v>
       </c>
@@ -4791,10 +4791,10 @@
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="26" t="s">
         <v>68</v>
       </c>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="26" t="s">
         <v>67</v>
       </c>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4924,7 +4924,7 @@
       <c r="B36" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="70" t="s">
+      <c r="C36" s="64" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -4971,10 +4971,10 @@
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="71"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="26" t="s">
         <v>70</v>
       </c>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="26" t="s">
         <v>77</v>
       </c>
@@ -5041,10 +5041,10 @@
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="26" t="s">
         <v>82</v>
       </c>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="71"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="26" t="s">
         <v>71</v>
       </c>
@@ -5111,10 +5111,10 @@
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="26" t="s">
         <v>73</v>
       </c>
@@ -5143,15 +5143,15 @@
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="70"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="71"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5167,7 +5167,7 @@
       <c r="B43" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -5199,10 +5199,10 @@
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="69"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="26" t="s">
         <v>84</v>
       </c>
@@ -5229,10 +5229,10 @@
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="26" t="s">
         <v>72</v>
       </c>
@@ -5264,10 +5264,10 @@
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="26" t="s">
         <v>74</v>
       </c>
@@ -5299,15 +5299,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -38386,11 +38386,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C16"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B42:J42"/>
@@ -38400,6 +38395,11 @@
     <mergeCell ref="C36:C41"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E24:F24 E22 E27:E28 E43:F46 E48:F48 F24:F28 E36:F41 E30:F34 E3:F3 E20 F20:F22 E6:F12">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD62527-2F3B-4FFA-9DE5-384D6D0E725B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D158B7-5416-48BE-ADAB-DA0BB9F4C953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="0" windowWidth="15405" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="15210" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -1144,15 +1144,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1169,6 +1160,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3343,8 +3343,8 @@
   <dimension ref="A1:AF1075"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18:B22"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3457,7 +3457,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3509,7 +3509,7 @@
       <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3557,15 +3557,15 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -3597,7 +3597,7 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3650,7 +3650,7 @@
       <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="65"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -3780,7 +3780,7 @@
       <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="65"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="B13" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="65"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -3948,7 +3948,7 @@
       <c r="B14" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="65"/>
+      <c r="C14" s="71"/>
       <c r="D14" s="19" t="s">
         <v>117</v>
       </c>
@@ -3984,7 +3984,7 @@
       <c r="B15" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="71"/>
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="19" t="s">
         <v>118</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" s="22">
         <v>43824</v>
@@ -4059,15 +4059,15 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4096,7 +4096,7 @@
       <c r="B18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="70" t="s">
         <v>97</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -4146,7 +4146,7 @@
       <c r="B19" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="65"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="19" t="s">
         <v>44</v>
       </c>
@@ -4194,7 +4194,7 @@
       <c r="B20" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="65"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="19" t="s">
         <v>54</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="B21" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="65"/>
+      <c r="C21" s="71"/>
       <c r="D21" s="19" t="s">
         <v>45</v>
       </c>
@@ -4290,7 +4290,7 @@
       <c r="B22" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="19" t="s">
         <v>56</v>
       </c>
@@ -4335,15 +4335,15 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -4372,7 +4372,7 @@
       <c r="B24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="69" t="s">
         <v>57</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -4422,7 +4422,7 @@
       <c r="B25" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="19" t="s">
         <v>90</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="B26" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="72"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="19" t="s">
         <v>91</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="B27" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="72"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="19" t="s">
         <v>92</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="B28" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="72"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="19" t="s">
         <v>93</v>
       </c>
@@ -4611,15 +4611,15 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -4648,7 +4648,7 @@
       <c r="B30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="69" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="26" t="s">
@@ -4698,7 +4698,7 @@
       <c r="B31" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="72"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="19" t="s">
         <v>94</v>
       </c>
@@ -4746,7 +4746,7 @@
       <c r="B32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="72"/>
+      <c r="C32" s="69"/>
       <c r="D32" s="26" t="s">
         <v>96</v>
       </c>
@@ -4794,7 +4794,7 @@
       <c r="B33" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="72"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="26" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="B34" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="72"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="26" t="s">
         <v>67</v>
       </c>
@@ -4887,15 +4887,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4924,7 +4924,7 @@
       <c r="B36" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -4974,7 +4974,7 @@
       <c r="B37" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="65"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="26" t="s">
         <v>70</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="B38" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="65"/>
+      <c r="C38" s="71"/>
       <c r="D38" s="26" t="s">
         <v>77</v>
       </c>
@@ -5044,7 +5044,7 @@
       <c r="B39" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="65"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="26" t="s">
         <v>82</v>
       </c>
@@ -5079,7 +5079,7 @@
       <c r="B40" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="65"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="26" t="s">
         <v>71</v>
       </c>
@@ -5114,7 +5114,7 @@
       <c r="B41" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="66"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="26" t="s">
         <v>73</v>
       </c>
@@ -5143,15 +5143,15 @@
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="71"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5167,7 +5167,7 @@
       <c r="B43" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="69" t="s">
         <v>16</v>
       </c>
       <c r="D43" s="26" t="s">
@@ -5202,7 +5202,7 @@
       <c r="B44" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="72"/>
+      <c r="C44" s="69"/>
       <c r="D44" s="26" t="s">
         <v>84</v>
       </c>
@@ -5232,7 +5232,7 @@
       <c r="B45" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="72"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="26" t="s">
         <v>72</v>
       </c>
@@ -5267,7 +5267,7 @@
       <c r="B46" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="72"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="26" t="s">
         <v>74</v>
       </c>
@@ -5299,15 +5299,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -38386,6 +38386,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C6:C16"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="B35:J35"/>
     <mergeCell ref="B42:J42"/>
@@ -38395,11 +38400,6 @@
     <mergeCell ref="C36:C41"/>
     <mergeCell ref="C24:C28"/>
     <mergeCell ref="C30:C34"/>
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C16"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E24:F24 E22 E27:E28 E43:F46 E48:F48 F24:F28 E36:F41 E30:F34 E3:F3 E20 F20:F22 E6:F12">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FA71D2-6DEA-40A8-A0FF-FC376211C45C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D158B7-5416-48BE-ADAB-DA0BB9F4C953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="0" windowWidth="15210" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <definedName name="Status">'Product Backlog'!$N$4:$N$6</definedName>
     <definedName name="YesNo">'Product Backlog'!$L$4:$L$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -407,6 +405,12 @@
   </si>
   <si>
     <t>Create Product Backlog</t>
+  </si>
+  <si>
+    <t>Xem danh sách chính sách công ty</t>
+  </si>
+  <si>
+    <t>Xem danh sách sơ đồ tổ chức</t>
   </si>
 </sst>
 </file>
@@ -959,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1050,9 +1054,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1103,6 +1104,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1168,7 +1175,105 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="136">
+  <dxfs count="146">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2836,384 +2941,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="38" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="M3" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="39"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="40" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="39"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="38"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="38" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="39"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="38"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="40" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M6" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="39"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="39"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="60" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="42" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="41" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="43" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="45" t="s">
+      <c r="N13" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3235,11 +3340,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1072"/>
+  <dimension ref="A1:AF1075"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3352,7 +3457,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3401,10 +3506,10 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3452,15 +3557,15 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -3492,7 +3597,7 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="70" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3542,10 +3647,10 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3587,10 +3692,10 @@
     </row>
     <row r="8" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="71"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3630,10 +3735,10 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -3672,10 +3777,10 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3714,10 +3819,10 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="71"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -3756,10 +3861,10 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="71"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -3798,7 +3903,7 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="71"/>
@@ -3840,19 +3945,24 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
+      <c r="B14" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -3868,20 +3978,15 @@
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="34" t="s">
-        <v>29</v>
+      <c r="B15" s="51" t="s">
+        <v>30</v>
       </c>
-      <c r="C15" s="69" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="71"/>
       <c r="D15" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>10</v>
@@ -3889,20 +3994,11 @@
       <c r="F15" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="22">
-        <v>43822</v>
-      </c>
-      <c r="H15" s="22">
-        <v>43823</v>
-      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J15" s="23"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
@@ -3918,39 +4014,33 @@
       <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="34" t="s">
-        <v>30</v>
+      <c r="B16" s="51" t="s">
+        <v>31</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="19" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G16" s="22">
-        <v>43826</v>
+        <v>43824</v>
       </c>
       <c r="H16" s="22">
-        <v>43827</v>
+        <v>43825</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -3966,35 +4056,18 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H17" s="22">
-        <v>43827</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
       <c r="K17" s="3"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4020,24 +4093,26 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="70" t="s">
+        <v>97</v>
+      </c>
       <c r="D18" s="19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G18" s="22">
-        <v>43826</v>
+        <v>43822</v>
       </c>
       <c r="H18" s="22">
-        <v>43827</v>
+        <v>43823</v>
       </c>
       <c r="I18" s="23"/>
       <c r="J18" s="23" t="s">
@@ -4068,12 +4143,12 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="71"/>
       <c r="D19" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>7</v>
@@ -4116,19 +4191,33 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="B20" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H20" s="22">
+        <v>43827</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4150,35 +4239,33 @@
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="17" t="s">
-        <v>34</v>
+      <c r="B21" s="52" t="s">
+        <v>35</v>
       </c>
-      <c r="C21" s="68" t="s">
-        <v>57</v>
-      </c>
+      <c r="C21" s="71"/>
       <c r="D21" s="19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="22">
-        <v>43836</v>
+        <v>43826</v>
       </c>
       <c r="H21" s="22">
-        <v>43838</v>
+        <v>43827</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -4200,33 +4287,33 @@
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="33" t="s">
-        <v>35</v>
+      <c r="B22" s="52" t="s">
+        <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="19" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" s="22">
-        <v>43836</v>
+        <v>43826</v>
       </c>
       <c r="H22" s="22">
-        <v>43838</v>
+        <v>43827</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -4248,33 +4335,19 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H23" s="22">
-        <v>43838</v>
-      </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -4296,18 +4369,20 @@
     </row>
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="33" t="s">
-        <v>37</v>
+      <c r="B24" s="17" t="s">
+        <v>34</v>
       </c>
-      <c r="C24" s="68"/>
+      <c r="C24" s="69" t="s">
+        <v>57</v>
+      </c>
       <c r="D24" s="19" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22">
         <v>43836</v>
@@ -4344,18 +4419,18 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="33" t="s">
-        <v>38</v>
+      <c r="B25" s="32" t="s">
+        <v>35</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="69"/>
       <c r="D25" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="22">
         <v>43836</v>
@@ -4391,20 +4466,34 @@
       <c r="AF25" s="3"/>
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="69"/>
+      <c r="D26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H26" s="22">
+        <v>43838</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="50"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -4425,27 +4514,25 @@
       <c r="AF26" s="3"/>
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="17" t="s">
-        <v>39</v>
+      <c r="A27" s="1"/>
+      <c r="B27" s="32" t="s">
+        <v>37</v>
       </c>
-      <c r="C27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>95</v>
+      <c r="C27" s="69"/>
+      <c r="D27" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H27" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
@@ -4475,25 +4562,25 @@
       <c r="AF27" s="3"/>
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="33" t="s">
-        <v>40</v>
+      <c r="A28" s="1"/>
+      <c r="B28" s="32" t="s">
+        <v>38</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H28" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23" t="s">
@@ -4524,29 +4611,15 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H29" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -4572,12 +4645,14 @@
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="33" t="s">
-        <v>46</v>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="69" t="s">
+        <v>14</v>
+      </c>
       <c r="D30" s="26" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>7</v>
@@ -4620,18 +4695,18 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="33" t="s">
-        <v>47</v>
+      <c r="B31" s="32" t="s">
+        <v>40</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="26" t="s">
-        <v>67</v>
+      <c r="C31" s="69"/>
+      <c r="D31" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" s="22">
         <v>43839</v>
@@ -4667,16 +4742,30 @@
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="69"/>
+      <c r="D32" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H32" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -4702,14 +4791,12 @@
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="18" t="s">
-        <v>48</v>
+      <c r="B33" s="32" t="s">
+        <v>46</v>
       </c>
-      <c r="C33" s="69" t="s">
-        <v>15</v>
-      </c>
+      <c r="C33" s="69"/>
       <c r="D33" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>7</v>
@@ -4718,10 +4805,10 @@
         <v>80</v>
       </c>
       <c r="G33" s="22">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="H33" s="22">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23" t="s">
@@ -4751,13 +4838,13 @@
       <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="33" t="s">
-        <v>49</v>
+      <c r="A34" s="3"/>
+      <c r="B34" s="32" t="s">
+        <v>47</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="69"/>
       <c r="D34" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>7</v>
@@ -4766,10 +4853,10 @@
         <v>80</v>
       </c>
       <c r="G34" s="22">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="H34" s="22">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="s">
@@ -4784,32 +4871,31 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="70"/>
-      <c r="D35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H35" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4819,15 +4905,30 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="33" t="s">
-        <v>59</v>
+      <c r="A36" s="3"/>
+      <c r="B36" s="18" t="s">
+        <v>48</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="70" t="s">
+        <v>15</v>
+      </c>
       <c r="D36" s="26" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>7</v>
@@ -4854,15 +4955,28 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="33" t="s">
-        <v>60</v>
+      <c r="B37" s="32" t="s">
+        <v>49</v>
       </c>
-      <c r="C37" s="70"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>7</v>
@@ -4892,12 +5006,12 @@
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="33" t="s">
-        <v>61</v>
+      <c r="B38" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="71"/>
       <c r="D38" s="26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>7</v>
@@ -4906,16 +5020,19 @@
         <v>80</v>
       </c>
       <c r="G38" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H38" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -4924,15 +5041,29 @@
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="67"/>
+      <c r="B39" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="71"/>
+      <c r="D39" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H39" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -4945,26 +5076,24 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="17" t="s">
-        <v>62</v>
+      <c r="B40" s="32" t="s">
+        <v>60</v>
       </c>
-      <c r="C40" s="68" t="s">
-        <v>16</v>
-      </c>
+      <c r="C40" s="71"/>
       <c r="D40" s="26" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G40" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H40" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23" t="s">
@@ -4974,21 +5103,23 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="s">
-        <v>63</v>
+      <c r="A41" s="1"/>
+      <c r="B41" s="32" t="s">
+        <v>61</v>
       </c>
-      <c r="C41" s="68"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="26" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>80</v>
@@ -5003,36 +5134,24 @@
       <c r="J41" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+      <c r="K41" s="3"/>
       <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G42" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H42" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="68"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5045,12 +5164,14 @@
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="33" t="s">
-        <v>65</v>
+      <c r="B43" s="17" t="s">
+        <v>62</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="69" t="s">
+        <v>16</v>
+      </c>
       <c r="D43" s="26" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>10</v>
@@ -5072,46 +5193,51 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="3"/>
+      <c r="B44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="17" t="s">
-        <v>66</v>
+      <c r="B45" s="32" t="s">
+        <v>64</v>
       </c>
-      <c r="C45" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="C45" s="69"/>
       <c r="D45" s="26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>80</v>
@@ -5138,15 +5264,29 @@
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="B46" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="69"/>
+      <c r="D46" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H46" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -5159,19 +5299,19 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
@@ -5180,15 +5320,31 @@
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
+      <c r="B48" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G48" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H48" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -5201,20 +5357,20 @@
     </row>
     <row r="49" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
+      <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="1"/>
+      <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
@@ -5231,15 +5387,15 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
       <c r="O50" s="3"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
     </row>
     <row r="51" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
@@ -5253,9 +5409,9 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -5277,7 +5433,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
@@ -5294,12 +5450,15 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="1"/>
       <c r="L53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
@@ -5312,7 +5471,15 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
-      <c r="K54" s="1"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
@@ -5326,6 +5493,14 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
@@ -5339,6 +5514,11 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
     </row>
     <row r="57" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
@@ -5351,10 +5531,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
+      <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
@@ -5368,19 +5545,6 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
     </row>
     <row r="59" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -5394,19 +5558,6 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
     </row>
     <row r="60" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
@@ -5420,19 +5571,9 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
     </row>
     <row r="61" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
@@ -6009,7 +6150,7 @@
     <row r="83" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="1"/>
+      <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -6035,10 +6176,10 @@
     <row r="84" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -6061,10 +6202,10 @@
     <row r="85" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -6088,9 +6229,9 @@
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -6138,15 +6279,15 @@
     </row>
     <row r="88" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="B88" s="3"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -6164,15 +6305,15 @@
     </row>
     <row r="89" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -6190,15 +6331,15 @@
     </row>
     <row r="90" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
+      <c r="B90" s="3"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -6331,9 +6472,9 @@
       <c r="J95" s="1"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
@@ -6355,20 +6496,20 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
-      <c r="T96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="1"/>
-      <c r="X96" s="1"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
     </row>
     <row r="97" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
@@ -6381,20 +6522,20 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="1"/>
-      <c r="T97" s="1"/>
-      <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="1"/>
-      <c r="X97" s="1"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
     </row>
     <row r="98" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
@@ -6407,20 +6548,20 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="1"/>
-      <c r="S98" s="1"/>
-      <c r="T98" s="1"/>
-      <c r="U98" s="1"/>
-      <c r="V98" s="1"/>
-      <c r="W98" s="1"/>
-      <c r="X98" s="1"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
     </row>
     <row r="99" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
@@ -6816,13 +6957,13 @@
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="3"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -6842,13 +6983,13 @@
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="3"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -6868,13 +7009,13 @@
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="3"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -7045,14 +7186,6 @@
       <c r="V122" s="1"/>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
-      <c r="AA122" s="1"/>
-      <c r="AB122" s="1"/>
-      <c r="AC122" s="1"/>
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="1"/>
-      <c r="AF122" s="1"/>
     </row>
     <row r="123" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -7079,14 +7212,6 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
-      <c r="Y123" s="1"/>
-      <c r="Z123" s="1"/>
-      <c r="AA123" s="1"/>
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
-      <c r="AD123" s="1"/>
-      <c r="AE123" s="1"/>
-      <c r="AF123" s="1"/>
     </row>
     <row r="124" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -7113,14 +7238,6 @@
       <c r="V124" s="1"/>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="1"/>
-      <c r="Z124" s="1"/>
-      <c r="AA124" s="1"/>
-      <c r="AB124" s="1"/>
-      <c r="AC124" s="1"/>
-      <c r="AD124" s="1"/>
-      <c r="AE124" s="1"/>
-      <c r="AF124" s="1"/>
     </row>
     <row r="125" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
@@ -7738,13 +7855,13 @@
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="1"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="3"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -7772,13 +7889,13 @@
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="1"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="3"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -7806,13 +7923,13 @@
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="1"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="3"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -37656,6 +37773,7 @@
     </row>
     <row r="1023" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
       <c r="D1023" s="1"/>
       <c r="E1023" s="12"/>
@@ -37665,6 +37783,9 @@
       <c r="I1023" s="12"/>
       <c r="J1023" s="1"/>
       <c r="K1023" s="1"/>
+      <c r="L1023" s="1"/>
+      <c r="M1023" s="1"/>
+      <c r="N1023" s="1"/>
       <c r="O1023" s="1"/>
       <c r="P1023" s="1"/>
       <c r="Q1023" s="1"/>
@@ -37686,6 +37807,7 @@
     </row>
     <row r="1024" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
       <c r="D1024" s="1"/>
       <c r="E1024" s="12"/>
@@ -37695,6 +37817,9 @@
       <c r="I1024" s="12"/>
       <c r="J1024" s="1"/>
       <c r="K1024" s="1"/>
+      <c r="L1024" s="1"/>
+      <c r="M1024" s="1"/>
+      <c r="N1024" s="1"/>
       <c r="O1024" s="1"/>
       <c r="P1024" s="1"/>
       <c r="Q1024" s="1"/>
@@ -37716,6 +37841,8 @@
     </row>
     <row r="1025" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="1"/>
       <c r="D1025" s="1"/>
       <c r="E1025" s="12"/>
       <c r="F1025" s="12"/>
@@ -37724,6 +37851,10 @@
       <c r="I1025" s="12"/>
       <c r="J1025" s="1"/>
       <c r="K1025" s="1"/>
+      <c r="L1025" s="1"/>
+      <c r="M1025" s="1"/>
+      <c r="N1025" s="1"/>
+      <c r="O1025" s="1"/>
       <c r="P1025" s="1"/>
       <c r="Q1025" s="1"/>
       <c r="R1025" s="1"/>
@@ -37743,6 +37874,8 @@
       <c r="AF1025" s="1"/>
     </row>
     <row r="1026" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1"/>
+      <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="12"/>
       <c r="F1026" s="12"/>
@@ -37750,8 +37883,29 @@
       <c r="H1026" s="12"/>
       <c r="I1026" s="12"/>
       <c r="J1026" s="1"/>
+      <c r="K1026" s="1"/>
+      <c r="O1026" s="1"/>
+      <c r="P1026" s="1"/>
+      <c r="Q1026" s="1"/>
+      <c r="R1026" s="1"/>
+      <c r="S1026" s="1"/>
+      <c r="T1026" s="1"/>
+      <c r="U1026" s="1"/>
+      <c r="V1026" s="1"/>
+      <c r="W1026" s="1"/>
+      <c r="X1026" s="1"/>
+      <c r="Y1026" s="1"/>
+      <c r="Z1026" s="1"/>
+      <c r="AA1026" s="1"/>
+      <c r="AB1026" s="1"/>
+      <c r="AC1026" s="1"/>
+      <c r="AD1026" s="1"/>
+      <c r="AE1026" s="1"/>
+      <c r="AF1026" s="1"/>
     </row>
     <row r="1027" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1"/>
+      <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="12"/>
       <c r="F1027" s="12"/>
@@ -37759,8 +37913,28 @@
       <c r="H1027" s="12"/>
       <c r="I1027" s="12"/>
       <c r="J1027" s="1"/>
+      <c r="K1027" s="1"/>
+      <c r="O1027" s="1"/>
+      <c r="P1027" s="1"/>
+      <c r="Q1027" s="1"/>
+      <c r="R1027" s="1"/>
+      <c r="S1027" s="1"/>
+      <c r="T1027" s="1"/>
+      <c r="U1027" s="1"/>
+      <c r="V1027" s="1"/>
+      <c r="W1027" s="1"/>
+      <c r="X1027" s="1"/>
+      <c r="Y1027" s="1"/>
+      <c r="Z1027" s="1"/>
+      <c r="AA1027" s="1"/>
+      <c r="AB1027" s="1"/>
+      <c r="AC1027" s="1"/>
+      <c r="AD1027" s="1"/>
+      <c r="AE1027" s="1"/>
+      <c r="AF1027" s="1"/>
     </row>
     <row r="1028" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="12"/>
       <c r="F1028" s="12"/>
@@ -37768,6 +37942,24 @@
       <c r="H1028" s="12"/>
       <c r="I1028" s="12"/>
       <c r="J1028" s="1"/>
+      <c r="K1028" s="1"/>
+      <c r="P1028" s="1"/>
+      <c r="Q1028" s="1"/>
+      <c r="R1028" s="1"/>
+      <c r="S1028" s="1"/>
+      <c r="T1028" s="1"/>
+      <c r="U1028" s="1"/>
+      <c r="V1028" s="1"/>
+      <c r="W1028" s="1"/>
+      <c r="X1028" s="1"/>
+      <c r="Y1028" s="1"/>
+      <c r="Z1028" s="1"/>
+      <c r="AA1028" s="1"/>
+      <c r="AB1028" s="1"/>
+      <c r="AC1028" s="1"/>
+      <c r="AD1028" s="1"/>
+      <c r="AE1028" s="1"/>
+      <c r="AF1028" s="1"/>
     </row>
     <row r="1029" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1029" s="1"/>
@@ -38165,565 +38357,660 @@
       <c r="I1072" s="12"/>
       <c r="J1072" s="1"/>
     </row>
+    <row r="1073" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1073" s="1"/>
+      <c r="E1073" s="12"/>
+      <c r="F1073" s="12"/>
+      <c r="G1073" s="12"/>
+      <c r="H1073" s="12"/>
+      <c r="I1073" s="12"/>
+      <c r="J1073" s="1"/>
+    </row>
+    <row r="1074" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1074" s="1"/>
+      <c r="E1074" s="12"/>
+      <c r="F1074" s="12"/>
+      <c r="G1074" s="12"/>
+      <c r="H1074" s="12"/>
+      <c r="I1074" s="12"/>
+      <c r="J1074" s="1"/>
+    </row>
+    <row r="1075" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1075" s="1"/>
+      <c r="E1075" s="12"/>
+      <c r="F1075" s="12"/>
+      <c r="G1075" s="12"/>
+      <c r="H1075" s="12"/>
+      <c r="I1075" s="12"/>
+      <c r="J1075" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="B17:J17"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C13"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="C6:C16"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C30:C34"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E21:F21 E19 E24:E25 E40:F43 E45:F45 F21:F25 E33:F38 E27:F31 E3:F3 E17 F17:F19 E6:F12">
-    <cfRule type="containsText" dxfId="135" priority="290" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E24:F24 E22 E27:E28 E43:F46 E48:F48 F24:F28 E36:F41 E30:F34 E3:F3 E20 F20:F22 E6:F12">
+    <cfRule type="containsText" dxfId="145" priority="301" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="291" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="144" priority="302" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="292" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="143" priority="303" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="293" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="142" priority="304" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="294" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="141" priority="305" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J21 J33:J38 J6:J12 J3 J17:J19">
-    <cfRule type="containsText" dxfId="130" priority="261" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J24 J36:J41 J6:J12 J3 J20:J22">
+    <cfRule type="containsText" dxfId="140" priority="272" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="262" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="139" priority="273" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="263" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="138" priority="274" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="264" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="275" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="containsText" dxfId="127" priority="164" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E22)))</formula>
+  <conditionalFormatting sqref="E25:E26">
+    <cfRule type="containsText" dxfId="137" priority="175" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="165" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E22)))</formula>
+    <cfRule type="containsText" dxfId="136" priority="176" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="166" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E22)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="177" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="167" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E22)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="178" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="168" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E22)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="179" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:J25">
-    <cfRule type="containsText" dxfId="122" priority="160" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J22)))</formula>
+  <conditionalFormatting sqref="J25:J28">
+    <cfRule type="containsText" dxfId="132" priority="171" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="161" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J22)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="172" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="162" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J22)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="173" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="163" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J22)))</formula>
+    <cfRule type="containsText" priority="174" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="119" priority="155" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="containsText" dxfId="129" priority="166" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="156" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    <cfRule type="containsText" dxfId="128" priority="167" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="157" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    <cfRule type="containsText" dxfId="127" priority="168" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="158" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
+    <cfRule type="containsText" dxfId="126" priority="169" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="159" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
+    <cfRule type="containsText" dxfId="125" priority="170" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J31">
-    <cfRule type="containsText" dxfId="114" priority="138" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+  <conditionalFormatting sqref="J30:J34">
+    <cfRule type="containsText" dxfId="124" priority="149" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="139" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    <cfRule type="containsText" dxfId="123" priority="150" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="140" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    <cfRule type="containsText" dxfId="122" priority="151" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="141" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    <cfRule type="containsText" priority="152" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J40:J43">
-    <cfRule type="containsText" dxfId="111" priority="130" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J40)))</formula>
+  <conditionalFormatting sqref="J43:J46">
+    <cfRule type="containsText" dxfId="121" priority="141" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="131" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J40)))</formula>
+    <cfRule type="containsText" dxfId="120" priority="142" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="132" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J40)))</formula>
+    <cfRule type="containsText" dxfId="119" priority="143" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J43)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="133" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J40)))</formula>
+    <cfRule type="containsText" priority="144" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
-    <cfRule type="containsText" dxfId="108" priority="126" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J45)))</formula>
+  <conditionalFormatting sqref="J48">
+    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="127" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    <cfRule type="containsText" dxfId="117" priority="138" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="128" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    <cfRule type="containsText" dxfId="116" priority="139" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="129" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J45)))</formula>
+    <cfRule type="containsText" priority="140" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F17:F19 F6:F12">
-    <cfRule type="containsText" dxfId="105" priority="125" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F3 F20:F22 F6:F12">
+    <cfRule type="containsText" dxfId="115" priority="136" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F25">
-    <cfRule type="containsText" dxfId="104" priority="124" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="containsText" dxfId="114" priority="135" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="103" priority="123" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="113" priority="134" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="102" priority="122" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="112" priority="133" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F38">
-    <cfRule type="containsText" dxfId="101" priority="121" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F34)))</formula>
+  <conditionalFormatting sqref="F37:F41">
+    <cfRule type="containsText" dxfId="111" priority="132" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:F43">
-    <cfRule type="containsText" dxfId="100" priority="120" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F40)))</formula>
+  <conditionalFormatting sqref="F43:F46">
+    <cfRule type="containsText" dxfId="110" priority="131" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="99" priority="119" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="containsText" dxfId="109" priority="130" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="98" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="129"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F17:F19 F6:F12">
-    <cfRule type="containsText" dxfId="97" priority="102" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F3 F20:F22 F6:F12">
+    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F25">
-    <cfRule type="containsText" dxfId="96" priority="101" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F25">
-    <cfRule type="containsText" dxfId="95" priority="96" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="97" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
+    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="98" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="99" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F21)))</formula>
+    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="100" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
+    <cfRule type="containsText" dxfId="101" priority="111" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F25">
-    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="containsText" dxfId="100" priority="106" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F25">
-    <cfRule type="containsText" dxfId="89" priority="94" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
+    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
+    <cfRule type="containsText" dxfId="94" priority="100" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="90" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
+    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="91" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
+    <cfRule type="containsText" dxfId="92" priority="102" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="81" priority="86" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F38">
-    <cfRule type="containsText" dxfId="79" priority="84" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F34)))</formula>
+  <conditionalFormatting sqref="F37:F41">
+    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="75" priority="76" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="77" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F33)))</formula>
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="78" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="79" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F33)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="90" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="80" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F33)))</formula>
+    <cfRule type="containsText" dxfId="81" priority="91" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="69" priority="74" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="66" priority="71" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="65" priority="66" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="67" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F33)))</formula>
+    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F33)))</formula>
+    <cfRule type="containsText" dxfId="72" priority="80" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="70" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F33)))</formula>
+    <cfRule type="containsText" dxfId="71" priority="81" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33:F38">
-    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F33)))</formula>
+  <conditionalFormatting sqref="F36:F41">
+    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
+    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
+    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
+    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
+    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
+  <conditionalFormatting sqref="F30:F34">
+    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F13">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+  <conditionalFormatting sqref="E16:F16">
+    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
+    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="49" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
+    <cfRule type="containsText" priority="60" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="33" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="44" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F16 F15">
+  <conditionalFormatting sqref="E19:F19">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="33" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
     <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",F18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Medium",F18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Low",F18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mediun",F18)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
+      <formula>NOT(ISERROR(SEARCH("High",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="22" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J16)))</formula>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="21" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="10" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J15)))</formula>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+  <conditionalFormatting sqref="E13:F15">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J15">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="6" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J40:J43 J27:J31 J45 J33:J38 J3:J4 J15:J19 J6:J13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J24:J28 J43:J46 J30:J34 J48 J36:J41 J3:J4 J18:J22 J6:J16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E40:E43 E21:E25 E27:E31 E33:E38 E45" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43:E46 E24:E28 E30:E34 E36:E41 E48" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F27:F31 F21:F25 F33:F38 F45 F40:F43 F3:F4 F6:F13 F15:F19" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F34 F24:F28 F36:F41 F48 F43:F46 F3:F4 F18:F22 F6:F16" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E15:E19 E6:E13" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E18:E22 E6:E16" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D158B7-5416-48BE-ADAB-DA0BB9F4C953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F84308-0DE9-4484-8EFF-11B1104EBACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="15210" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>ID</t>
   </si>
@@ -411,6 +411,27 @@
   </si>
   <si>
     <t>Xem danh sách sơ đồ tổ chức</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>FR.37</t>
+  </si>
+  <si>
+    <t>FR.38</t>
+  </si>
+  <si>
+    <t>FR.39</t>
+  </si>
+  <si>
+    <t>FR.40</t>
+  </si>
+  <si>
+    <t>FR.41</t>
   </si>
 </sst>
 </file>
@@ -963,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1048,9 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,6 +1162,15 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1163,19 +1190,335 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="146">
+  <dxfs count="178">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2941,384 +3284,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="34"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="59" t="s">
+      <c r="M3" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="60"/>
-      <c r="O3" s="38"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="39" t="s">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="59" t="s">
+      <c r="M4" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="60"/>
-      <c r="O4" s="38"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="59" t="s">
+      <c r="M5" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="38"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="37"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="39" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="59" t="s">
+      <c r="M6" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="38"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="37" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="38"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="61" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="41" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="M12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="O12" s="40" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="42" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="43" t="s">
+      <c r="M13" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="44" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="47"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3340,11 +3683,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1075"/>
+  <dimension ref="A1:AF1077"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3457,7 +3800,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="63" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3506,10 +3849,10 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="72"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3557,15 +3900,15 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -3597,7 +3940,7 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="63" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -3647,10 +3990,10 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -3692,10 +4035,10 @@
     </row>
     <row r="8" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -3735,10 +4078,10 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -3777,10 +4120,10 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="71"/>
+      <c r="C10" s="64"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -3819,10 +4162,10 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="71"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -3861,10 +4204,10 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="71"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -3903,10 +4246,10 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -3945,10 +4288,10 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="19" t="s">
         <v>117</v>
       </c>
@@ -3981,10 +4324,10 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="71"/>
+      <c r="C15" s="64"/>
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
@@ -4020,7 +4363,7 @@
       <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="64"/>
       <c r="D16" s="19" t="s">
         <v>118</v>
       </c>
@@ -4059,19 +4402,24 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
+      <c r="B17" s="51" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="D17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
@@ -4087,41 +4435,27 @@
       <c r="AA17" s="3"/>
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
-        <v>32</v>
+      <c r="B18" s="51" t="s">
+        <v>33</v>
       </c>
-      <c r="C18" s="70" t="s">
-        <v>97</v>
-      </c>
+      <c r="C18" s="65"/>
       <c r="D18" s="19" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="G18" s="22">
-        <v>43822</v>
-      </c>
-      <c r="H18" s="22">
-        <v>43823</v>
-      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J18" s="23"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -4137,35 +4471,18 @@
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
       <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H19" s="22">
-        <v>43827</v>
-      </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4191,24 +4508,26 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="71"/>
+      <c r="C20" s="72" t="s">
+        <v>97</v>
+      </c>
       <c r="D20" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G20" s="22">
-        <v>43826</v>
+        <v>43822</v>
       </c>
       <c r="H20" s="22">
-        <v>43827</v>
+        <v>43823</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23" t="s">
@@ -4239,12 +4558,12 @@
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="71"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>7</v>
@@ -4287,12 +4606,12 @@
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="72"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>7</v>
@@ -4335,19 +4654,33 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="73"/>
+      <c r="D23" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H23" s="22">
+        <v>43827</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
@@ -4369,35 +4702,33 @@
     </row>
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="17" t="s">
-        <v>34</v>
+      <c r="B24" s="51" t="s">
+        <v>38</v>
       </c>
-      <c r="C24" s="69" t="s">
-        <v>57</v>
-      </c>
+      <c r="C24" s="74"/>
       <c r="D24" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G24" s="22">
-        <v>43836</v>
+        <v>43826</v>
       </c>
       <c r="H24" s="22">
-        <v>43838</v>
+        <v>43827</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -4419,33 +4750,19 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H25" s="22">
-        <v>43838</v>
-      </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
@@ -4467,12 +4784,14 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="32" t="s">
-        <v>36</v>
+      <c r="B26" s="51" t="s">
+        <v>39</v>
       </c>
-      <c r="C26" s="69"/>
+      <c r="C26" s="71" t="s">
+        <v>57</v>
+      </c>
       <c r="D26" s="19" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>7</v>
@@ -4491,9 +4810,9 @@
         <v>13</v>
       </c>
       <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="50"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -4515,18 +4834,18 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="32" t="s">
-        <v>37</v>
+      <c r="B27" s="51" t="s">
+        <v>40</v>
       </c>
-      <c r="C27" s="69"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="22">
         <v>43836</v>
@@ -4539,9 +4858,9 @@
         <v>13</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
@@ -4563,18 +4882,18 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="32" t="s">
-        <v>38</v>
+      <c r="B28" s="51" t="s">
+        <v>41</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" s="22">
         <v>43836</v>
@@ -4610,16 +4929,30 @@
       <c r="AF28" s="3"/>
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H29" s="22">
+        <v>43838</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -4644,27 +4977,25 @@
       <c r="AF29" s="3"/>
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="17" t="s">
-        <v>39</v>
+      <c r="A30" s="1"/>
+      <c r="B30" s="51" t="s">
+        <v>47</v>
       </c>
-      <c r="C30" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>95</v>
+      <c r="C30" s="71"/>
+      <c r="D30" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G30" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H30" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23" t="s">
@@ -4694,34 +5025,20 @@
       <c r="AF30" s="3"/>
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H31" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="49"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -4742,13 +5059,15 @@
       <c r="AF31" s="3"/>
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="32" t="s">
-        <v>41</v>
+      <c r="A32" s="1"/>
+      <c r="B32" s="51" t="s">
+        <v>48</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="71" t="s">
+        <v>14</v>
+      </c>
       <c r="D32" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
@@ -4790,19 +5109,19 @@
       <c r="AF32" s="3"/>
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="32" t="s">
-        <v>46</v>
+      <c r="A33" s="1"/>
+      <c r="B33" s="51" t="s">
+        <v>49</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="26" t="s">
-        <v>68</v>
+      <c r="C33" s="71"/>
+      <c r="D33" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" s="22">
         <v>43839</v>
@@ -4839,12 +5158,12 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="32" t="s">
-        <v>47</v>
+      <c r="B34" s="51" t="s">
+        <v>58</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="26" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>7</v>
@@ -4886,16 +5205,30 @@
       <c r="AF34" s="3"/>
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="71"/>
+      <c r="D35" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H35" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4921,14 +5254,12 @@
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="18" t="s">
-        <v>48</v>
+      <c r="B36" s="51" t="s">
+        <v>60</v>
       </c>
-      <c r="C36" s="70" t="s">
-        <v>15</v>
-      </c>
+      <c r="C36" s="71"/>
       <c r="D36" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>7</v>
@@ -4937,10 +5268,10 @@
         <v>80</v>
       </c>
       <c r="G36" s="22">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="H36" s="22">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23" t="s">
@@ -4970,30 +5301,16 @@
       <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H37" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -5003,15 +5320,30 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="32" t="s">
-        <v>58</v>
+      <c r="A38" s="3"/>
+      <c r="B38" s="51" t="s">
+        <v>61</v>
       </c>
-      <c r="C38" s="71"/>
+      <c r="C38" s="63" t="s">
+        <v>15</v>
+      </c>
       <c r="D38" s="26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>7</v>
@@ -5038,15 +5370,28 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="32" t="s">
-        <v>59</v>
+      <c r="A39" s="3"/>
+      <c r="B39" s="51" t="s">
+        <v>62</v>
       </c>
-      <c r="C39" s="71"/>
+      <c r="C39" s="64"/>
       <c r="D39" s="26" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>7</v>
@@ -5073,15 +5418,28 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="32" t="s">
-        <v>60</v>
+      <c r="B40" s="51" t="s">
+        <v>63</v>
       </c>
-      <c r="C40" s="71"/>
+      <c r="C40" s="64"/>
       <c r="D40" s="26" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>7</v>
@@ -5108,15 +5466,28 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="32" t="s">
-        <v>61</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="51" t="s">
+        <v>64</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="64"/>
       <c r="D41" s="26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>7</v>
@@ -5125,33 +5496,63 @@
         <v>80</v>
       </c>
       <c r="G41" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H41" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="67"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="68"/>
+      <c r="B42" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="64"/>
+      <c r="D42" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H42" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -5164,17 +5565,15 @@
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="17" t="s">
-        <v>62</v>
+      <c r="B43" s="51" t="s">
+        <v>66</v>
       </c>
-      <c r="C43" s="69" t="s">
-        <v>16</v>
-      </c>
+      <c r="C43" s="65"/>
       <c r="D43" s="26" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>80</v>
@@ -5193,48 +5592,43 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="69"/>
-      <c r="D44" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H44" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="32" t="s">
-        <v>64</v>
+      <c r="B45" s="51" t="s">
+        <v>121</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="71" t="s">
+        <v>16</v>
+      </c>
       <c r="D45" s="26" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>10</v>
@@ -5264,12 +5658,12 @@
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="32" t="s">
-        <v>65</v>
+      <c r="B46" s="51" t="s">
+        <v>122</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="26" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>10</v>
@@ -5288,9 +5682,6 @@
         <v>13</v>
       </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -5299,15 +5690,29 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
+      <c r="B47" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H47" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -5320,17 +5725,15 @@
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="17" t="s">
-        <v>66</v>
+      <c r="B48" s="51" t="s">
+        <v>124</v>
       </c>
-      <c r="C48" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="C48" s="71"/>
       <c r="D48" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>80</v>
@@ -5349,65 +5752,74 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
     </row>
-    <row r="49" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="3"/>
+    <row r="49" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
+      <c r="B50" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H50" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K50" s="3"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
     </row>
-    <row r="51" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
+      <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5418,7 +5830,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5433,13 +5845,13 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="1"/>
+      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5450,17 +5862,17 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="1"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+    </row>
+    <row r="54" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5472,16 +5884,16 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5493,16 +5905,16 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5515,12 +5927,15 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5531,9 +5946,17 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
-      <c r="K57" s="1"/>
-    </row>
-    <row r="58" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+    </row>
+    <row r="58" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5544,9 +5967,17 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="1"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5558,8 +5989,16 @@
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+    </row>
+    <row r="60" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5571,11 +6010,16 @@
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+    </row>
+    <row r="61" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5588,20 +6032,12 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5612,22 +6048,9 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5639,21 +6062,8 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5665,19 +6075,6 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
     </row>
     <row r="65" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -5691,19 +6088,9 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
     </row>
     <row r="66" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
@@ -6228,7 +6615,7 @@
     <row r="86" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="1"/>
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -6254,10 +6641,10 @@
     <row r="87" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -6281,9 +6668,9 @@
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -6357,15 +6744,15 @@
     </row>
     <row r="91" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -6383,15 +6770,15 @@
     </row>
     <row r="92" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
+      <c r="B92" s="3"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -6550,9 +6937,9 @@
       <c r="J98" s="1"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
@@ -6574,20 +6961,20 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1"/>
-      <c r="S99" s="1"/>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1"/>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1"/>
-      <c r="X99" s="1"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
     </row>
     <row r="100" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
@@ -6600,20 +6987,20 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
     </row>
     <row r="101" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
@@ -6626,20 +7013,20 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1"/>
-      <c r="R101" s="1"/>
-      <c r="S101" s="1"/>
-      <c r="T101" s="1"/>
-      <c r="U101" s="1"/>
-      <c r="V101" s="1"/>
-      <c r="W101" s="1"/>
-      <c r="X101" s="1"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
     </row>
     <row r="102" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
@@ -6652,20 +7039,20 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1"/>
-      <c r="S102" s="1"/>
-      <c r="T102" s="1"/>
-      <c r="U102" s="1"/>
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-      <c r="X102" s="1"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
     </row>
     <row r="103" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
@@ -6678,20 +7065,20 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
       <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103" s="1"/>
-      <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
-      <c r="W103" s="1"/>
-      <c r="X103" s="1"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
     </row>
     <row r="104" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
@@ -6927,7 +7314,7 @@
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
     </row>
-    <row r="113" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -6953,7 +7340,7 @@
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
     </row>
-    <row r="114" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -6979,7 +7366,7 @@
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
     </row>
-    <row r="115" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7005,7 +7392,7 @@
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
     </row>
-    <row r="116" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7031,17 +7418,17 @@
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
     </row>
-    <row r="117" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="3"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -7057,17 +7444,17 @@
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
     </row>
-    <row r="118" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="3"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -7083,7 +7470,7 @@
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
     </row>
-    <row r="119" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7109,7 +7496,7 @@
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
     </row>
-    <row r="120" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7135,7 +7522,7 @@
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
     </row>
-    <row r="121" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7161,7 +7548,7 @@
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
     </row>
-    <row r="122" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7187,7 +7574,7 @@
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
     </row>
-    <row r="123" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -7213,7 +7600,7 @@
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
     </row>
-    <row r="124" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -7239,7 +7626,7 @@
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
     </row>
-    <row r="125" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -7264,16 +7651,8 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="1"/>
-      <c r="Z125" s="1"/>
-      <c r="AA125" s="1"/>
-      <c r="AB125" s="1"/>
-      <c r="AC125" s="1"/>
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="1"/>
-      <c r="AF125" s="1"/>
-    </row>
-    <row r="126" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -7298,16 +7677,8 @@
       <c r="V126" s="1"/>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
-      <c r="Y126" s="1"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1"/>
-      <c r="AD126" s="1"/>
-      <c r="AE126" s="1"/>
-      <c r="AF126" s="1"/>
-    </row>
-    <row r="127" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7332,16 +7703,8 @@
       <c r="V127" s="1"/>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
-      <c r="Y127" s="1"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="1"/>
-      <c r="AF127" s="1"/>
-    </row>
-    <row r="128" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -7366,14 +7729,6 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
-      <c r="Y128" s="1"/>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
-      <c r="AD128" s="1"/>
-      <c r="AE128" s="1"/>
-      <c r="AF128" s="1"/>
     </row>
     <row r="129" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
@@ -7400,14 +7755,6 @@
       <c r="V129" s="1"/>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="1"/>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="1"/>
-      <c r="AC129" s="1"/>
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="1"/>
-      <c r="AF129" s="1"/>
     </row>
     <row r="130" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
@@ -7957,13 +8304,13 @@
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="1"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="3"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -7991,13 +8338,13 @@
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="1"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="3"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -37875,6 +38222,7 @@
     </row>
     <row r="1026" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
       <c r="D1026" s="1"/>
       <c r="E1026" s="12"/>
@@ -37884,6 +38232,9 @@
       <c r="I1026" s="12"/>
       <c r="J1026" s="1"/>
       <c r="K1026" s="1"/>
+      <c r="L1026" s="1"/>
+      <c r="M1026" s="1"/>
+      <c r="N1026" s="1"/>
       <c r="O1026" s="1"/>
       <c r="P1026" s="1"/>
       <c r="Q1026" s="1"/>
@@ -37905,6 +38256,7 @@
     </row>
     <row r="1027" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
       <c r="D1027" s="1"/>
       <c r="E1027" s="12"/>
@@ -37914,6 +38266,9 @@
       <c r="I1027" s="12"/>
       <c r="J1027" s="1"/>
       <c r="K1027" s="1"/>
+      <c r="L1027" s="1"/>
+      <c r="M1027" s="1"/>
+      <c r="N1027" s="1"/>
       <c r="O1027" s="1"/>
       <c r="P1027" s="1"/>
       <c r="Q1027" s="1"/>
@@ -37935,6 +38290,7 @@
     </row>
     <row r="1028" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="1"/>
+      <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="12"/>
       <c r="F1028" s="12"/>
@@ -37943,6 +38299,10 @@
       <c r="I1028" s="12"/>
       <c r="J1028" s="1"/>
       <c r="K1028" s="1"/>
+      <c r="L1028" s="1"/>
+      <c r="M1028" s="1"/>
+      <c r="N1028" s="1"/>
+      <c r="O1028" s="1"/>
       <c r="P1028" s="1"/>
       <c r="Q1028" s="1"/>
       <c r="R1028" s="1"/>
@@ -37962,6 +38322,8 @@
       <c r="AF1028" s="1"/>
     </row>
     <row r="1029" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1"/>
+      <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="12"/>
       <c r="F1029" s="12"/>
@@ -37969,8 +38331,31 @@
       <c r="H1029" s="12"/>
       <c r="I1029" s="12"/>
       <c r="J1029" s="1"/>
+      <c r="K1029" s="1"/>
+      <c r="L1029" s="1"/>
+      <c r="M1029" s="1"/>
+      <c r="N1029" s="1"/>
+      <c r="O1029" s="1"/>
+      <c r="P1029" s="1"/>
+      <c r="Q1029" s="1"/>
+      <c r="R1029" s="1"/>
+      <c r="S1029" s="1"/>
+      <c r="T1029" s="1"/>
+      <c r="U1029" s="1"/>
+      <c r="V1029" s="1"/>
+      <c r="W1029" s="1"/>
+      <c r="X1029" s="1"/>
+      <c r="Y1029" s="1"/>
+      <c r="Z1029" s="1"/>
+      <c r="AA1029" s="1"/>
+      <c r="AB1029" s="1"/>
+      <c r="AC1029" s="1"/>
+      <c r="AD1029" s="1"/>
+      <c r="AE1029" s="1"/>
+      <c r="AF1029" s="1"/>
     </row>
     <row r="1030" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="12"/>
       <c r="F1030" s="12"/>
@@ -37978,8 +38363,31 @@
       <c r="H1030" s="12"/>
       <c r="I1030" s="12"/>
       <c r="J1030" s="1"/>
+      <c r="K1030" s="1"/>
+      <c r="L1030" s="1"/>
+      <c r="M1030" s="1"/>
+      <c r="N1030" s="1"/>
+      <c r="O1030" s="1"/>
+      <c r="P1030" s="1"/>
+      <c r="Q1030" s="1"/>
+      <c r="R1030" s="1"/>
+      <c r="S1030" s="1"/>
+      <c r="T1030" s="1"/>
+      <c r="U1030" s="1"/>
+      <c r="V1030" s="1"/>
+      <c r="W1030" s="1"/>
+      <c r="X1030" s="1"/>
+      <c r="Y1030" s="1"/>
+      <c r="Z1030" s="1"/>
+      <c r="AA1030" s="1"/>
+      <c r="AB1030" s="1"/>
+      <c r="AC1030" s="1"/>
+      <c r="AD1030" s="1"/>
+      <c r="AE1030" s="1"/>
+      <c r="AF1030" s="1"/>
     </row>
     <row r="1031" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="12"/>
       <c r="F1031" s="12"/>
@@ -37987,8 +38395,28 @@
       <c r="H1031" s="12"/>
       <c r="I1031" s="12"/>
       <c r="J1031" s="1"/>
+      <c r="K1031" s="1"/>
+      <c r="O1031" s="1"/>
+      <c r="P1031" s="1"/>
+      <c r="Q1031" s="1"/>
+      <c r="R1031" s="1"/>
+      <c r="S1031" s="1"/>
+      <c r="T1031" s="1"/>
+      <c r="U1031" s="1"/>
+      <c r="V1031" s="1"/>
+      <c r="W1031" s="1"/>
+      <c r="X1031" s="1"/>
+      <c r="Y1031" s="1"/>
+      <c r="Z1031" s="1"/>
+      <c r="AA1031" s="1"/>
+      <c r="AB1031" s="1"/>
+      <c r="AC1031" s="1"/>
+      <c r="AD1031" s="1"/>
+      <c r="AE1031" s="1"/>
+      <c r="AF1031" s="1"/>
     </row>
     <row r="1032" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1"/>
       <c r="D1032" s="1"/>
       <c r="E1032" s="12"/>
       <c r="F1032" s="12"/>
@@ -37996,8 +38424,28 @@
       <c r="H1032" s="12"/>
       <c r="I1032" s="12"/>
       <c r="J1032" s="1"/>
+      <c r="K1032" s="1"/>
+      <c r="O1032" s="1"/>
+      <c r="P1032" s="1"/>
+      <c r="Q1032" s="1"/>
+      <c r="R1032" s="1"/>
+      <c r="S1032" s="1"/>
+      <c r="T1032" s="1"/>
+      <c r="U1032" s="1"/>
+      <c r="V1032" s="1"/>
+      <c r="W1032" s="1"/>
+      <c r="X1032" s="1"/>
+      <c r="Y1032" s="1"/>
+      <c r="Z1032" s="1"/>
+      <c r="AA1032" s="1"/>
+      <c r="AB1032" s="1"/>
+      <c r="AC1032" s="1"/>
+      <c r="AD1032" s="1"/>
+      <c r="AE1032" s="1"/>
+      <c r="AF1032" s="1"/>
     </row>
     <row r="1033" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="12"/>
       <c r="F1033" s="12"/>
@@ -38005,6 +38453,24 @@
       <c r="H1033" s="12"/>
       <c r="I1033" s="12"/>
       <c r="J1033" s="1"/>
+      <c r="K1033" s="1"/>
+      <c r="P1033" s="1"/>
+      <c r="Q1033" s="1"/>
+      <c r="R1033" s="1"/>
+      <c r="S1033" s="1"/>
+      <c r="T1033" s="1"/>
+      <c r="U1033" s="1"/>
+      <c r="V1033" s="1"/>
+      <c r="W1033" s="1"/>
+      <c r="X1033" s="1"/>
+      <c r="Y1033" s="1"/>
+      <c r="Z1033" s="1"/>
+      <c r="AA1033" s="1"/>
+      <c r="AB1033" s="1"/>
+      <c r="AC1033" s="1"/>
+      <c r="AD1033" s="1"/>
+      <c r="AE1033" s="1"/>
+      <c r="AF1033" s="1"/>
     </row>
     <row r="1034" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1034" s="1"/>
@@ -38384,633 +38850,735 @@
       <c r="I1075" s="12"/>
       <c r="J1075" s="1"/>
     </row>
+    <row r="1076" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1076" s="1"/>
+      <c r="E1076" s="12"/>
+      <c r="F1076" s="12"/>
+      <c r="G1076" s="12"/>
+      <c r="H1076" s="12"/>
+      <c r="I1076" s="12"/>
+      <c r="J1076" s="1"/>
+    </row>
+    <row r="1077" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1077" s="1"/>
+      <c r="E1077" s="12"/>
+      <c r="F1077" s="12"/>
+      <c r="G1077" s="12"/>
+      <c r="H1077" s="12"/>
+      <c r="I1077" s="12"/>
+      <c r="J1077" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C18:C22"/>
-    <mergeCell ref="B17:J17"/>
+  <mergeCells count="13">
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C38:C43"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="B19:J19"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C16"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="C6:C18"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E24:F24 E22 E27:E28 E43:F46 E48:F48 F24:F28 E36:F41 E30:F34 E3:F3 E20 F20:F22 E6:F12">
-    <cfRule type="containsText" dxfId="145" priority="301" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E26:F26 E29:E30 E45:F48 E50:F50 F26:F30 E38:F43 E32:F36 E3:F3 E22 F22:F23 E6:F12">
+    <cfRule type="containsText" dxfId="177" priority="335" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="302" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="176" priority="336" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="303" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="175" priority="337" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="304" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="174" priority="338" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="305" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="173" priority="339" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24 J36:J41 J6:J12 J3 J20:J22">
-    <cfRule type="containsText" dxfId="140" priority="272" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J26 J38:J43 J6:J12 J3 J22:J23">
+    <cfRule type="containsText" dxfId="172" priority="306" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="273" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="171" priority="307" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="274" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="170" priority="308" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="275" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="309" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E25:E26">
-    <cfRule type="containsText" dxfId="137" priority="175" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
+  <conditionalFormatting sqref="E27:E28">
+    <cfRule type="containsText" dxfId="169" priority="209" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="176" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
+    <cfRule type="containsText" dxfId="168" priority="210" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="177" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
+    <cfRule type="containsText" dxfId="167" priority="211" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="178" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
+    <cfRule type="containsText" dxfId="166" priority="212" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="179" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
+    <cfRule type="containsText" dxfId="165" priority="213" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28">
-    <cfRule type="containsText" dxfId="132" priority="171" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J25)))</formula>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="containsText" dxfId="164" priority="205" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="172" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J25)))</formula>
+    <cfRule type="containsText" dxfId="163" priority="206" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="173" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J25)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="207" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="208" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsText" dxfId="161" priority="200" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="201" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="202" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="203" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="204" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J36">
+    <cfRule type="containsText" dxfId="156" priority="183" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="184" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="185" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="186" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J45:J48">
+    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="177" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="178" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J50">
+    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="172" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J50)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="173" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J50)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="174" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J25)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Not Started",J50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="129" priority="166" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F3 F22:F23 F6:F12">
+    <cfRule type="containsText" dxfId="147" priority="170" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="146" priority="169" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="145" priority="168" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F43">
+    <cfRule type="containsText" dxfId="143" priority="166" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:F48">
+    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="containsText" dxfId="141" priority="164" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L5">
+    <cfRule type="duplicateValues" dxfId="140" priority="163"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3 F22:F23 F6:F12">
+    <cfRule type="containsText" dxfId="139" priority="147" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="138" priority="146" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="137" priority="141" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="144" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="145" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="131" priority="139" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="130" priority="138" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="135" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="136" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="123" priority="131" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F43">
+    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="119" priority="127" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="118" priority="126" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="117" priority="121" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="123" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="124" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="125" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="109" priority="117" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:F43">
+    <cfRule type="containsText" dxfId="101" priority="109" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="100" priority="108" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="99" priority="107" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="104" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="105" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="106" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36">
+    <cfRule type="containsText" dxfId="92" priority="100" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="81" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="82" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="83" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="78" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="167" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="168" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="169" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="170" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J34">
-    <cfRule type="containsText" dxfId="124" priority="149" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="150" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="151" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
+    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="152" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
+    <cfRule type="containsText" priority="67" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J43:J46">
-    <cfRule type="containsText" dxfId="121" priority="141" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="142" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="143" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="144" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J43)))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="118" priority="137" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="138" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="139" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="140" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J48)))</formula>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F20:F22 F6:F12">
-    <cfRule type="containsText" dxfId="115" priority="136" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsText" dxfId="114" priority="135" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="55" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="51" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F15 E18:F18">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J15 J17:J18">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="40" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15 F18">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15 F18">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:F24">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="29" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="113" priority="134" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="112" priority="133" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F41">
-    <cfRule type="containsText" dxfId="111" priority="132" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F46">
-    <cfRule type="containsText" dxfId="110" priority="131" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="109" priority="130" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="108" priority="129"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F20:F22 F6:F12">
-    <cfRule type="containsText" dxfId="107" priority="113" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="108" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="111" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsText" dxfId="100" priority="106" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F28">
-    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F24">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="96" priority="98" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="99" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="100" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="102" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37:F41">
-    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="88" priority="94" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="86" priority="92" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="90" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="91" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="79" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="78" priority="84" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="77" priority="83" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="76" priority="82" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="75" priority="77" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="78" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="79" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="80" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="81" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F41">
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="61" priority="67" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F34">
-    <cfRule type="containsText" dxfId="60" priority="66" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="59" priority="61" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="62" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="64" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="65" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="58" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="60" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="18" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="50" priority="55" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F4)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E4)))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="42" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="43" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="44" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J4)))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F4)))</formula>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F4)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="33" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="24" priority="23" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="19" priority="22" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="21" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F15">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J24:J28 J43:J46 J30:J34 J48 J36:J41 J3:J4 J18:J22 J6:J16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J26:J30 J45:J48 J32:J36 J50 J38:J43 J3:J4 J20:J24 J6:J18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E43:E46 E24:E28 E30:E34 E36:E41 E48" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45:E48 E26:E30 E32:E36 E38:E43 E50" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F30:F34 F24:F28 F36:F41 F48 F43:F46 F3:F4 F18:F22 F6:F16" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F36 F26:F30 F38:F43 F50 F45:F48 F3:F4 F20:F24 F6:F18" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E18:E22 E6:E16" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E20:E24 E6:E18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F84308-0DE9-4484-8EFF-11B1104EBACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4273009A-2C70-48F8-9B7E-BCF4869B45C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>Xóa chính sách công ty</t>
   </si>
   <si>
-    <t>Tìm kiếm dự án bất động sản</t>
-  </si>
-  <si>
     <t>Xem chi tiết dự án</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>FR.41</t>
+  </si>
+  <si>
+    <t>Xem danh sách dự án</t>
   </si>
 </sst>
 </file>
@@ -1129,6 +1129,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,15 +1171,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1190,19 +1190,383 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="178">
+  <dxfs count="205">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1938,104 +2302,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3284,18 +3550,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
-        <v>113</v>
+      <c r="A1" s="55" t="s">
+        <v>112</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
       <c r="K1" s="33"/>
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
@@ -3303,16 +3569,16 @@
       <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="57"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="33"/>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
@@ -3320,121 +3586,121 @@
       <c r="O2" s="33"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="35"/>
       <c r="L3" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="M3" s="58" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="37"/>
-    </row>
-    <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="38" t="s">
+      <c r="M4" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="N4" s="62"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="37"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36" t="s">
+      <c r="M5" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="N5" s="62"/>
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="59"/>
-      <c r="O5" s="37"/>
-    </row>
-    <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="38" t="s">
+      <c r="M6" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="62"/>
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="58" t="s">
+      <c r="M7" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="59"/>
-      <c r="O6" s="37"/>
-    </row>
-    <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="N7" s="59"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="37"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="57"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="33"/>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -3442,16 +3708,16 @@
       <c r="O8" s="37"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="33"/>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -3459,16 +3725,16 @@
       <c r="O9" s="37"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="33"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -3476,85 +3742,85 @@
       <c r="O10" s="39"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="60" t="s">
+      <c r="L11" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="65"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="62"/>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40" t="s">
+      <c r="M12" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="N12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="O12" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="O12" s="40" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="41" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41" t="s">
-        <v>112</v>
+      <c r="M13" s="42" t="s">
+        <v>114</v>
       </c>
-      <c r="M13" s="42" t="s">
+      <c r="N13" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="O13" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O13" s="44" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="57"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
       <c r="K14" s="35"/>
       <c r="L14" s="45"/>
       <c r="M14" s="46"/>
@@ -3562,16 +3828,16 @@
       <c r="O14" s="46"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="57"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="60"/>
       <c r="K15" s="35"/>
       <c r="L15" s="45"/>
       <c r="M15" s="46"/>
@@ -3579,16 +3845,16 @@
       <c r="O15" s="46"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="60"/>
       <c r="K16" s="35"/>
       <c r="L16" s="47"/>
       <c r="M16" s="48"/>
@@ -3596,16 +3862,16 @@
       <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="57"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="60"/>
       <c r="K17" s="35"/>
       <c r="L17" s="47"/>
       <c r="M17" s="48"/>
@@ -3613,16 +3879,16 @@
       <c r="O17" s="48"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="60"/>
       <c r="K18" s="35"/>
       <c r="L18" s="47"/>
       <c r="M18" s="48"/>
@@ -3630,16 +3896,16 @@
       <c r="O18" s="48"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="57"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="35"/>
       <c r="L19" s="47"/>
       <c r="M19" s="48"/>
@@ -3647,16 +3913,16 @@
       <c r="O19" s="48"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="57"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="35"/>
       <c r="L20" s="47"/>
       <c r="M20" s="48"/>
@@ -3683,11 +3949,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1077"/>
+  <dimension ref="A1:AF1086"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M51" sqref="M51"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3800,7 +4066,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="72" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -3852,7 +4118,7 @@
       <c r="B4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="65"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="19" t="s">
         <v>85</v>
       </c>
@@ -3940,8 +4206,8 @@
       <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="63" t="s">
-        <v>98</v>
+      <c r="C6" s="72" t="s">
+        <v>97</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>43</v>
@@ -3993,7 +4259,7 @@
       <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="24" t="s">
         <v>51</v>
       </c>
@@ -4038,7 +4304,7 @@
       <c r="B8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="64"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="24" t="s">
         <v>53</v>
       </c>
@@ -4081,7 +4347,7 @@
       <c r="B9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="64"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="19" t="s">
         <v>52</v>
       </c>
@@ -4123,7 +4389,7 @@
       <c r="B10" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="64"/>
+      <c r="C10" s="73"/>
       <c r="D10" s="19" t="s">
         <v>87</v>
       </c>
@@ -4165,7 +4431,7 @@
       <c r="B11" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="64"/>
+      <c r="C11" s="73"/>
       <c r="D11" s="19" t="s">
         <v>88</v>
       </c>
@@ -4207,7 +4473,7 @@
       <c r="B12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="19" t="s">
         <v>89</v>
       </c>
@@ -4249,7 +4515,7 @@
       <c r="B13" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="64"/>
+      <c r="C13" s="73"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4291,9 +4557,9 @@
       <c r="B14" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="64"/>
+      <c r="C14" s="73"/>
       <c r="D14" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
@@ -4327,7 +4593,7 @@
       <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="64"/>
+      <c r="C15" s="73"/>
       <c r="D15" s="19" t="s">
         <v>51</v>
       </c>
@@ -4363,9 +4629,9 @@
       <c r="B16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="64"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
@@ -4405,9 +4671,9 @@
       <c r="B17" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="64"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>7</v>
@@ -4438,12 +4704,12 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="65"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>7</v>
@@ -4474,19 +4740,16 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -4502,41 +4765,19 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="22">
-        <v>43822</v>
-      </c>
-      <c r="H20" s="22">
-        <v>43823</v>
-      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J20" s="23"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4552,39 +4793,19 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H21" s="22">
-        <v>43827</v>
-      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="23"/>
-      <c r="J21" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J21" s="23"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -4600,35 +4821,18 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H22" s="22">
-        <v>43827</v>
-      </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4655,23 +4859,25 @@
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="72" t="s">
+        <v>96</v>
+      </c>
       <c r="D23" s="19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="22">
-        <v>43826</v>
+        <v>43822</v>
       </c>
       <c r="H23" s="22">
-        <v>43827</v>
+        <v>43823</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
@@ -4703,11 +4909,11 @@
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
-      <c r="C24" s="74"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="19" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
@@ -4750,15 +4956,29 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="73"/>
+      <c r="D25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H25" s="22">
+        <v>43827</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -4785,25 +5005,23 @@
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
-      <c r="C26" s="71" t="s">
-        <v>57</v>
-      </c>
+      <c r="C26" s="73"/>
       <c r="D26" s="19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" s="22">
-        <v>43836</v>
+        <v>43826</v>
       </c>
       <c r="H26" s="22">
-        <v>43838</v>
+        <v>43827</v>
       </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23" t="s">
@@ -4834,24 +5052,24 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="51" t="s">
-        <v>40</v>
+      <c r="B27" s="52" t="s">
+        <v>38</v>
       </c>
-      <c r="C27" s="71"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="19" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G27" s="22">
-        <v>43836</v>
+        <v>43826</v>
       </c>
       <c r="H27" s="22">
-        <v>43838</v>
+        <v>43827</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23" t="s">
@@ -4882,33 +5100,19 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="71"/>
-      <c r="D28" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H28" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="23"/>
-      <c r="J28" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J28" s="23"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -4930,33 +5134,19 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="71"/>
-      <c r="D29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H29" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J29" s="23"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -4978,33 +5168,19 @@
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H30" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J30" s="23"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -5026,19 +5202,19 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="49"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -5061,13 +5237,13 @@
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="51" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
-      <c r="C32" s="71" t="s">
-        <v>14</v>
+      <c r="C32" s="72" t="s">
+        <v>57</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>95</v>
+      <c r="D32" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
@@ -5076,19 +5252,19 @@
         <v>80</v>
       </c>
       <c r="G32" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H32" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5111,32 +5287,32 @@
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="51" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
-      <c r="C33" s="71"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H33" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -5157,25 +5333,25 @@
       <c r="AF33" s="3"/>
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="1"/>
       <c r="B34" s="51" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="26" t="s">
-        <v>96</v>
+      <c r="C34" s="73"/>
+      <c r="D34" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H34" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23" t="s">
@@ -5205,25 +5381,25 @@
       <c r="AF34" s="3"/>
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="51" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="26" t="s">
-        <v>68</v>
+      <c r="C35" s="73"/>
+      <c r="D35" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G35" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H35" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23" t="s">
@@ -5253,25 +5429,25 @@
       <c r="AF35" s="3"/>
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="51" t="s">
-        <v>60</v>
+      <c r="A36" s="1"/>
+      <c r="B36" s="52" t="s">
+        <v>47</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="26" t="s">
-        <v>67</v>
+      <c r="C36" s="74"/>
+      <c r="D36" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G36" s="22">
-        <v>43839</v>
+        <v>43836</v>
       </c>
       <c r="H36" s="22">
-        <v>43841</v>
+        <v>43838</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23" t="s">
@@ -5301,16 +5477,16 @@
       <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -5335,32 +5511,16 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H38" s="22">
-        <v>43872</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J38" s="23"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -5385,30 +5545,16 @@
       <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H39" s="22">
-        <v>43872</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J39" s="23"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -5434,33 +5580,19 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H40" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="49"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -5481,13 +5613,15 @@
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
+      <c r="A41" s="1"/>
       <c r="B41" s="51" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
-      <c r="C41" s="64"/>
+      <c r="C41" s="71" t="s">
+        <v>14</v>
+      </c>
       <c r="D41" s="26" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>7</v>
@@ -5496,10 +5630,10 @@
         <v>80</v>
       </c>
       <c r="G41" s="22">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="H41" s="22">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
@@ -5531,23 +5665,23 @@
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="51" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="26" t="s">
-        <v>71</v>
+      <c r="C42" s="71"/>
+      <c r="D42" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" s="22">
-        <v>43871</v>
+        <v>43839</v>
       </c>
       <c r="H42" s="22">
-        <v>43872</v>
+        <v>43841</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
@@ -5562,15 +5696,28 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="51" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
-      <c r="C43" s="65"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="26" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>7</v>
@@ -5579,10 +5726,10 @@
         <v>80</v>
       </c>
       <c r="G43" s="22">
-        <v>43874</v>
+        <v>43839</v>
       </c>
       <c r="H43" s="22">
-        <v>43876</v>
+        <v>43841</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="s">
@@ -5597,18 +5744,45 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+      <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="71"/>
+      <c r="D44" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -5618,29 +5792,40 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+      <c r="AF44" s="3"/>
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="51" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
-      <c r="C45" s="71" t="s">
-        <v>16</v>
-      </c>
+      <c r="C45" s="71"/>
       <c r="D45" s="26" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F45" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G45" s="22">
-        <v>43874</v>
+        <v>43839</v>
       </c>
       <c r="H45" s="22">
-        <v>43876</v>
+        <v>43841</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23" t="s">
@@ -5655,59 +5840,76 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H46" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="A46" s="3"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="67"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="51" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
-      <c r="C47" s="71"/>
+      <c r="C47" s="72" t="s">
+        <v>15</v>
+      </c>
       <c r="D47" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G47" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H47" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23" t="s">
@@ -5722,27 +5924,40 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="51" t="s">
-        <v>124</v>
+        <v>62</v>
       </c>
-      <c r="C48" s="71"/>
+      <c r="C48" s="73"/>
       <c r="D48" s="26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F48" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G48" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H48" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
@@ -5752,48 +5967,93 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-    </row>
-    <row r="49" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="73"/>
+      <c r="D49" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H49" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="17" t="s">
-        <v>125</v>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="51" t="s">
+        <v>64</v>
       </c>
-      <c r="C50" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="C50" s="73"/>
       <c r="D50" s="26" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F50" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G50" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H50" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="s">
@@ -5808,18 +6068,45 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-    </row>
-    <row r="51" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="B51" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="73"/>
+      <c r="D51" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H51" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -5830,17 +6117,31 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
+      <c r="B52" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="74"/>
+      <c r="D52" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H52" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -5851,17 +6152,17 @@
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="70"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5872,17 +6173,33 @@
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
+      <c r="B54" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H54" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -5893,38 +6210,63 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
+      <c r="B55" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H55" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K55" s="3"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="B56" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="71"/>
+      <c r="D56" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H56" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -5935,80 +6277,103 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="B57" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="71"/>
+      <c r="D57" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H57" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="O57" s="1"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
     </row>
-    <row r="58" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="1"/>
+    <row r="58" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
+      <c r="G58" s="67"/>
+      <c r="H58" s="67"/>
+      <c r="I58" s="67"/>
+      <c r="J58" s="67"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="B59" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G59" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H59" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
+      <c r="B60" s="1"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6019,7 +6384,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6032,12 +6397,15 @@
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6048,9 +6416,17 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
-      <c r="K62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+    </row>
+    <row r="63" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6062,8 +6438,16 @@
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:19" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6075,6 +6459,14 @@
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
     </row>
     <row r="65" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -6088,9 +6480,14 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
     </row>
     <row r="66" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
@@ -6107,16 +6504,11 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
+      <c r="O66" s="1"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
     </row>
     <row r="67" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
@@ -6129,20 +6521,15 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="1"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
     </row>
     <row r="68" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -6156,19 +6543,14 @@
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
     </row>
     <row r="69" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
@@ -6190,11 +6572,6 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
     </row>
     <row r="70" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
@@ -6209,18 +6586,10 @@
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-      <c r="X70" s="3"/>
     </row>
     <row r="71" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
@@ -6233,20 +6602,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-      <c r="X71" s="3"/>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -6260,19 +6616,6 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
@@ -6286,19 +6629,6 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
@@ -6312,19 +6642,9 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
@@ -6667,7 +6987,7 @@
     <row r="88" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
-      <c r="C88" s="1"/>
+      <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -6693,10 +7013,10 @@
     <row r="89" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -6719,10 +7039,10 @@
     <row r="90" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -6745,10 +7065,10 @@
     <row r="91" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -6771,10 +7091,10 @@
     <row r="92" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -6796,15 +7116,15 @@
     </row>
     <row r="93" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -6822,15 +7142,15 @@
     </row>
     <row r="94" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -6848,15 +7168,15 @@
     </row>
     <row r="95" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -6874,15 +7194,15 @@
     </row>
     <row r="96" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -6900,15 +7220,15 @@
     </row>
     <row r="97" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -6926,15 +7246,15 @@
     </row>
     <row r="98" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -6952,15 +7272,15 @@
     </row>
     <row r="99" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -6978,15 +7298,15 @@
     </row>
     <row r="100" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -7004,15 +7324,15 @@
     </row>
     <row r="101" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -7067,9 +7387,9 @@
       <c r="J103" s="1"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
       <c r="R103" s="3"/>
@@ -7091,20 +7411,20 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104" s="1"/>
-      <c r="U104" s="1"/>
-      <c r="V104" s="1"/>
-      <c r="W104" s="1"/>
-      <c r="X104" s="1"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
     </row>
     <row r="105" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
@@ -7117,20 +7437,20 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-      <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-      <c r="U105" s="1"/>
-      <c r="V105" s="1"/>
-      <c r="W105" s="1"/>
-      <c r="X105" s="1"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
     </row>
     <row r="106" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
@@ -7143,20 +7463,20 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="1"/>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1"/>
-      <c r="V106" s="1"/>
-      <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
     </row>
     <row r="107" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
@@ -7169,20 +7489,20 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
-      <c r="V107" s="1"/>
-      <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
     </row>
     <row r="108" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
@@ -7195,20 +7515,20 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="1"/>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
     </row>
     <row r="109" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
@@ -7221,20 +7541,20 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="1"/>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
     </row>
     <row r="110" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
@@ -7247,20 +7567,20 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
     </row>
     <row r="111" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
@@ -7273,20 +7593,20 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
     </row>
     <row r="112" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
@@ -7299,20 +7619,20 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
     </row>
     <row r="113" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
@@ -7474,13 +7794,13 @@
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="3"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -7500,13 +7820,13 @@
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="3"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
@@ -7526,13 +7846,13 @@
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="3"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
@@ -7552,13 +7872,13 @@
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="3"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -7578,13 +7898,13 @@
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="3"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -7604,13 +7924,13 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="3"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -7630,13 +7950,13 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="3"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -7656,13 +7976,13 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="3"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -7682,13 +8002,13 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="3"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -7781,14 +8101,6 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1"/>
-      <c r="AD130" s="1"/>
-      <c r="AE130" s="1"/>
-      <c r="AF130" s="1"/>
     </row>
     <row r="131" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
@@ -7815,14 +8127,6 @@
       <c r="V131" s="1"/>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="1"/>
-      <c r="AF131" s="1"/>
     </row>
     <row r="132" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
@@ -7849,14 +8153,6 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
     </row>
     <row r="133" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
@@ -7883,14 +8179,6 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="1"/>
-      <c r="AF133" s="1"/>
     </row>
     <row r="134" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
@@ -7917,14 +8205,6 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
-      <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
-      <c r="AF134" s="1"/>
     </row>
     <row r="135" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
@@ -7951,14 +8231,6 @@
       <c r="V135" s="1"/>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="1"/>
-      <c r="AF135" s="1"/>
     </row>
     <row r="136" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
@@ -7985,14 +8257,6 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
-      <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
     </row>
     <row r="137" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
@@ -8019,14 +8283,6 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-      <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
     </row>
     <row r="138" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
@@ -8053,14 +8309,6 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="1"/>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
     </row>
     <row r="139" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
@@ -8372,13 +8620,13 @@
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="1"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="3"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
@@ -8406,13 +8654,13 @@
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="1"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="3"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
@@ -8440,13 +8688,13 @@
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="H150" s="12"/>
-      <c r="I150" s="12"/>
-      <c r="J150" s="1"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="3"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
@@ -8474,13 +8722,13 @@
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="1"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="3"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
@@ -8508,13 +8756,13 @@
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="1"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="3"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -8542,13 +8790,13 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="1"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -8576,13 +8824,13 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="1"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="3"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -8610,13 +8858,13 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="1"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="3"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -8644,13 +8892,13 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="1"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="3"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -38290,6 +38538,7 @@
     </row>
     <row r="1028" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1028" s="1"/>
+      <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
       <c r="D1028" s="1"/>
       <c r="E1028" s="12"/>
@@ -38323,6 +38572,7 @@
     </row>
     <row r="1029" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1029" s="1"/>
+      <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
       <c r="D1029" s="1"/>
       <c r="E1029" s="12"/>
@@ -38356,6 +38606,8 @@
     </row>
     <row r="1030" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="1"/>
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
       <c r="D1030" s="1"/>
       <c r="E1030" s="12"/>
       <c r="F1030" s="12"/>
@@ -38388,6 +38640,8 @@
     </row>
     <row r="1031" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1031" s="1"/>
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
       <c r="D1031" s="1"/>
       <c r="E1031" s="12"/>
       <c r="F1031" s="12"/>
@@ -38396,6 +38650,9 @@
       <c r="I1031" s="12"/>
       <c r="J1031" s="1"/>
       <c r="K1031" s="1"/>
+      <c r="L1031" s="1"/>
+      <c r="M1031" s="1"/>
+      <c r="N1031" s="1"/>
       <c r="O1031" s="1"/>
       <c r="P1031" s="1"/>
       <c r="Q1031" s="1"/>
@@ -38417,6 +38674,8 @@
     </row>
     <row r="1032" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
       <c r="D1032" s="1"/>
       <c r="E1032" s="12"/>
       <c r="F1032" s="12"/>
@@ -38425,6 +38684,9 @@
       <c r="I1032" s="12"/>
       <c r="J1032" s="1"/>
       <c r="K1032" s="1"/>
+      <c r="L1032" s="1"/>
+      <c r="M1032" s="1"/>
+      <c r="N1032" s="1"/>
       <c r="O1032" s="1"/>
       <c r="P1032" s="1"/>
       <c r="Q1032" s="1"/>
@@ -38446,6 +38708,8 @@
     </row>
     <row r="1033" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="12"/>
       <c r="F1033" s="12"/>
@@ -38454,6 +38718,10 @@
       <c r="I1033" s="12"/>
       <c r="J1033" s="1"/>
       <c r="K1033" s="1"/>
+      <c r="L1033" s="1"/>
+      <c r="M1033" s="1"/>
+      <c r="N1033" s="1"/>
+      <c r="O1033" s="1"/>
       <c r="P1033" s="1"/>
       <c r="Q1033" s="1"/>
       <c r="R1033" s="1"/>
@@ -38473,6 +38741,9 @@
       <c r="AF1033" s="1"/>
     </row>
     <row r="1034" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
       <c r="D1034" s="1"/>
       <c r="E1034" s="12"/>
       <c r="F1034" s="12"/>
@@ -38480,8 +38751,33 @@
       <c r="H1034" s="12"/>
       <c r="I1034" s="12"/>
       <c r="J1034" s="1"/>
+      <c r="K1034" s="1"/>
+      <c r="L1034" s="1"/>
+      <c r="M1034" s="1"/>
+      <c r="N1034" s="1"/>
+      <c r="O1034" s="1"/>
+      <c r="P1034" s="1"/>
+      <c r="Q1034" s="1"/>
+      <c r="R1034" s="1"/>
+      <c r="S1034" s="1"/>
+      <c r="T1034" s="1"/>
+      <c r="U1034" s="1"/>
+      <c r="V1034" s="1"/>
+      <c r="W1034" s="1"/>
+      <c r="X1034" s="1"/>
+      <c r="Y1034" s="1"/>
+      <c r="Z1034" s="1"/>
+      <c r="AA1034" s="1"/>
+      <c r="AB1034" s="1"/>
+      <c r="AC1034" s="1"/>
+      <c r="AD1034" s="1"/>
+      <c r="AE1034" s="1"/>
+      <c r="AF1034" s="1"/>
     </row>
     <row r="1035" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
       <c r="D1035" s="1"/>
       <c r="E1035" s="12"/>
       <c r="F1035" s="12"/>
@@ -38489,8 +38785,33 @@
       <c r="H1035" s="12"/>
       <c r="I1035" s="12"/>
       <c r="J1035" s="1"/>
+      <c r="K1035" s="1"/>
+      <c r="L1035" s="1"/>
+      <c r="M1035" s="1"/>
+      <c r="N1035" s="1"/>
+      <c r="O1035" s="1"/>
+      <c r="P1035" s="1"/>
+      <c r="Q1035" s="1"/>
+      <c r="R1035" s="1"/>
+      <c r="S1035" s="1"/>
+      <c r="T1035" s="1"/>
+      <c r="U1035" s="1"/>
+      <c r="V1035" s="1"/>
+      <c r="W1035" s="1"/>
+      <c r="X1035" s="1"/>
+      <c r="Y1035" s="1"/>
+      <c r="Z1035" s="1"/>
+      <c r="AA1035" s="1"/>
+      <c r="AB1035" s="1"/>
+      <c r="AC1035" s="1"/>
+      <c r="AD1035" s="1"/>
+      <c r="AE1035" s="1"/>
+      <c r="AF1035" s="1"/>
     </row>
     <row r="1036" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
       <c r="D1036" s="1"/>
       <c r="E1036" s="12"/>
       <c r="F1036" s="12"/>
@@ -38498,8 +38819,32 @@
       <c r="H1036" s="12"/>
       <c r="I1036" s="12"/>
       <c r="J1036" s="1"/>
+      <c r="K1036" s="1"/>
+      <c r="L1036" s="1"/>
+      <c r="M1036" s="1"/>
+      <c r="N1036" s="1"/>
+      <c r="O1036" s="1"/>
+      <c r="P1036" s="1"/>
+      <c r="Q1036" s="1"/>
+      <c r="R1036" s="1"/>
+      <c r="S1036" s="1"/>
+      <c r="T1036" s="1"/>
+      <c r="U1036" s="1"/>
+      <c r="V1036" s="1"/>
+      <c r="W1036" s="1"/>
+      <c r="X1036" s="1"/>
+      <c r="Y1036" s="1"/>
+      <c r="Z1036" s="1"/>
+      <c r="AA1036" s="1"/>
+      <c r="AB1036" s="1"/>
+      <c r="AC1036" s="1"/>
+      <c r="AD1036" s="1"/>
+      <c r="AE1036" s="1"/>
+      <c r="AF1036" s="1"/>
     </row>
     <row r="1037" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1"/>
+      <c r="C1037" s="1"/>
       <c r="D1037" s="1"/>
       <c r="E1037" s="12"/>
       <c r="F1037" s="12"/>
@@ -38507,8 +38852,32 @@
       <c r="H1037" s="12"/>
       <c r="I1037" s="12"/>
       <c r="J1037" s="1"/>
+      <c r="K1037" s="1"/>
+      <c r="L1037" s="1"/>
+      <c r="M1037" s="1"/>
+      <c r="N1037" s="1"/>
+      <c r="O1037" s="1"/>
+      <c r="P1037" s="1"/>
+      <c r="Q1037" s="1"/>
+      <c r="R1037" s="1"/>
+      <c r="S1037" s="1"/>
+      <c r="T1037" s="1"/>
+      <c r="U1037" s="1"/>
+      <c r="V1037" s="1"/>
+      <c r="W1037" s="1"/>
+      <c r="X1037" s="1"/>
+      <c r="Y1037" s="1"/>
+      <c r="Z1037" s="1"/>
+      <c r="AA1037" s="1"/>
+      <c r="AB1037" s="1"/>
+      <c r="AC1037" s="1"/>
+      <c r="AD1037" s="1"/>
+      <c r="AE1037" s="1"/>
+      <c r="AF1037" s="1"/>
     </row>
     <row r="1038" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1"/>
+      <c r="C1038" s="1"/>
       <c r="D1038" s="1"/>
       <c r="E1038" s="12"/>
       <c r="F1038" s="12"/>
@@ -38516,8 +38885,31 @@
       <c r="H1038" s="12"/>
       <c r="I1038" s="12"/>
       <c r="J1038" s="1"/>
+      <c r="K1038" s="1"/>
+      <c r="L1038" s="1"/>
+      <c r="M1038" s="1"/>
+      <c r="N1038" s="1"/>
+      <c r="O1038" s="1"/>
+      <c r="P1038" s="1"/>
+      <c r="Q1038" s="1"/>
+      <c r="R1038" s="1"/>
+      <c r="S1038" s="1"/>
+      <c r="T1038" s="1"/>
+      <c r="U1038" s="1"/>
+      <c r="V1038" s="1"/>
+      <c r="W1038" s="1"/>
+      <c r="X1038" s="1"/>
+      <c r="Y1038" s="1"/>
+      <c r="Z1038" s="1"/>
+      <c r="AA1038" s="1"/>
+      <c r="AB1038" s="1"/>
+      <c r="AC1038" s="1"/>
+      <c r="AD1038" s="1"/>
+      <c r="AE1038" s="1"/>
+      <c r="AF1038" s="1"/>
     </row>
     <row r="1039" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1"/>
       <c r="D1039" s="1"/>
       <c r="E1039" s="12"/>
       <c r="F1039" s="12"/>
@@ -38525,8 +38917,31 @@
       <c r="H1039" s="12"/>
       <c r="I1039" s="12"/>
       <c r="J1039" s="1"/>
+      <c r="K1039" s="1"/>
+      <c r="L1039" s="1"/>
+      <c r="M1039" s="1"/>
+      <c r="N1039" s="1"/>
+      <c r="O1039" s="1"/>
+      <c r="P1039" s="1"/>
+      <c r="Q1039" s="1"/>
+      <c r="R1039" s="1"/>
+      <c r="S1039" s="1"/>
+      <c r="T1039" s="1"/>
+      <c r="U1039" s="1"/>
+      <c r="V1039" s="1"/>
+      <c r="W1039" s="1"/>
+      <c r="X1039" s="1"/>
+      <c r="Y1039" s="1"/>
+      <c r="Z1039" s="1"/>
+      <c r="AA1039" s="1"/>
+      <c r="AB1039" s="1"/>
+      <c r="AC1039" s="1"/>
+      <c r="AD1039" s="1"/>
+      <c r="AE1039" s="1"/>
+      <c r="AF1039" s="1"/>
     </row>
     <row r="1040" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1"/>
       <c r="D1040" s="1"/>
       <c r="E1040" s="12"/>
       <c r="F1040" s="12"/>
@@ -38534,8 +38949,28 @@
       <c r="H1040" s="12"/>
       <c r="I1040" s="12"/>
       <c r="J1040" s="1"/>
-    </row>
-    <row r="1041" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1040" s="1"/>
+      <c r="O1040" s="1"/>
+      <c r="P1040" s="1"/>
+      <c r="Q1040" s="1"/>
+      <c r="R1040" s="1"/>
+      <c r="S1040" s="1"/>
+      <c r="T1040" s="1"/>
+      <c r="U1040" s="1"/>
+      <c r="V1040" s="1"/>
+      <c r="W1040" s="1"/>
+      <c r="X1040" s="1"/>
+      <c r="Y1040" s="1"/>
+      <c r="Z1040" s="1"/>
+      <c r="AA1040" s="1"/>
+      <c r="AB1040" s="1"/>
+      <c r="AC1040" s="1"/>
+      <c r="AD1040" s="1"/>
+      <c r="AE1040" s="1"/>
+      <c r="AF1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1"/>
       <c r="D1041" s="1"/>
       <c r="E1041" s="12"/>
       <c r="F1041" s="12"/>
@@ -38543,8 +38978,28 @@
       <c r="H1041" s="12"/>
       <c r="I1041" s="12"/>
       <c r="J1041" s="1"/>
-    </row>
-    <row r="1042" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1041" s="1"/>
+      <c r="O1041" s="1"/>
+      <c r="P1041" s="1"/>
+      <c r="Q1041" s="1"/>
+      <c r="R1041" s="1"/>
+      <c r="S1041" s="1"/>
+      <c r="T1041" s="1"/>
+      <c r="U1041" s="1"/>
+      <c r="V1041" s="1"/>
+      <c r="W1041" s="1"/>
+      <c r="X1041" s="1"/>
+      <c r="Y1041" s="1"/>
+      <c r="Z1041" s="1"/>
+      <c r="AA1041" s="1"/>
+      <c r="AB1041" s="1"/>
+      <c r="AC1041" s="1"/>
+      <c r="AD1041" s="1"/>
+      <c r="AE1041" s="1"/>
+      <c r="AF1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1"/>
       <c r="D1042" s="1"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
@@ -38552,8 +39007,26 @@
       <c r="H1042" s="12"/>
       <c r="I1042" s="12"/>
       <c r="J1042" s="1"/>
-    </row>
-    <row r="1043" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1042" s="1"/>
+      <c r="P1042" s="1"/>
+      <c r="Q1042" s="1"/>
+      <c r="R1042" s="1"/>
+      <c r="S1042" s="1"/>
+      <c r="T1042" s="1"/>
+      <c r="U1042" s="1"/>
+      <c r="V1042" s="1"/>
+      <c r="W1042" s="1"/>
+      <c r="X1042" s="1"/>
+      <c r="Y1042" s="1"/>
+      <c r="Z1042" s="1"/>
+      <c r="AA1042" s="1"/>
+      <c r="AB1042" s="1"/>
+      <c r="AC1042" s="1"/>
+      <c r="AD1042" s="1"/>
+      <c r="AE1042" s="1"/>
+      <c r="AF1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1043" s="1"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
@@ -38562,7 +39035,7 @@
       <c r="I1043" s="12"/>
       <c r="J1043" s="1"/>
     </row>
-    <row r="1044" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1044" s="1"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
@@ -38571,7 +39044,7 @@
       <c r="I1044" s="12"/>
       <c r="J1044" s="1"/>
     </row>
-    <row r="1045" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1045" s="1"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
@@ -38580,7 +39053,7 @@
       <c r="I1045" s="12"/>
       <c r="J1045" s="1"/>
     </row>
-    <row r="1046" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1046" s="1"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
@@ -38589,7 +39062,7 @@
       <c r="I1046" s="12"/>
       <c r="J1046" s="1"/>
     </row>
-    <row r="1047" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1047" s="1"/>
       <c r="E1047" s="12"/>
       <c r="F1047" s="12"/>
@@ -38598,7 +39071,7 @@
       <c r="I1047" s="12"/>
       <c r="J1047" s="1"/>
     </row>
-    <row r="1048" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1048" s="1"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -38607,7 +39080,7 @@
       <c r="I1048" s="12"/>
       <c r="J1048" s="1"/>
     </row>
-    <row r="1049" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1049" s="1"/>
       <c r="E1049" s="12"/>
       <c r="F1049" s="12"/>
@@ -38616,7 +39089,7 @@
       <c r="I1049" s="12"/>
       <c r="J1049" s="1"/>
     </row>
-    <row r="1050" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1050" s="1"/>
       <c r="E1050" s="12"/>
       <c r="F1050" s="12"/>
@@ -38625,7 +39098,7 @@
       <c r="I1050" s="12"/>
       <c r="J1050" s="1"/>
     </row>
-    <row r="1051" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1051" s="1"/>
       <c r="E1051" s="12"/>
       <c r="F1051" s="12"/>
@@ -38634,7 +39107,7 @@
       <c r="I1051" s="12"/>
       <c r="J1051" s="1"/>
     </row>
-    <row r="1052" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1052" s="1"/>
       <c r="E1052" s="12"/>
       <c r="F1052" s="12"/>
@@ -38643,7 +39116,7 @@
       <c r="I1052" s="12"/>
       <c r="J1052" s="1"/>
     </row>
-    <row r="1053" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1053" s="1"/>
       <c r="E1053" s="12"/>
       <c r="F1053" s="12"/>
@@ -38652,7 +39125,7 @@
       <c r="I1053" s="12"/>
       <c r="J1053" s="1"/>
     </row>
-    <row r="1054" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1054" s="1"/>
       <c r="E1054" s="12"/>
       <c r="F1054" s="12"/>
@@ -38661,7 +39134,7 @@
       <c r="I1054" s="12"/>
       <c r="J1054" s="1"/>
     </row>
-    <row r="1055" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1055" s="1"/>
       <c r="E1055" s="12"/>
       <c r="F1055" s="12"/>
@@ -38670,7 +39143,7 @@
       <c r="I1055" s="12"/>
       <c r="J1055" s="1"/>
     </row>
-    <row r="1056" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1056" s="1"/>
       <c r="E1056" s="12"/>
       <c r="F1056" s="12"/>
@@ -38868,717 +39341,949 @@
       <c r="I1077" s="12"/>
       <c r="J1077" s="1"/>
     </row>
+    <row r="1078" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1078" s="1"/>
+      <c r="E1078" s="12"/>
+      <c r="F1078" s="12"/>
+      <c r="G1078" s="12"/>
+      <c r="H1078" s="12"/>
+      <c r="I1078" s="12"/>
+      <c r="J1078" s="1"/>
+    </row>
+    <row r="1079" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1079" s="1"/>
+      <c r="E1079" s="12"/>
+      <c r="F1079" s="12"/>
+      <c r="G1079" s="12"/>
+      <c r="H1079" s="12"/>
+      <c r="I1079" s="12"/>
+      <c r="J1079" s="1"/>
+    </row>
+    <row r="1080" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1080" s="1"/>
+      <c r="E1080" s="12"/>
+      <c r="F1080" s="12"/>
+      <c r="G1080" s="12"/>
+      <c r="H1080" s="12"/>
+      <c r="I1080" s="12"/>
+      <c r="J1080" s="1"/>
+    </row>
+    <row r="1081" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1081" s="1"/>
+      <c r="E1081" s="12"/>
+      <c r="F1081" s="12"/>
+      <c r="G1081" s="12"/>
+      <c r="H1081" s="12"/>
+      <c r="I1081" s="12"/>
+      <c r="J1081" s="1"/>
+    </row>
+    <row r="1082" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1082" s="1"/>
+      <c r="E1082" s="12"/>
+      <c r="F1082" s="12"/>
+      <c r="G1082" s="12"/>
+      <c r="H1082" s="12"/>
+      <c r="I1082" s="12"/>
+      <c r="J1082" s="1"/>
+    </row>
+    <row r="1083" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1083" s="1"/>
+      <c r="E1083" s="12"/>
+      <c r="F1083" s="12"/>
+      <c r="G1083" s="12"/>
+      <c r="H1083" s="12"/>
+      <c r="I1083" s="12"/>
+      <c r="J1083" s="1"/>
+    </row>
+    <row r="1084" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1084" s="1"/>
+      <c r="E1084" s="12"/>
+      <c r="F1084" s="12"/>
+      <c r="G1084" s="12"/>
+      <c r="H1084" s="12"/>
+      <c r="I1084" s="12"/>
+      <c r="J1084" s="1"/>
+    </row>
+    <row r="1085" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1085" s="1"/>
+      <c r="E1085" s="12"/>
+      <c r="F1085" s="12"/>
+      <c r="G1085" s="12"/>
+      <c r="H1085" s="12"/>
+      <c r="I1085" s="12"/>
+      <c r="J1085" s="1"/>
+    </row>
+    <row r="1086" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1086" s="1"/>
+      <c r="E1086" s="12"/>
+      <c r="F1086" s="12"/>
+      <c r="G1086" s="12"/>
+      <c r="H1086" s="12"/>
+      <c r="I1086" s="12"/>
+      <c r="J1086" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="B19:J19"/>
+  <mergeCells count="14">
+    <mergeCell ref="B22:J22"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C18"/>
+    <mergeCell ref="C6:C21"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C41:C45"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E26:F26 E29:E30 E45:F48 E50:F50 F26:F30 E38:F43 E32:F36 E3:F3 E22 F22:F23 E6:F12">
-    <cfRule type="containsText" dxfId="177" priority="335" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E32:F32 E35 E54:F57 E59:F59 F32:F35 E47:F52 E41:F45 E3:F3 E25 F25:F26 E6:F12 F28:F29 E37:F39">
+    <cfRule type="containsText" dxfId="204" priority="375" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="336" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="203" priority="376" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="337" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="202" priority="377" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="338" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="201" priority="378" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="339" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="200" priority="379" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26 J38:J43 J6:J12 J3 J22:J23">
-    <cfRule type="containsText" dxfId="172" priority="306" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J32 J47:J52 J6:J12 J3 J25:J26 J28:J29">
+    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="307" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="198" priority="347" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="308" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="197" priority="348" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="309" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="349" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E28">
-    <cfRule type="containsText" dxfId="169" priority="209" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+  <conditionalFormatting sqref="E33:E34">
+    <cfRule type="containsText" dxfId="196" priority="249" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="210" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
+    <cfRule type="containsText" dxfId="195" priority="250" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="211" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+    <cfRule type="containsText" dxfId="194" priority="251" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="212" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
+    <cfRule type="containsText" dxfId="193" priority="252" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="213" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
+    <cfRule type="containsText" dxfId="192" priority="253" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J30">
-    <cfRule type="containsText" dxfId="164" priority="205" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+  <conditionalFormatting sqref="J33:J35 J37:J39">
+    <cfRule type="containsText" dxfId="191" priority="245" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="206" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="246" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="207" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="208" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    <cfRule type="containsText" priority="248" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="161" priority="200" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+  <conditionalFormatting sqref="E26 E28:E29">
+    <cfRule type="containsText" dxfId="188" priority="240" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="201" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="241" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="202" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    <cfRule type="containsText" dxfId="186" priority="242" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="203" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
+    <cfRule type="containsText" dxfId="185" priority="243" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="204" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
+    <cfRule type="containsText" dxfId="184" priority="244" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J36">
-    <cfRule type="containsText" dxfId="156" priority="183" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J32)))</formula>
+  <conditionalFormatting sqref="J41:J45">
+    <cfRule type="containsText" dxfId="183" priority="223" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="184" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J32)))</formula>
+    <cfRule type="containsText" dxfId="182" priority="224" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="185" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J32)))</formula>
+    <cfRule type="containsText" dxfId="181" priority="225" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J41)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="186" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J32)))</formula>
+    <cfRule type="containsText" priority="226" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45:J48">
-    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J45)))</formula>
+  <conditionalFormatting sqref="J54:J57">
+    <cfRule type="containsText" dxfId="180" priority="215" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    <cfRule type="containsText" dxfId="179" priority="216" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="177" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J45)))</formula>
+    <cfRule type="containsText" dxfId="178" priority="217" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="178" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J45)))</formula>
+    <cfRule type="containsText" priority="218" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
-    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J50)))</formula>
+  <conditionalFormatting sqref="J59">
+    <cfRule type="containsText" dxfId="177" priority="211" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="172" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J50)))</formula>
+    <cfRule type="containsText" dxfId="176" priority="212" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="173" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J50)))</formula>
+    <cfRule type="containsText" dxfId="175" priority="213" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J59)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="174" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J50)))</formula>
+    <cfRule type="containsText" priority="214" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J59)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F22:F23 F6:F12">
-    <cfRule type="containsText" dxfId="147" priority="170" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F3 F25:F26 F6:F12 F28:F29">
+    <cfRule type="containsText" dxfId="174" priority="210" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="146" priority="169" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="145" priority="168" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F32:F35 F37:F39">
+    <cfRule type="containsText" dxfId="173" priority="209" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="172" priority="208" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F43">
-    <cfRule type="containsText" dxfId="143" priority="166" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="containsText" dxfId="171" priority="207" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F48">
-    <cfRule type="containsText" dxfId="142" priority="165" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
+  <conditionalFormatting sqref="F48:F52">
+    <cfRule type="containsText" dxfId="170" priority="206" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="141" priority="164" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F50)))</formula>
+  <conditionalFormatting sqref="F54:F57">
+    <cfRule type="containsText" dxfId="169" priority="205" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F59">
+    <cfRule type="containsText" dxfId="168" priority="204" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="140" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="167" priority="203"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F22:F23 F6:F12">
-    <cfRule type="containsText" dxfId="139" priority="147" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F3 F25:F26 F6:F12 F28:F29">
+    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="138" priority="146" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="137" priority="141" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="144" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="145" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="132" priority="140" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="131" priority="139" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="130" priority="138" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F32:F35 F37:F39">
+    <cfRule type="containsText" dxfId="165" priority="186" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="129" priority="137" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F32:F35 F37:F39">
+    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="182" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35 F37:F39">
+    <cfRule type="containsText" dxfId="159" priority="180" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="128" priority="132" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="133" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="134" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="135" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="136" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="123" priority="131" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="122" priority="130" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F32:F35 F37:F39">
+    <cfRule type="containsText" dxfId="158" priority="179" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F43">
-    <cfRule type="containsText" dxfId="121" priority="129" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="157" priority="178" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="119" priority="127" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="155" priority="172" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="173" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="174" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="175" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="118" priority="126" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="117" priority="121" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="122" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="123" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="124" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="125" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="149" priority="170" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F48:F52">
+    <cfRule type="containsText" dxfId="148" priority="169" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="111" priority="119" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="147" priority="168" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="110" priority="118" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="146" priority="167" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="109" priority="117" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="145" priority="166" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="108" priority="116" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="144" priority="161" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="162" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="163" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="164" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="165" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="107" priority="111" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="112" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="113" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="114" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="139" priority="160" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="102" priority="110" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F43">
-    <cfRule type="containsText" dxfId="101" priority="109" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="137" priority="158" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="100" priority="108" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="136" priority="157" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="99" priority="107" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="135" priority="156" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="98" priority="102" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="104" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="153" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="105" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="154" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="106" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="155" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="93" priority="101" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="129" priority="150" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="92" priority="100" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
+  <conditionalFormatting sqref="F47:F52">
+    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="127" priority="148" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="144" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="145" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="146" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="120" priority="141" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:F45">
+    <cfRule type="containsText" dxfId="119" priority="140" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="116" priority="126" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="87" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="115" priority="127" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="88" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="114" priority="128" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="76" priority="79" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="80" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="81" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="111" priority="121" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="82" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="110" priority="122" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="83" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="109" priority="123" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="106" priority="117" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="78" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="118" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="68" priority="74" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="105" priority="114" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="104" priority="113" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="71" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="72" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="67" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="58" priority="63" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="59" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="60" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="61" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="55" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="50" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="51" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F15 E18:F18">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15 J17:J18">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="40" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15 F18">
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15 F18">
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="103" priority="108" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="102" priority="109" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="101" priority="110" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="100" priority="111" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="99" priority="112" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="96" priority="106" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="29" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="107" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="95" priority="103" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="94" priority="102" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="101" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="93" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="94" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:F15 E21:F21">
+    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J15 J17 J19:J21">
+    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="79" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="80" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15 F21">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F15 F21">
+    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:F30">
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="74" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="69" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="18" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="58" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="11" priority="8" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F17 F19:F20">
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="12" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F17 F19:F20">
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F17 F19:F20">
+    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E17 E19:E20">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F18">
+    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="35" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="24" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:F36">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="13" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J26:J30 J45:J48 J32:J36 J50 J38:J43 J3:J4 J20:J24 J6:J18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J23:J30 J54:J57 J41:J45 J59 J47:J52 J3:J4 J6:J21 J32:J39" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E45:E48 E26:E30 E32:E36 E38:E43 E50" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E57 E59 E41:E45 E47:E52 E32:E39" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F32:F36 F26:F30 F38:F43 F50 F45:F48 F3:F4 F20:F24 F6:F18" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F45 F23:F30 F47:F52 F59 F54:F57 F3:F4 F6:F21 F32:F39" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E20:E24 E6:E18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E21 E23:E30" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4273009A-2C70-48F8-9B7E-BCF4869B45C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C097EF-22BC-433B-9AAD-896C0E054284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -297,9 +297,6 @@
     <t>Xem lịch sử nghỉ việc</t>
   </si>
   <si>
-    <t>Đăng nhập/ Đăng xuất</t>
-  </si>
-  <si>
     <t>Xem chính sách công ty</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Xem danh sách chính sách công ty</t>
   </si>
   <si>
-    <t>Xem danh sách sơ đồ tổ chức</t>
-  </si>
-  <si>
     <t>Chỉnh sửa thông tin cá nhân</t>
   </si>
   <si>
@@ -432,6 +426,18 @@
   </si>
   <si>
     <t>Xem danh sách dự án</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng xuất </t>
+  </si>
+  <si>
+    <t>FR.42</t>
+  </si>
+  <si>
+    <t>FR.43</t>
+  </si>
+  <si>
+    <t>Quản lý đăng nhập/ đăng xuất</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1069,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1129,14 +1132,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1171,7 +1177,10 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1198,11 +1207,408 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="205">
+  <dxfs count="223">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1416,224 +1822,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3551,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -3562,11 +3750,11 @@
       <c r="H1" s="56"/>
       <c r="I1" s="56"/>
       <c r="J1" s="57"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="58"/>
@@ -3579,11 +3767,11 @@
       <c r="H2" s="59"/>
       <c r="I2" s="59"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="33"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="58"/>
@@ -3596,15 +3784,15 @@
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
       <c r="J3" s="60"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="36" t="s">
+      <c r="K3" s="34"/>
+      <c r="L3" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="61" t="s">
-        <v>99</v>
-      </c>
       <c r="N3" s="62"/>
-      <c r="O3" s="37"/>
+      <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
@@ -3617,15 +3805,15 @@
       <c r="H4" s="59"/>
       <c r="I4" s="59"/>
       <c r="J4" s="60"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="38" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="61" t="s">
-        <v>101</v>
-      </c>
       <c r="N4" s="62"/>
-      <c r="O4" s="37"/>
+      <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58"/>
@@ -3638,15 +3826,15 @@
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
       <c r="J5" s="60"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="M5" s="61" t="s">
-        <v>103</v>
-      </c>
       <c r="N5" s="62"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
@@ -3659,15 +3847,15 @@
       <c r="H6" s="59"/>
       <c r="I6" s="59"/>
       <c r="J6" s="60"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="38" t="s">
-        <v>104</v>
+      <c r="K6" s="34"/>
+      <c r="L6" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N6" s="62"/>
-      <c r="O6" s="37"/>
+      <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
@@ -3680,15 +3868,15 @@
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="60"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36" t="s">
-        <v>105</v>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35" t="s">
+        <v>104</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N7" s="62"/>
-      <c r="O7" s="37"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
@@ -3701,11 +3889,11 @@
       <c r="H8" s="59"/>
       <c r="I8" s="59"/>
       <c r="J8" s="60"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
@@ -3718,11 +3906,11 @@
       <c r="H9" s="59"/>
       <c r="I9" s="59"/>
       <c r="J9" s="60"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
@@ -3735,11 +3923,11 @@
       <c r="H10" s="59"/>
       <c r="I10" s="59"/>
       <c r="J10" s="60"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
@@ -3752,9 +3940,9 @@
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
       <c r="J11" s="60"/>
-      <c r="K11" s="35"/>
+      <c r="K11" s="34"/>
       <c r="L11" s="63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
@@ -3771,18 +3959,18 @@
       <c r="H12" s="59"/>
       <c r="I12" s="59"/>
       <c r="J12" s="60"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="40" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="40" t="s">
+      <c r="N12" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="N12" s="40" t="s">
+      <c r="O12" s="39" t="s">
         <v>109</v>
-      </c>
-      <c r="O12" s="40" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3796,18 +3984,18 @@
       <c r="H13" s="59"/>
       <c r="I13" s="59"/>
       <c r="J13" s="60"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="41" t="s">
-        <v>111</v>
+      <c r="K13" s="34"/>
+      <c r="L13" s="40" t="s">
+        <v>110</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="43" t="s">
+      <c r="M13" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="O13" s="44" t="s">
-        <v>115</v>
+      <c r="N13" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3821,11 +4009,11 @@
       <c r="H14" s="59"/>
       <c r="I14" s="59"/>
       <c r="J14" s="60"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
@@ -3838,11 +4026,11 @@
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
       <c r="J15" s="60"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
@@ -3855,11 +4043,11 @@
       <c r="H16" s="59"/>
       <c r="I16" s="59"/>
       <c r="J16" s="60"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
@@ -3872,11 +4060,11 @@
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
       <c r="J17" s="60"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
@@ -3889,11 +4077,11 @@
       <c r="H18" s="59"/>
       <c r="I18" s="59"/>
       <c r="J18" s="60"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
@@ -3906,11 +4094,11 @@
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="J19" s="60"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
@@ -3923,11 +4111,11 @@
       <c r="H20" s="59"/>
       <c r="I20" s="59"/>
       <c r="J20" s="60"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3949,11 +4137,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1086"/>
+  <dimension ref="A1:AF1085"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M37" sqref="M37"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4066,11 +4254,11 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="72" t="s">
-        <v>6</v>
+      <c r="C3" s="73" t="s">
+        <v>127</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>7</v>
@@ -4115,25 +4303,21 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="74"/>
-      <c r="D4" s="19" t="s">
-        <v>85</v>
+      <c r="D4" s="51" t="s">
+        <v>124</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="G4" s="22">
-        <v>43822</v>
-      </c>
-      <c r="H4" s="22">
-        <v>43823</v>
-      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="23"/>
       <c r="J4" s="23" t="s">
         <v>11</v>
@@ -4166,15 +4350,29 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
+      <c r="B5" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="74"/>
+      <c r="D5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="22">
+        <v>43822</v>
+      </c>
+      <c r="H5" s="22">
+        <v>43823</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -4203,20 +4401,18 @@
     </row>
     <row r="6" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
-        <v>21</v>
+      <c r="B6" s="53" t="s">
+        <v>22</v>
       </c>
-      <c r="C6" s="72" t="s">
-        <v>97</v>
+      <c r="C6" s="75"/>
+      <c r="D6" s="51" t="s">
+        <v>124</v>
       </c>
-      <c r="D6" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>10</v>
+      <c r="E6" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="22">
         <v>43822</v>
@@ -4256,29 +4452,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="22">
-        <v>43822</v>
-      </c>
-      <c r="H7" s="22">
-        <v>43823</v>
-      </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4301,28 +4483,30 @@
     </row>
     <row r="8" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="73" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" s="24" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G8" s="22">
-        <v>43824</v>
+        <v>43822</v>
       </c>
       <c r="H8" s="22">
-        <v>43825</v>
+        <v>43823</v>
       </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="30"/>
@@ -4344,12 +4528,12 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
+      <c r="C9" s="74"/>
+      <c r="D9" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>10</v>
@@ -4358,14 +4542,14 @@
         <v>80</v>
       </c>
       <c r="G9" s="22">
-        <v>43824</v>
+        <v>43822</v>
       </c>
       <c r="H9" s="22">
-        <v>43825</v>
+        <v>43823</v>
       </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="3"/>
       <c r="O9" s="3"/>
@@ -4386,12 +4570,12 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="19" t="s">
-        <v>87</v>
+      <c r="C10" s="74"/>
+      <c r="D10" s="24" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>10</v>
@@ -4428,24 +4612,24 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="73"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="19" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="22">
-        <v>43825</v>
+        <v>43824</v>
       </c>
       <c r="H11" s="22">
-        <v>43826</v>
+        <v>43825</v>
       </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23" t="s">
@@ -4470,12 +4654,12 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>10</v>
@@ -4484,10 +4668,10 @@
         <v>81</v>
       </c>
       <c r="G12" s="22">
-        <v>43826</v>
+        <v>43824</v>
       </c>
       <c r="H12" s="22">
-        <v>43827</v>
+        <v>43825</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23" t="s">
@@ -4512,24 +4696,24 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="73"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" s="22">
-        <v>43824</v>
+        <v>43825</v>
       </c>
       <c r="H13" s="22">
-        <v>43825</v>
+        <v>43826</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23" t="s">
@@ -4554,12 +4738,12 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="19" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
@@ -4567,10 +4751,16 @@
       <c r="F14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H14" s="22">
+        <v>43827</v>
+      </c>
       <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -4590,23 +4780,29 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="19" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="22">
+        <v>43824</v>
+      </c>
+      <c r="H15" s="22">
+        <v>43825</v>
+      </c>
       <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="J15" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -4626,12 +4822,12 @@
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
@@ -4639,16 +4835,10 @@
       <c r="F16" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="22">
-        <v>43824</v>
-      </c>
-      <c r="H16" s="22">
-        <v>43825</v>
-      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="23"/>
-      <c r="J16" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J16" s="23"/>
       <c r="K16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4668,18 +4858,18 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="19" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -4704,23 +4894,29 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="19" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="22">
+        <v>43824</v>
+      </c>
+      <c r="H18" s="22">
+        <v>43825</v>
+      </c>
       <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -4740,16 +4936,19 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -4765,19 +4964,41 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="B20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="22">
+        <v>43822</v>
+      </c>
+      <c r="H20" s="22">
+        <v>43823</v>
+      </c>
       <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
+      <c r="J20" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -4793,19 +5014,39 @@
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="49" t="s">
+        <v>35</v>
+      </c>
       <c r="C21" s="74"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="D21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H21" s="22">
+        <v>43827</v>
+      </c>
       <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
+      <c r="J21" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -4821,18 +5062,35 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
+      <c r="B22" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H22" s="22">
+        <v>43827</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -4858,26 +5116,24 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="51" t="s">
-        <v>34</v>
+      <c r="B23" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="C23" s="72" t="s">
-        <v>96</v>
-      </c>
+      <c r="C23" s="74"/>
       <c r="D23" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="22">
-        <v>43822</v>
+        <v>43826</v>
       </c>
       <c r="H23" s="22">
-        <v>43823</v>
+        <v>43827</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23" t="s">
@@ -4908,12 +5164,12 @@
     </row>
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="51" t="s">
-        <v>35</v>
+      <c r="B24" s="50" t="s">
+        <v>38</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
@@ -4956,29 +5212,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H25" s="22">
-        <v>43827</v>
-      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J25" s="23"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5004,29 +5246,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H26" s="22">
-        <v>43827</v>
-      </c>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J26" s="23"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5052,29 +5280,15 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="22">
-        <v>43826</v>
-      </c>
-      <c r="H27" s="22">
-        <v>43827</v>
-      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="23"/>
-      <c r="J27" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J27" s="23"/>
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5100,15 +5314,15 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5134,19 +5348,35 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H29" s="22">
+        <v>43838</v>
+      </c>
       <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
+      <c r="J29" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -5168,19 +5398,33 @@
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
+      <c r="B30" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="74"/>
+      <c r="D30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H30" s="22">
+        <v>43838</v>
+      </c>
       <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
+      <c r="J30" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K30" s="3"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -5202,19 +5446,33 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="74"/>
+      <c r="D31" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H31" s="22">
+        <v>43838</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
@@ -5236,20 +5494,18 @@
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="51" t="s">
-        <v>39</v>
+      <c r="B32" s="49" t="s">
+        <v>46</v>
       </c>
-      <c r="C32" s="72" t="s">
-        <v>57</v>
-      </c>
+      <c r="C32" s="74"/>
       <c r="D32" s="19" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G32" s="22">
         <v>43836</v>
@@ -5262,9 +5518,9 @@
         <v>13</v>
       </c>
       <c r="K32" s="3"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -5286,18 +5542,18 @@
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="51" t="s">
-        <v>40</v>
+      <c r="B33" s="50" t="s">
+        <v>47</v>
       </c>
-      <c r="C33" s="73"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" s="22">
         <v>43836</v>
@@ -5310,9 +5566,9 @@
         <v>13</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
@@ -5334,29 +5590,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="73"/>
-      <c r="D34" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H34" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B34" s="50"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
       <c r="I34" s="23"/>
-      <c r="J34" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J34" s="23"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5382,33 +5624,19 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H35" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
       <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J35" s="23"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="48"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -5430,29 +5658,15 @@
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="G36" s="22">
-        <v>43836</v>
-      </c>
-      <c r="H36" s="22">
-        <v>43838</v>
-      </c>
+      <c r="B36" s="49"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J36" s="23"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -5478,15 +5692,15 @@
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -5511,16 +5725,32 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H38" s="22">
+        <v>43841</v>
+      </c>
       <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -5545,16 +5775,30 @@
       <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="72"/>
+      <c r="D39" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H39" s="22">
+        <v>43841</v>
+      </c>
       <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -5579,20 +5823,34 @@
       <c r="AF39" s="3"/>
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="72"/>
+      <c r="D40" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H40" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="49"/>
+      <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -5613,15 +5871,13 @@
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="51" t="s">
-        <v>48</v>
+      <c r="A41" s="3"/>
+      <c r="B41" s="49" t="s">
+        <v>59</v>
       </c>
-      <c r="C41" s="71" t="s">
-        <v>14</v>
-      </c>
+      <c r="C41" s="72"/>
       <c r="D41" s="26" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E41" s="25" t="s">
         <v>7</v>
@@ -5663,19 +5919,19 @@
       <c r="AF41" s="3"/>
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="51" t="s">
-        <v>49</v>
+      <c r="A42" s="3"/>
+      <c r="B42" s="49" t="s">
+        <v>60</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="19" t="s">
-        <v>93</v>
+      <c r="C42" s="72"/>
+      <c r="D42" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G42" s="22">
         <v>43839</v>
@@ -5712,29 +5968,15 @@
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H43" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -5759,13 +6001,15 @@
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="51" t="s">
-        <v>59</v>
+      <c r="A44" s="1"/>
+      <c r="B44" s="49" t="s">
+        <v>61</v>
       </c>
-      <c r="C44" s="71"/>
+      <c r="C44" s="73" t="s">
+        <v>15</v>
+      </c>
       <c r="D44" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>7</v>
@@ -5774,10 +6018,10 @@
         <v>80</v>
       </c>
       <c r="G44" s="22">
-        <v>43839</v>
+        <v>43871</v>
       </c>
       <c r="H44" s="22">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23" t="s">
@@ -5808,12 +6052,12 @@
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="51" t="s">
-        <v>60</v>
+      <c r="B45" s="49" t="s">
+        <v>62</v>
       </c>
-      <c r="C45" s="71"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>7</v>
@@ -5822,10 +6066,10 @@
         <v>80</v>
       </c>
       <c r="G45" s="22">
-        <v>43839</v>
+        <v>43871</v>
       </c>
       <c r="H45" s="22">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23" t="s">
@@ -5855,16 +6099,30 @@
       <c r="AF45" s="3"/>
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="67"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="74"/>
+      <c r="D46" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H46" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -5874,30 +6132,15 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="51" t="s">
-        <v>61</v>
+      <c r="A47" s="1"/>
+      <c r="B47" s="49" t="s">
+        <v>64</v>
       </c>
-      <c r="C47" s="72" t="s">
-        <v>15</v>
-      </c>
+      <c r="C47" s="74"/>
       <c r="D47" s="26" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>7</v>
@@ -5924,28 +6167,15 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="51" t="s">
-        <v>62</v>
+      <c r="A48" s="1"/>
+      <c r="B48" s="49" t="s">
+        <v>65</v>
       </c>
-      <c r="C48" s="73"/>
+      <c r="C48" s="74"/>
       <c r="D48" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>7</v>
@@ -5972,28 +6202,15 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-    </row>
-    <row r="49" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="51" t="s">
-        <v>63</v>
+      <c r="B49" s="49" t="s">
+        <v>66</v>
       </c>
-      <c r="C49" s="73"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>7</v>
@@ -6002,10 +6219,10 @@
         <v>80</v>
       </c>
       <c r="G49" s="22">
-        <v>43871</v>
+        <v>43874</v>
       </c>
       <c r="H49" s="22">
-        <v>43872</v>
+        <v>43876</v>
       </c>
       <c r="I49" s="23"/>
       <c r="J49" s="23" t="s">
@@ -6020,88 +6237,47 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-    </row>
-    <row r="50" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="73"/>
-      <c r="D50" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H50" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23" t="s">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="50" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="71"/>
       <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-    </row>
-    <row r="51" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="51" t="s">
-        <v>65</v>
+      <c r="B51" s="49" t="s">
+        <v>118</v>
       </c>
-      <c r="C51" s="73"/>
+      <c r="C51" s="72" t="s">
+        <v>16</v>
+      </c>
       <c r="D51" s="26" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F51" s="21" t="s">
         <v>80</v>
       </c>
       <c r="G51" s="22">
-        <v>43871</v>
+        <v>43874</v>
       </c>
       <c r="H51" s="22">
-        <v>43872</v>
+        <v>43876</v>
       </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23" t="s">
@@ -6117,17 +6293,17 @@
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
     </row>
-    <row r="52" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="51" t="s">
-        <v>66</v>
+      <c r="B52" s="49" t="s">
+        <v>119</v>
       </c>
-      <c r="C52" s="74"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="26" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F52" s="21" t="s">
         <v>80</v>
@@ -6146,43 +6322,48 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
-    <row r="53" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="3"/>
+    <row r="53" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H53" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-    </row>
-    <row r="54" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="51" t="s">
-        <v>120</v>
+      <c r="B54" s="49" t="s">
+        <v>121</v>
       </c>
-      <c r="C54" s="71" t="s">
-        <v>16</v>
-      </c>
+      <c r="C54" s="72"/>
       <c r="D54" s="26" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>10</v>
@@ -6210,149 +6391,149 @@
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H55" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
       <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
     </row>
-    <row r="56" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="51" t="s">
+      <c r="B56" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="26" t="s">
-        <v>72</v>
+      <c r="C56" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G56" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H56" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
       <c r="I56" s="23"/>
-      <c r="J56" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J56" s="23"/>
       <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="51" t="s">
-        <v>123</v>
+      <c r="B57" s="53" t="s">
+        <v>125</v>
       </c>
-      <c r="C57" s="71"/>
-      <c r="D57" s="26" t="s">
-        <v>74</v>
+      <c r="C57" s="67"/>
+      <c r="D57" s="19" t="s">
+        <v>116</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G57" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H57" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
       <c r="I57" s="23"/>
-      <c r="J57" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J57" s="23"/>
       <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-    </row>
-    <row r="58" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="67"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="67"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="67"/>
-      <c r="J58" s="67"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+    </row>
+    <row r="58" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H58" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+    </row>
+    <row r="59" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G59" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H59" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -6363,17 +6544,17 @@
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
     </row>
-    <row r="60" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6384,7 +6565,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
     </row>
-    <row r="61" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6396,16 +6577,16 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
     </row>
-    <row r="62" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6426,7 +6607,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
     </row>
-    <row r="63" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6441,13 +6622,13 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
     </row>
-    <row r="64" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6458,15 +6639,15 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
     </row>
     <row r="65" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -6480,9 +6661,9 @@
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
@@ -6504,7 +6685,7 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="1"/>
+      <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
@@ -6521,15 +6702,12 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="1"/>
+      <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
     </row>
     <row r="68" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
@@ -6542,15 +6720,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
@@ -6564,14 +6734,6 @@
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
     </row>
     <row r="70" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
@@ -6585,11 +6747,6 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
     </row>
     <row r="71" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
@@ -6602,7 +6759,10 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="1"/>
+      <c r="K71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -6616,6 +6776,19 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
@@ -6629,6 +6802,19 @@
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
     </row>
     <row r="74" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
@@ -6642,9 +6828,19 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
     </row>
     <row r="75" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
@@ -7195,7 +7391,7 @@
     <row r="96" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="1"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -7222,9 +7418,9 @@
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -7324,15 +7520,15 @@
     </row>
     <row r="101" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="3"/>
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -7543,9 +7739,9 @@
       <c r="J109" s="1"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-      <c r="N109" s="3"/>
-      <c r="O109" s="3"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -7567,20 +7763,20 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-      <c r="N110" s="3"/>
-      <c r="O110" s="3"/>
-      <c r="P110" s="3"/>
-      <c r="Q110" s="3"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="3"/>
-      <c r="T110" s="3"/>
-      <c r="U110" s="3"/>
-      <c r="V110" s="3"/>
-      <c r="W110" s="3"/>
-      <c r="X110" s="3"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
     </row>
     <row r="111" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
@@ -7593,20 +7789,20 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-      <c r="N111" s="3"/>
-      <c r="O111" s="3"/>
-      <c r="P111" s="3"/>
-      <c r="Q111" s="3"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="3"/>
-      <c r="T111" s="3"/>
-      <c r="U111" s="3"/>
-      <c r="V111" s="3"/>
-      <c r="W111" s="3"/>
-      <c r="X111" s="3"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
     </row>
     <row r="112" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
@@ -7619,20 +7815,20 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
-      <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="3"/>
-      <c r="T112" s="3"/>
-      <c r="U112" s="3"/>
-      <c r="V112" s="3"/>
-      <c r="W112" s="3"/>
-      <c r="X112" s="3"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
     </row>
     <row r="113" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
@@ -8002,13 +8198,13 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="3"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -8257,6 +8453,14 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
+      <c r="AA136" s="1"/>
+      <c r="AB136" s="1"/>
+      <c r="AC136" s="1"/>
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="1"/>
+      <c r="AF136" s="1"/>
     </row>
     <row r="137" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
@@ -8283,6 +8487,14 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1"/>
+      <c r="AA137" s="1"/>
+      <c r="AB137" s="1"/>
+      <c r="AC137" s="1"/>
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="1"/>
+      <c r="AF137" s="1"/>
     </row>
     <row r="138" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
@@ -8309,6 +8521,14 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1"/>
+      <c r="AA138" s="1"/>
+      <c r="AB138" s="1"/>
+      <c r="AC138" s="1"/>
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="1"/>
+      <c r="AF138" s="1"/>
     </row>
     <row r="139" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
@@ -8892,13 +9112,13 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="3"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -38810,7 +39030,6 @@
     </row>
     <row r="1036" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1"/>
-      <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
       <c r="D1036" s="1"/>
       <c r="E1036" s="12"/>
@@ -38853,9 +39072,6 @@
       <c r="I1037" s="12"/>
       <c r="J1037" s="1"/>
       <c r="K1037" s="1"/>
-      <c r="L1037" s="1"/>
-      <c r="M1037" s="1"/>
-      <c r="N1037" s="1"/>
       <c r="O1037" s="1"/>
       <c r="P1037" s="1"/>
       <c r="Q1037" s="1"/>
@@ -38877,7 +39093,6 @@
     </row>
     <row r="1038" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="1"/>
-      <c r="C1038" s="1"/>
       <c r="D1038" s="1"/>
       <c r="E1038" s="12"/>
       <c r="F1038" s="12"/>
@@ -38886,9 +39101,6 @@
       <c r="I1038" s="12"/>
       <c r="J1038" s="1"/>
       <c r="K1038" s="1"/>
-      <c r="L1038" s="1"/>
-      <c r="M1038" s="1"/>
-      <c r="N1038" s="1"/>
       <c r="O1038" s="1"/>
       <c r="P1038" s="1"/>
       <c r="Q1038" s="1"/>
@@ -38918,10 +39130,6 @@
       <c r="I1039" s="12"/>
       <c r="J1039" s="1"/>
       <c r="K1039" s="1"/>
-      <c r="L1039" s="1"/>
-      <c r="M1039" s="1"/>
-      <c r="N1039" s="1"/>
-      <c r="O1039" s="1"/>
       <c r="P1039" s="1"/>
       <c r="Q1039" s="1"/>
       <c r="R1039" s="1"/>
@@ -38941,7 +39149,6 @@
       <c r="AF1039" s="1"/>
     </row>
     <row r="1040" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1040" s="1"/>
       <c r="D1040" s="1"/>
       <c r="E1040" s="12"/>
       <c r="F1040" s="12"/>
@@ -38949,28 +39156,8 @@
       <c r="H1040" s="12"/>
       <c r="I1040" s="12"/>
       <c r="J1040" s="1"/>
-      <c r="K1040" s="1"/>
-      <c r="O1040" s="1"/>
-      <c r="P1040" s="1"/>
-      <c r="Q1040" s="1"/>
-      <c r="R1040" s="1"/>
-      <c r="S1040" s="1"/>
-      <c r="T1040" s="1"/>
-      <c r="U1040" s="1"/>
-      <c r="V1040" s="1"/>
-      <c r="W1040" s="1"/>
-      <c r="X1040" s="1"/>
-      <c r="Y1040" s="1"/>
-      <c r="Z1040" s="1"/>
-      <c r="AA1040" s="1"/>
-      <c r="AB1040" s="1"/>
-      <c r="AC1040" s="1"/>
-      <c r="AD1040" s="1"/>
-      <c r="AE1040" s="1"/>
-      <c r="AF1040" s="1"/>
-    </row>
-    <row r="1041" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1041" s="1"/>
+    </row>
+    <row r="1041" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1041" s="1"/>
       <c r="E1041" s="12"/>
       <c r="F1041" s="12"/>
@@ -38978,28 +39165,8 @@
       <c r="H1041" s="12"/>
       <c r="I1041" s="12"/>
       <c r="J1041" s="1"/>
-      <c r="K1041" s="1"/>
-      <c r="O1041" s="1"/>
-      <c r="P1041" s="1"/>
-      <c r="Q1041" s="1"/>
-      <c r="R1041" s="1"/>
-      <c r="S1041" s="1"/>
-      <c r="T1041" s="1"/>
-      <c r="U1041" s="1"/>
-      <c r="V1041" s="1"/>
-      <c r="W1041" s="1"/>
-      <c r="X1041" s="1"/>
-      <c r="Y1041" s="1"/>
-      <c r="Z1041" s="1"/>
-      <c r="AA1041" s="1"/>
-      <c r="AB1041" s="1"/>
-      <c r="AC1041" s="1"/>
-      <c r="AD1041" s="1"/>
-      <c r="AE1041" s="1"/>
-      <c r="AF1041" s="1"/>
-    </row>
-    <row r="1042" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1042" s="1"/>
+    </row>
+    <row r="1042" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1042" s="1"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
@@ -39007,26 +39174,8 @@
       <c r="H1042" s="12"/>
       <c r="I1042" s="12"/>
       <c r="J1042" s="1"/>
-      <c r="K1042" s="1"/>
-      <c r="P1042" s="1"/>
-      <c r="Q1042" s="1"/>
-      <c r="R1042" s="1"/>
-      <c r="S1042" s="1"/>
-      <c r="T1042" s="1"/>
-      <c r="U1042" s="1"/>
-      <c r="V1042" s="1"/>
-      <c r="W1042" s="1"/>
-      <c r="X1042" s="1"/>
-      <c r="Y1042" s="1"/>
-      <c r="Z1042" s="1"/>
-      <c r="AA1042" s="1"/>
-      <c r="AB1042" s="1"/>
-      <c r="AC1042" s="1"/>
-      <c r="AD1042" s="1"/>
-      <c r="AE1042" s="1"/>
-      <c r="AF1042" s="1"/>
-    </row>
-    <row r="1043" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="1043" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1043" s="1"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
@@ -39035,7 +39184,7 @@
       <c r="I1043" s="12"/>
       <c r="J1043" s="1"/>
     </row>
-    <row r="1044" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1044" s="1"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
@@ -39044,7 +39193,7 @@
       <c r="I1044" s="12"/>
       <c r="J1044" s="1"/>
     </row>
-    <row r="1045" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1045" s="1"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
@@ -39053,7 +39202,7 @@
       <c r="I1045" s="12"/>
       <c r="J1045" s="1"/>
     </row>
-    <row r="1046" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1046" s="1"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
@@ -39062,7 +39211,7 @@
       <c r="I1046" s="12"/>
       <c r="J1046" s="1"/>
     </row>
-    <row r="1047" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1047" s="1"/>
       <c r="E1047" s="12"/>
       <c r="F1047" s="12"/>
@@ -39071,7 +39220,7 @@
       <c r="I1047" s="12"/>
       <c r="J1047" s="1"/>
     </row>
-    <row r="1048" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1048" s="1"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -39080,7 +39229,7 @@
       <c r="I1048" s="12"/>
       <c r="J1048" s="1"/>
     </row>
-    <row r="1049" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1049" s="1"/>
       <c r="E1049" s="12"/>
       <c r="F1049" s="12"/>
@@ -39089,7 +39238,7 @@
       <c r="I1049" s="12"/>
       <c r="J1049" s="1"/>
     </row>
-    <row r="1050" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1050" s="1"/>
       <c r="E1050" s="12"/>
       <c r="F1050" s="12"/>
@@ -39098,7 +39247,7 @@
       <c r="I1050" s="12"/>
       <c r="J1050" s="1"/>
     </row>
-    <row r="1051" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1051" s="1"/>
       <c r="E1051" s="12"/>
       <c r="F1051" s="12"/>
@@ -39107,7 +39256,7 @@
       <c r="I1051" s="12"/>
       <c r="J1051" s="1"/>
     </row>
-    <row r="1052" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1052" s="1"/>
       <c r="E1052" s="12"/>
       <c r="F1052" s="12"/>
@@ -39116,7 +39265,7 @@
       <c r="I1052" s="12"/>
       <c r="J1052" s="1"/>
     </row>
-    <row r="1053" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1053" s="1"/>
       <c r="E1053" s="12"/>
       <c r="F1053" s="12"/>
@@ -39125,7 +39274,7 @@
       <c r="I1053" s="12"/>
       <c r="J1053" s="1"/>
     </row>
-    <row r="1054" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1054" s="1"/>
       <c r="E1054" s="12"/>
       <c r="F1054" s="12"/>
@@ -39134,7 +39283,7 @@
       <c r="I1054" s="12"/>
       <c r="J1054" s="1"/>
     </row>
-    <row r="1055" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1055" s="1"/>
       <c r="E1055" s="12"/>
       <c r="F1055" s="12"/>
@@ -39143,7 +39292,7 @@
       <c r="I1055" s="12"/>
       <c r="J1055" s="1"/>
     </row>
-    <row r="1056" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1056" s="1"/>
       <c r="E1056" s="12"/>
       <c r="F1056" s="12"/>
@@ -39413,877 +39562,941 @@
       <c r="I1085" s="12"/>
       <c r="J1085" s="1"/>
     </row>
-    <row r="1086" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1086" s="1"/>
-      <c r="E1086" s="12"/>
-      <c r="F1086" s="12"/>
-      <c r="G1086" s="12"/>
-      <c r="H1086" s="12"/>
-      <c r="I1086" s="12"/>
-      <c r="J1086" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C6:C21"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C41:C45"/>
+  <mergeCells count="15">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C29:C33"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C38:C42"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E32:F32 E35 E54:F57 E59:F59 F32:F35 E47:F52 E41:F45 E3:F3 E25 F25:F26 E6:F12 F28:F29 E37:F39">
-    <cfRule type="containsText" dxfId="204" priority="375" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E29:F29 E32 E51:F54 E58:F58 F29:F32 E44:F49 E38:F42 E22 F22:F23 E8:F14 F25:F26 E34:F36 E3:F4">
+    <cfRule type="containsText" dxfId="222" priority="434" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="376" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="221" priority="435" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="377" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="220" priority="436" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="378" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="219" priority="437" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="379" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="218" priority="438" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32 J47:J52 J6:J12 J3 J25:J26 J28:J29">
-    <cfRule type="containsText" dxfId="199" priority="346" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J29 J44:J49 J8:J14 J22:J23 J25:J26 J3:J4">
+    <cfRule type="containsText" dxfId="217" priority="405" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="347" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="216" priority="406" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="348" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="215" priority="407" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="349" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="408" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:E34">
-    <cfRule type="containsText" dxfId="196" priority="249" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="containsText" dxfId="214" priority="308" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="250" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E33)))</formula>
+    <cfRule type="containsText" dxfId="213" priority="309" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="251" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
+    <cfRule type="containsText" dxfId="212" priority="310" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="252" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E33)))</formula>
+    <cfRule type="containsText" dxfId="211" priority="311" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="253" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E33)))</formula>
+    <cfRule type="containsText" dxfId="210" priority="312" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J33:J35 J37:J39">
-    <cfRule type="containsText" dxfId="191" priority="245" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
+  <conditionalFormatting sqref="J30:J32 J34:J36">
+    <cfRule type="containsText" dxfId="209" priority="304" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="246" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
+    <cfRule type="containsText" dxfId="208" priority="305" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
+    <cfRule type="containsText" dxfId="207" priority="306" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="248" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J33)))</formula>
+    <cfRule type="containsText" priority="307" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26 E28:E29">
-    <cfRule type="containsText" dxfId="188" priority="240" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E26)))</formula>
+  <conditionalFormatting sqref="E23 E25:E26">
+    <cfRule type="containsText" dxfId="206" priority="299" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="241" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E26)))</formula>
+    <cfRule type="containsText" dxfId="205" priority="300" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="242" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E26)))</formula>
+    <cfRule type="containsText" dxfId="204" priority="301" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="243" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E26)))</formula>
+    <cfRule type="containsText" dxfId="203" priority="302" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="244" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E26)))</formula>
+    <cfRule type="containsText" dxfId="202" priority="303" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J45">
-    <cfRule type="containsText" dxfId="183" priority="223" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J41)))</formula>
+  <conditionalFormatting sqref="J38:J42">
+    <cfRule type="containsText" dxfId="201" priority="282" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="224" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J41)))</formula>
+    <cfRule type="containsText" dxfId="200" priority="283" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="225" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J41)))</formula>
+    <cfRule type="containsText" dxfId="199" priority="284" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="226" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J41)))</formula>
+    <cfRule type="containsText" priority="285" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J57">
-    <cfRule type="containsText" dxfId="180" priority="215" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
+  <conditionalFormatting sqref="J51:J54">
+    <cfRule type="containsText" dxfId="198" priority="274" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="216" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
+    <cfRule type="containsText" dxfId="197" priority="275" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="217" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
+    <cfRule type="containsText" dxfId="196" priority="276" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J51)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="218" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
+    <cfRule type="containsText" priority="277" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="containsText" dxfId="177" priority="211" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J59)))</formula>
+  <conditionalFormatting sqref="J58">
+    <cfRule type="containsText" dxfId="195" priority="270" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="212" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J59)))</formula>
+    <cfRule type="containsText" dxfId="194" priority="271" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="213" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J59)))</formula>
+    <cfRule type="containsText" dxfId="193" priority="272" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="214" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J59)))</formula>
+    <cfRule type="containsText" priority="273" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F25:F26 F6:F12 F28:F29">
-    <cfRule type="containsText" dxfId="174" priority="210" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F22:F23 F8:F14 F25:F26 F3:F4">
+    <cfRule type="containsText" dxfId="192" priority="269" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35 F37:F39">
-    <cfRule type="containsText" dxfId="173" priority="209" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F29:F32 F34:F36">
+    <cfRule type="containsText" dxfId="191" priority="268" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="172" priority="208" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="190" priority="267" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="171" priority="207" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="containsText" dxfId="189" priority="266" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F52">
-    <cfRule type="containsText" dxfId="170" priority="206" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
+  <conditionalFormatting sqref="F45:F49">
+    <cfRule type="containsText" dxfId="188" priority="265" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:F57">
-    <cfRule type="containsText" dxfId="169" priority="205" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
+  <conditionalFormatting sqref="F51:F54">
+    <cfRule type="containsText" dxfId="187" priority="264" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F51)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="168" priority="204" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F59)))</formula>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="containsText" dxfId="186" priority="263" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="167" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="185" priority="262"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F25:F26 F6:F12 F28:F29">
-    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F22:F23 F8:F14 F25:F26 F3:F4">
+    <cfRule type="containsText" dxfId="184" priority="246" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35 F37:F39">
-    <cfRule type="containsText" dxfId="165" priority="186" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F29:F32 F34:F36">
+    <cfRule type="containsText" dxfId="183" priority="245" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35 F37:F39">
-    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+  <conditionalFormatting sqref="F29:F32 F34:F36">
+    <cfRule type="containsText" dxfId="182" priority="240" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="182" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    <cfRule type="containsText" dxfId="181" priority="241" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    <cfRule type="containsText" dxfId="180" priority="242" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    <cfRule type="containsText" dxfId="179" priority="243" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="185" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    <cfRule type="containsText" dxfId="178" priority="244" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35 F37:F39">
-    <cfRule type="containsText" dxfId="159" priority="180" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+  <conditionalFormatting sqref="F29:F32 F34:F36">
+    <cfRule type="containsText" dxfId="177" priority="239" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35 F37:F39">
-    <cfRule type="containsText" dxfId="158" priority="179" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
+  <conditionalFormatting sqref="F29:F32 F34:F36">
+    <cfRule type="containsText" dxfId="176" priority="238" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="157" priority="178" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="175" priority="237" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="174" priority="236" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="155" priority="172" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="173" priority="231" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="173" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
+    <cfRule type="containsText" dxfId="172" priority="232" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="174" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    <cfRule type="containsText" dxfId="171" priority="233" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="175" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
+    <cfRule type="containsText" dxfId="170" priority="234" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="176" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
+    <cfRule type="containsText" dxfId="169" priority="235" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="150" priority="171" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="168" priority="230" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="149" priority="170" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="167" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F52">
-    <cfRule type="containsText" dxfId="148" priority="169" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
+  <conditionalFormatting sqref="F45:F49">
+    <cfRule type="containsText" dxfId="166" priority="228" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="147" priority="168" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="165" priority="227" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="146" priority="167" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="164" priority="226" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="145" priority="166" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="163" priority="225" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="144" priority="161" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="162" priority="220" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="162" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F47)))</formula>
+    <cfRule type="containsText" dxfId="161" priority="221" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="163" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="222" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="164" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F47)))</formula>
+    <cfRule type="containsText" dxfId="159" priority="223" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="165" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F47)))</formula>
+    <cfRule type="containsText" dxfId="158" priority="224" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="139" priority="160" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="157" priority="219" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="138" priority="159" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="156" priority="218" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="137" priority="158" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="155" priority="217" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="136" priority="157" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="154" priority="216" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="135" priority="156" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="153" priority="215" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="152" priority="210" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F47)))</formula>
+    <cfRule type="containsText" dxfId="151" priority="211" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="153" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F47)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="212" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="154" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F47)))</formula>
+    <cfRule type="containsText" dxfId="149" priority="213" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="155" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F47)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="214" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="129" priority="150" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="147" priority="209" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:F52">
-    <cfRule type="containsText" dxfId="128" priority="149" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F47)))</formula>
+  <conditionalFormatting sqref="F44:F49">
+    <cfRule type="containsText" dxfId="146" priority="208" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="127" priority="148" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="145" priority="207" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="126" priority="147" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="144" priority="206" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="125" priority="142" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="143" priority="201" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="143" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="202" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="144" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
+    <cfRule type="containsText" dxfId="141" priority="203" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="145" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
+    <cfRule type="containsText" dxfId="140" priority="204" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="146" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
+    <cfRule type="containsText" dxfId="139" priority="205" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="120" priority="141" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="138" priority="200" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F45">
-    <cfRule type="containsText" dxfId="119" priority="140" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
+  <conditionalFormatting sqref="F38:F42">
+    <cfRule type="containsText" dxfId="137" priority="199" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="118" priority="124" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="136" priority="183" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="125" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F4)))</formula>
+    <cfRule type="containsText" dxfId="135" priority="184" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="126" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F4)))</formula>
+    <cfRule type="containsText" dxfId="134" priority="185" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="127" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F4)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="186" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="128" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F4)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="187" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="113" priority="119" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="131" priority="178" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="120" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E4)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="179" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="121" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E4)))</formula>
+    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="122" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E4)))</formula>
+    <cfRule type="containsText" dxfId="128" priority="181" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="123" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E4)))</formula>
+    <cfRule type="containsText" dxfId="127" priority="182" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J4)))</formula>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="containsText" dxfId="126" priority="174" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
+    <cfRule type="containsText" dxfId="125" priority="175" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="117" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J4)))</formula>
+    <cfRule type="containsText" dxfId="124" priority="176" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="118" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J4)))</formula>
+    <cfRule type="containsText" priority="177" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="105" priority="114" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F4)))</formula>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="123" priority="173" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="104" priority="113" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F4)))</formula>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="containsText" dxfId="122" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="containsText" dxfId="121" priority="167" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="168" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="169" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="170" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="171" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="containsText" dxfId="116" priority="163" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="164" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="166" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="113" priority="162" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="111" priority="156" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="157" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="158" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="159" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="160" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="106" priority="155" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="containsText" dxfId="105" priority="151" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="152" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="153" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="154" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsText" dxfId="102" priority="146" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="147" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="148" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="149" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="150" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="containsText" dxfId="97" priority="145" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:F17">
+    <cfRule type="containsText" dxfId="96" priority="140" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="141" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="142" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="143" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="144" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J17">
+    <cfRule type="containsText" dxfId="91" priority="136" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="137" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="138" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="139" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F17">
+    <cfRule type="containsText" dxfId="88" priority="135" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F17">
+    <cfRule type="containsText" dxfId="87" priority="134" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:F27">
+    <cfRule type="containsText" dxfId="86" priority="129" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="130" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="131" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="132" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="133" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="containsText" dxfId="81" priority="125" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="126" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="127" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="128" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="containsText" dxfId="77" priority="123" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F18">
+    <cfRule type="containsText" dxfId="76" priority="118" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="119" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="120" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="121" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="122" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="115" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="116" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="117" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="68" priority="113" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="containsText" dxfId="67" priority="112" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="103" priority="108" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="66" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="109" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="110" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="111" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="63" priority="87" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="112" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="62" priority="88" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="98" priority="104" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="105" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="106" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="59" priority="82" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="107" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="83" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="95" priority="103" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="94" priority="102" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="93" priority="97" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F23)))</formula>
+  <conditionalFormatting sqref="E33:F33">
+    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="98" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F23)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="99" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F23)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="100" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F23)))</formula>
+    <cfRule type="containsText" dxfId="53" priority="76" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="101" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F23)))</formula>
+    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F23)))</formula>
+  <conditionalFormatting sqref="J33">
+    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="72" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="containsText" dxfId="87" priority="92" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="93" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="94" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J23)))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="48" priority="68" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="84" priority="87" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="88" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="89" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="90" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="91" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="79" priority="86" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F23)))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="64" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="65" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F33)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="66" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13:F15 E21:F21">
-    <cfRule type="containsText" dxfId="78" priority="81" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="82" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="83" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="84" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="85" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E13)))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="41" priority="61" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J15 J17 J19:J21">
-    <cfRule type="containsText" dxfId="73" priority="77" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="78" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="79" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J13)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="80" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J13)))</formula>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F33)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15 F21">
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F13)))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="39" priority="55" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="56" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="57" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="58" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="59" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13:F15 F21">
-    <cfRule type="containsText" dxfId="69" priority="75" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F13)))</formula>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="52" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="54" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:F30">
-    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="71" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="72" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="48" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="73" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="74" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E30)))</formula>
+    <cfRule type="containsText" priority="49" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="69" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="60" priority="65" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F30)))</formula>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="25" priority="44" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="59" priority="64" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F30)))</formula>
+  <conditionalFormatting sqref="J57">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="27" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E16)))</formula>
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E16)))</formula>
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E16)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E16)))</formula>
+    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="58" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J16)))</formula>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F16)))</formula>
+  <conditionalFormatting sqref="F57">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F16)))</formula>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E57)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 F19:F20">
-    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
+  <conditionalFormatting sqref="E56:F56">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="49" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F17)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="50" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F17)))</formula>
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="51" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F17)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="52" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F17)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 F19:F20">
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="6" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17 F19:F20">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17 E19:E20">
-    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="43" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="44" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="45" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="36" priority="36" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="40" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="34" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="35" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="24" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E36:F36">
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J36">
-    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="13" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F56">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J23:J30 J54:J57 J41:J45 J59 J47:J52 J3:J4 J6:J21 J32:J39" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J20:J27 J51:J54 J38:J42 J3:J6 J44:J49 J29:J36 J56:J58 J8:J18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E54:E57 E59 E41:E45 E47:E52 E32:E39" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E54 E58 E38:E42 E44:E49 E29:E36" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F45 F23:F30 F47:F52 F59 F54:F57 F3:F4 F6:F21 F32:F39" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F42 F20:F27 F44:F49 F3:F6 F51:F54 F29:F36 F56:F58 F8:F18" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E21 E23:E30" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E27 E3:E6 E56:E57 E8:E18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C097EF-22BC-433B-9AAD-896C0E054284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E715036B-9A63-4D18-A8D9-D3DD1F126D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Ẩn tài khoản</t>
   </si>
   <si>
-    <t>Xem danh sách dự án bất động sản</t>
-  </si>
-  <si>
     <t>Phân quyền</t>
   </si>
   <si>
@@ -310,12 +307,6 @@
   </si>
   <si>
     <t>Xem chi tiết dự án</t>
-  </si>
-  <si>
-    <t>Thêm dự án bất động sản</t>
-  </si>
-  <si>
-    <t>Sửa dự án bất động sản</t>
   </si>
   <si>
     <t>Tải lên kết quả kinh doanh</t>
@@ -438,6 +429,27 @@
   </si>
   <si>
     <t>Quản lý đăng nhập/ đăng xuất</t>
+  </si>
+  <si>
+    <t>Xem tất cả danh sách dự án</t>
+  </si>
+  <si>
+    <t>Xem danh sách dự án "Đang triển khai"</t>
+  </si>
+  <si>
+    <t>Xem danh sách dự án "Sắp triển khai"</t>
+  </si>
+  <si>
+    <t>Xem danh sách dự án  "Đã triển khai"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thêm dự án </t>
+  </si>
+  <si>
+    <t>Sửa dự án</t>
+  </si>
+  <si>
+    <t>Team</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1147,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1177,6 +1189,18 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1198,23 +1222,207 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="223">
+  <dxfs count="209">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -1610,150 +1818,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2078,154 +2146,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3286,56 +3206,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
@@ -3739,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
@@ -3786,10 +3656,10 @@
       <c r="J3" s="60"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M3" s="61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N3" s="62"/>
       <c r="O3" s="36"/>
@@ -3807,10 +3677,10 @@
       <c r="J4" s="60"/>
       <c r="K4" s="34"/>
       <c r="L4" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M4" s="61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N4" s="62"/>
       <c r="O4" s="36"/>
@@ -3828,10 +3698,10 @@
       <c r="J5" s="60"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="36"/>
@@ -3849,10 +3719,10 @@
       <c r="J6" s="60"/>
       <c r="K6" s="34"/>
       <c r="L6" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="62"/>
       <c r="O6" s="36"/>
@@ -3870,10 +3740,10 @@
       <c r="J7" s="60"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N7" s="62"/>
       <c r="O7" s="36"/>
@@ -3942,7 +3812,7 @@
       <c r="J11" s="60"/>
       <c r="K11" s="34"/>
       <c r="L11" s="63" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M11" s="64"/>
       <c r="N11" s="64"/>
@@ -3961,16 +3831,16 @@
       <c r="J12" s="60"/>
       <c r="K12" s="34"/>
       <c r="L12" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3986,16 +3856,16 @@
       <c r="J13" s="60"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="41" t="s">
-        <v>113</v>
-      </c>
       <c r="N13" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4137,11 +4007,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1085"/>
+  <dimension ref="A1:AF1082"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M52" sqref="M52"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4212,10 +4082,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>3</v>
@@ -4254,8 +4124,8 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>127</v>
+      <c r="C3" s="67" t="s">
+        <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>6</v>
@@ -4264,7 +4134,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="22">
         <v>43822</v>
@@ -4272,7 +4142,9 @@
       <c r="H3" s="22">
         <v>43823</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J3" s="23" t="s">
         <v>11</v>
       </c>
@@ -4303,28 +4175,34 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="22">
+        <v>43822</v>
+      </c>
+      <c r="H4" s="22">
+        <v>43823</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J4" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>7</v>
@@ -4350,10 +4228,10 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4361,21 +4239,23 @@
         <v>7</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="22">
-        <v>43822</v>
+        <v>43824</v>
       </c>
       <c r="H5" s="22">
-        <v>43823</v>
+        <v>43825</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J5" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>10</v>
@@ -4401,32 +4281,34 @@
     </row>
     <row r="6" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="51" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="22">
-        <v>43822</v>
+        <v>43825</v>
       </c>
       <c r="H6" s="22">
-        <v>43823</v>
+        <v>43826</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>12</v>
@@ -4452,15 +4334,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4486,8 +4368,8 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73" t="s">
-        <v>96</v>
+      <c r="C8" s="67" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>43</v>
@@ -4496,15 +4378,17 @@
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="22">
-        <v>43822</v>
+        <v>43829</v>
       </c>
       <c r="H8" s="22">
-        <v>43823</v>
+        <v>43830</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J8" s="23" t="s">
         <v>11</v>
       </c>
@@ -4528,10 +4412,10 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4539,15 +4423,17 @@
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" s="22">
-        <v>43822</v>
+        <v>43829</v>
       </c>
       <c r="H9" s="22">
-        <v>43823</v>
+        <v>43830</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J9" s="23" t="s">
         <v>11</v>
       </c>
@@ -4570,10 +4456,10 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4581,17 +4467,19 @@
         <v>10</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="22">
-        <v>43824</v>
+        <v>43831</v>
       </c>
       <c r="H10" s="22">
-        <v>43825</v>
+        <v>43832</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J10" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K10" s="3"/>
       <c r="O10" s="3"/>
@@ -4612,10 +4500,10 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4623,17 +4511,19 @@
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G11" s="22">
-        <v>43824</v>
+        <v>43832</v>
       </c>
       <c r="H11" s="22">
-        <v>43825</v>
+        <v>43833</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J11" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K11" s="3"/>
       <c r="O11" s="3"/>
@@ -4654,28 +4544,30 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="22">
-        <v>43824</v>
+        <v>43832</v>
       </c>
       <c r="H12" s="22">
-        <v>43825</v>
+        <v>43833</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J12" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K12" s="3"/>
       <c r="O12" s="3"/>
@@ -4696,28 +4588,30 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G13" s="22">
-        <v>43825</v>
+        <v>43836</v>
       </c>
       <c r="H13" s="22">
-        <v>43826</v>
+        <v>43837</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J13" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K13" s="3"/>
       <c r="O13" s="3"/>
@@ -4738,28 +4632,30 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" s="22">
-        <v>43826</v>
+        <v>43838</v>
       </c>
       <c r="H14" s="22">
-        <v>43827</v>
+        <v>43839</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J14" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K14" s="3"/>
       <c r="O14" s="3"/>
@@ -4780,28 +4676,30 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" s="22">
-        <v>43824</v>
+        <v>43839</v>
       </c>
       <c r="H15" s="22">
-        <v>43825</v>
+        <v>43840</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J15" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K15" s="3"/>
       <c r="O15" s="3"/>
@@ -4822,23 +4720,31 @@
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="G16" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H16" s="22">
+        <v>43840</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -4858,10 +4764,10 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4869,12 +4775,20 @@
         <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="G17" s="22">
+        <v>43843</v>
+      </c>
+      <c r="H17" s="22">
+        <v>43844</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -4894,10 +4808,10 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4905,17 +4819,19 @@
         <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G18" s="22">
-        <v>43824</v>
+        <v>43848</v>
       </c>
       <c r="H18" s="22">
-        <v>43825</v>
+        <v>43849</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J18" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K18" s="3"/>
       <c r="O18" s="3"/>
@@ -4936,15 +4852,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4973,27 +4889,29 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>95</v>
+      <c r="C20" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G20" s="22">
-        <v>43822</v>
+        <v>43850</v>
       </c>
       <c r="H20" s="22">
-        <v>43823</v>
+        <v>43851</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J20" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
@@ -5023,7 +4941,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -5031,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="22">
         <v>43826</v>
@@ -5039,9 +4957,11 @@
       <c r="H21" s="22">
         <v>43827</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J21" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
@@ -5071,7 +4991,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -5079,17 +4999,19 @@
         <v>7</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="22">
-        <v>43826</v>
+        <v>43823</v>
       </c>
       <c r="H22" s="22">
-        <v>43827</v>
+        <v>43825</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J22" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
@@ -5119,7 +5041,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -5127,7 +5049,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="22">
         <v>43826</v>
@@ -5135,9 +5057,11 @@
       <c r="H23" s="22">
         <v>43827</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J23" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
@@ -5167,15 +5091,15 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="22">
         <v>43826</v>
@@ -5183,9 +5107,11 @@
       <c r="H24" s="22">
         <v>43827</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="23" t="s">
+        <v>131</v>
+      </c>
       <c r="J24" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1"/>
@@ -5212,15 +5138,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5246,15 +5172,31 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="B26" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H26" s="22">
+        <v>43838</v>
+      </c>
       <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5280,15 +5222,29 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="B27" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H27" s="22">
+        <v>43838</v>
+      </c>
       <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
+      <c r="J27" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -5314,15 +5270,29 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
+      <c r="B28" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="68"/>
+      <c r="D28" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="22">
+        <v>43836</v>
+      </c>
+      <c r="H28" s="22">
+        <v>43838</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -5348,20 +5318,18 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="49" t="s">
-        <v>39</v>
+      <c r="B29" s="54" t="s">
+        <v>46</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>57</v>
-      </c>
+      <c r="C29" s="68"/>
       <c r="D29" s="19" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G29" s="22">
         <v>43836</v>
@@ -5398,18 +5366,18 @@
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="49" t="s">
-        <v>40</v>
+      <c r="B30" s="54" t="s">
+        <v>47</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G30" s="22">
         <v>43836</v>
@@ -5446,18 +5414,18 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="49" t="s">
-        <v>41</v>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G31" s="22">
         <v>43836</v>
@@ -5494,18 +5462,18 @@
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="49" t="s">
-        <v>46</v>
+      <c r="B32" s="54" t="s">
+        <v>49</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="19" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="22">
         <v>43836</v>
@@ -5542,18 +5510,18 @@
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="50" t="s">
-        <v>47</v>
+      <c r="B33" s="54" t="s">
+        <v>57</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="19" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G33" s="22">
         <v>43836</v>
@@ -5590,15 +5558,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5624,15 +5592,31 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H35" s="22">
+        <v>43841</v>
+      </c>
       <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+      <c r="J35" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -5658,15 +5642,29 @@
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="B36" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H36" s="22">
+        <v>43841</v>
+      </c>
       <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
+      <c r="J36" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -5692,15 +5690,29 @@
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
+      <c r="B37" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H37" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -5727,19 +5739,17 @@
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="49" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
-      <c r="C38" s="72" t="s">
-        <v>14</v>
-      </c>
+      <c r="C38" s="76"/>
       <c r="D38" s="26" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="22">
         <v>43839</v>
@@ -5777,17 +5787,17 @@
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="49" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="19" t="s">
-        <v>92</v>
+      <c r="C39" s="76"/>
+      <c r="D39" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="22">
         <v>43839</v>
@@ -5824,29 +5834,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="49" t="s">
-        <v>58</v>
-      </c>
+      <c r="B40" s="72"/>
       <c r="C40" s="72"/>
-      <c r="D40" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H40" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5873,9 +5869,11 @@
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
-      <c r="C41" s="72"/>
+      <c r="C41" s="67" t="s">
+        <v>15</v>
+      </c>
       <c r="D41" s="26" t="s">
         <v>68</v>
       </c>
@@ -5883,13 +5881,13 @@
         <v>7</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41" s="22">
-        <v>43839</v>
+        <v>43871</v>
       </c>
       <c r="H41" s="22">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23" t="s">
@@ -5921,23 +5919,23 @@
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
-      <c r="C42" s="72"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G42" s="22">
-        <v>43839</v>
+        <v>43871</v>
       </c>
       <c r="H42" s="22">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
@@ -5968,15 +5966,29 @@
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="68"/>
+      <c r="B43" s="49" t="s">
+        <v>62</v>
+      </c>
       <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
+      <c r="D43" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H43" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -6003,19 +6015,17 @@
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>15</v>
-      </c>
+      <c r="C44" s="68"/>
       <c r="D44" s="26" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="22">
         <v>43871</v>
@@ -6053,9 +6063,9 @@
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G45" s="22">
         <v>43871</v>
@@ -6101,23 +6111,23 @@
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
-      <c r="C46" s="74"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G46" s="22">
-        <v>43871</v>
+        <v>43874</v>
       </c>
       <c r="H46" s="22">
-        <v>43872</v>
+        <v>43876</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="s">
@@ -6135,29 +6145,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="49" t="s">
-        <v>64</v>
-      </c>
+      <c r="B47" s="73"/>
       <c r="C47" s="74"/>
-      <c r="D47" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H47" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="75"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6171,23 +6167,25 @@
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="49" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
-      <c r="C48" s="74"/>
+      <c r="C48" s="76" t="s">
+        <v>16</v>
+      </c>
       <c r="D48" s="26" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G48" s="22">
-        <v>43871</v>
+        <v>43874</v>
       </c>
       <c r="H48" s="22">
-        <v>43872</v>
+        <v>43876</v>
       </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23" t="s">
@@ -6206,17 +6204,17 @@
     <row r="49" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="49" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
-      <c r="C49" s="75"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="26" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49" s="22">
         <v>43874</v>
@@ -6240,15 +6238,29 @@
     </row>
     <row r="50" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="70"/>
-      <c r="H50" s="70"/>
-      <c r="I50" s="70"/>
-      <c r="J50" s="71"/>
+      <c r="B50" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="76"/>
+      <c r="D50" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H50" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
@@ -6261,17 +6273,15 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="72" t="s">
-        <v>16</v>
-      </c>
+      <c r="C51" s="76"/>
       <c r="D51" s="26" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G51" s="22">
         <v>43874</v>
@@ -6295,29 +6305,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="49" t="s">
-        <v>119</v>
-      </c>
+      <c r="B52" s="72"/>
       <c r="C52" s="72"/>
-      <c r="D52" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H52" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6328,29 +6324,25 @@
       <c r="S52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="49" t="s">
-        <v>120</v>
+      <c r="B53" s="52" t="s">
+        <v>119</v>
       </c>
-      <c r="C53" s="72"/>
-      <c r="D53" s="26" t="s">
-        <v>72</v>
+      <c r="C53" s="70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>114</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="G53" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H53" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
       <c r="I53" s="23"/>
-      <c r="J53" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J53" s="23"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -6358,29 +6350,23 @@
     </row>
     <row r="54" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
-      <c r="B54" s="49" t="s">
-        <v>121</v>
+      <c r="B54" s="52" t="s">
+        <v>122</v>
       </c>
-      <c r="C54" s="72"/>
-      <c r="D54" s="26" t="s">
-        <v>74</v>
+      <c r="C54" s="71"/>
+      <c r="D54" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="G54" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H54" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
       <c r="I54" s="23"/>
-      <c r="J54" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J54" s="23"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -6393,15 +6379,31 @@
     </row>
     <row r="55" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
+      <c r="B55" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H55" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -6414,25 +6416,15 @@
     </row>
     <row r="56" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
       <c r="K56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
@@ -6452,23 +6444,15 @@
     </row>
     <row r="57" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -6488,31 +6472,15 @@
     </row>
     <row r="58" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
-      <c r="B58" s="53" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H58" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -6525,15 +6493,15 @@
     </row>
     <row r="59" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -7313,7 +7281,7 @@
     <row r="93" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -7339,10 +7307,10 @@
     <row r="94" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -7365,10 +7333,10 @@
     <row r="95" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -7392,9 +7360,9 @@
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7442,15 +7410,15 @@
     </row>
     <row r="98" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="3"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -7468,15 +7436,15 @@
     </row>
     <row r="99" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="3"/>
+      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -7494,15 +7462,15 @@
     </row>
     <row r="100" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -8120,13 +8088,13 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="3"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -8146,13 +8114,13 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="3"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -8172,13 +8140,13 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="3"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -9010,13 +8978,13 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="3"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="3"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -9044,13 +9012,13 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="3"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -9078,13 +9046,13 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="3"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -38928,7 +38896,6 @@
     </row>
     <row r="1033" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="1"/>
-      <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="12"/>
@@ -38962,7 +38929,6 @@
     </row>
     <row r="1034" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="1"/>
-      <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
       <c r="D1034" s="1"/>
       <c r="E1034" s="12"/>
@@ -38996,8 +38962,6 @@
     </row>
     <row r="1035" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="1"/>
-      <c r="B1035" s="1"/>
-      <c r="C1035" s="1"/>
       <c r="D1035" s="1"/>
       <c r="E1035" s="12"/>
       <c r="F1035" s="12"/>
@@ -39030,7 +38994,6 @@
     </row>
     <row r="1036" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1"/>
-      <c r="C1036" s="1"/>
       <c r="D1036" s="1"/>
       <c r="E1036" s="12"/>
       <c r="F1036" s="12"/>
@@ -39063,7 +39026,6 @@
     </row>
     <row r="1037" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="1"/>
-      <c r="C1037" s="1"/>
       <c r="D1037" s="1"/>
       <c r="E1037" s="12"/>
       <c r="F1037" s="12"/>
@@ -39535,968 +39497,824 @@
       <c r="I1082" s="12"/>
       <c r="J1082" s="1"/>
     </row>
-    <row r="1083" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1083" s="1"/>
-      <c r="E1083" s="12"/>
-      <c r="F1083" s="12"/>
-      <c r="G1083" s="12"/>
-      <c r="H1083" s="12"/>
-      <c r="I1083" s="12"/>
-      <c r="J1083" s="1"/>
-    </row>
-    <row r="1084" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1084" s="1"/>
-      <c r="E1084" s="12"/>
-      <c r="F1084" s="12"/>
-      <c r="G1084" s="12"/>
-      <c r="H1084" s="12"/>
-      <c r="I1084" s="12"/>
-      <c r="J1084" s="1"/>
-    </row>
-    <row r="1085" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D1085" s="1"/>
-      <c r="E1085" s="12"/>
-      <c r="F1085" s="12"/>
-      <c r="G1085" s="12"/>
-      <c r="H1085" s="12"/>
-      <c r="I1085" s="12"/>
-      <c r="J1085" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="B19:J19"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C29:C33"/>
     <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C44:C49"/>
-    <mergeCell ref="C38:C42"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E29:F29 E32 E51:F54 E58:F58 F29:F32 E44:F49 E38:F42 E22 F22:F23 E8:F14 F25:F26 E34:F36 E3:F4">
-    <cfRule type="containsText" dxfId="222" priority="434" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">
+    <cfRule type="containsText" dxfId="208" priority="502" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="435" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="207" priority="503" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="436" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="206" priority="504" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="437" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="205" priority="505" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="438" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="204" priority="506" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29 J44:J49 J8:J14 J22:J23 J25:J26 J3:J4">
-    <cfRule type="containsText" dxfId="217" priority="405" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J26 J41:J46 J3:J4 J8:J18">
+    <cfRule type="containsText" dxfId="203" priority="473" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="406" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="202" priority="474" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="407" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="201" priority="475" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="408" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="476" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:E31">
-    <cfRule type="containsText" dxfId="214" priority="308" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+  <conditionalFormatting sqref="J27:J29">
+    <cfRule type="containsText" dxfId="200" priority="372" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="309" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E30)))</formula>
+    <cfRule type="containsText" dxfId="199" priority="373" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="310" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E30)))</formula>
+    <cfRule type="containsText" dxfId="198" priority="374" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="311" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="312" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E30)))</formula>
+    <cfRule type="containsText" priority="375" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J32 J34:J36">
-    <cfRule type="containsText" dxfId="209" priority="304" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="305" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="306" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="307" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23 E25:E26">
-    <cfRule type="containsText" dxfId="206" priority="299" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E23">
+    <cfRule type="containsText" dxfId="197" priority="367" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="300" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="196" priority="368" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="301" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="195" priority="369" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="302" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="194" priority="370" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="303" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="193" priority="371" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J38:J42">
-    <cfRule type="containsText" dxfId="201" priority="282" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
+  <conditionalFormatting sqref="J35:J39">
+    <cfRule type="containsText" dxfId="192" priority="350" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="283" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    <cfRule type="containsText" dxfId="191" priority="351" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="284" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="352" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="285" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
+    <cfRule type="containsText" priority="353" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:J54">
-    <cfRule type="containsText" dxfId="198" priority="274" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J51)))</formula>
+  <conditionalFormatting sqref="J48:J51">
+    <cfRule type="containsText" dxfId="189" priority="342" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="275" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J51)))</formula>
+    <cfRule type="containsText" dxfId="188" priority="343" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="276" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J51)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="344" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="277" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J51)))</formula>
+    <cfRule type="containsText" priority="345" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58">
-    <cfRule type="containsText" dxfId="195" priority="270" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J58)))</formula>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="containsText" dxfId="186" priority="338" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="271" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J58)))</formula>
+    <cfRule type="containsText" dxfId="185" priority="339" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="272" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J58)))</formula>
+    <cfRule type="containsText" dxfId="184" priority="340" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="273" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J58)))</formula>
+    <cfRule type="containsText" priority="341" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23 F8:F14 F25:F26 F3:F4">
-    <cfRule type="containsText" dxfId="192" priority="269" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
+    <cfRule type="containsText" dxfId="183" priority="337" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32 F34:F36">
-    <cfRule type="containsText" dxfId="191" priority="268" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="182" priority="336" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="190" priority="267" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="181" priority="335" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="189" priority="266" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="containsText" dxfId="180" priority="334" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49">
-    <cfRule type="containsText" dxfId="188" priority="265" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
+  <conditionalFormatting sqref="F42:F46">
+    <cfRule type="containsText" dxfId="179" priority="333" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F54">
-    <cfRule type="containsText" dxfId="187" priority="264" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F51)))</formula>
+  <conditionalFormatting sqref="F48:F51">
+    <cfRule type="containsText" dxfId="178" priority="332" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="186" priority="263" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F58)))</formula>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="177" priority="331" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="185" priority="262"/>
+    <cfRule type="duplicateValues" dxfId="176" priority="330"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23 F8:F14 F25:F26 F3:F4">
-    <cfRule type="containsText" dxfId="184" priority="246" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
+    <cfRule type="containsText" dxfId="175" priority="314" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32 F34:F36">
-    <cfRule type="containsText" dxfId="183" priority="245" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="174" priority="313" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32 F34:F36">
-    <cfRule type="containsText" dxfId="182" priority="240" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F29)))</formula>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="173" priority="308" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="241" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F29)))</formula>
+    <cfRule type="containsText" dxfId="172" priority="309" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="242" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F29)))</formula>
+    <cfRule type="containsText" dxfId="171" priority="310" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="243" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F29)))</formula>
+    <cfRule type="containsText" dxfId="170" priority="311" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="244" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F29)))</formula>
+    <cfRule type="containsText" dxfId="169" priority="312" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32 F34:F36">
-    <cfRule type="containsText" dxfId="177" priority="239" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F29)))</formula>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="168" priority="307" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F32 F34:F36">
-    <cfRule type="containsText" dxfId="176" priority="238" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F29)))</formula>
+  <conditionalFormatting sqref="F26:F30">
+    <cfRule type="containsText" dxfId="167" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="175" priority="237" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="166" priority="305" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="174" priority="236" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="165" priority="304" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="173" priority="231" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="164" priority="299" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="232" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    <cfRule type="containsText" dxfId="163" priority="300" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="233" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="301" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="234" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    <cfRule type="containsText" dxfId="161" priority="302" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="235" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="303" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="168" priority="230" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="159" priority="298" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="167" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="158" priority="297" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49">
-    <cfRule type="containsText" dxfId="166" priority="228" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F45)))</formula>
+  <conditionalFormatting sqref="F42:F46">
+    <cfRule type="containsText" dxfId="157" priority="296" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="165" priority="227" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="156" priority="295" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="164" priority="226" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="155" priority="294" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="163" priority="225" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="154" priority="293" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="162" priority="220" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="153" priority="288" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="221" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F44)))</formula>
+    <cfRule type="containsText" dxfId="152" priority="289" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="222" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
+    <cfRule type="containsText" dxfId="151" priority="290" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="223" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F44)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="291" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="224" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F44)))</formula>
+    <cfRule type="containsText" dxfId="149" priority="292" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="157" priority="219" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="148" priority="287" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="156" priority="218" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="147" priority="286" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="155" priority="217" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="146" priority="285" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="154" priority="216" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="145" priority="284" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="153" priority="215" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="144" priority="283" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="152" priority="210" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="143" priority="278" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="211" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F44)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="279" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="212" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F44)))</formula>
+    <cfRule type="containsText" dxfId="141" priority="280" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="213" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F44)))</formula>
+    <cfRule type="containsText" dxfId="140" priority="281" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="214" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F44)))</formula>
+    <cfRule type="containsText" dxfId="139" priority="282" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="147" priority="209" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="138" priority="277" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F49">
-    <cfRule type="containsText" dxfId="146" priority="208" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F44)))</formula>
+  <conditionalFormatting sqref="F41:F46">
+    <cfRule type="containsText" dxfId="137" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="145" priority="207" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="136" priority="275" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="144" priority="206" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="135" priority="274" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="143" priority="201" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="134" priority="269" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="202" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    <cfRule type="containsText" dxfId="133" priority="270" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="203" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    <cfRule type="containsText" dxfId="132" priority="271" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="204" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="272" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="205" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    <cfRule type="containsText" dxfId="130" priority="273" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="138" priority="200" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="129" priority="268" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F42">
-    <cfRule type="containsText" dxfId="137" priority="199" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+  <conditionalFormatting sqref="F35:F39">
+    <cfRule type="containsText" dxfId="128" priority="267" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="136" priority="183" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="127" priority="251" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="184" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="126" priority="252" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="185" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="125" priority="253" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="186" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="124" priority="254" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="187" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="123" priority="255" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="131" priority="178" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="122" priority="246" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="179" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="121" priority="247" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="120" priority="248" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="181" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="119" priority="249" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="182" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="118" priority="250" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="126" priority="174" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="117" priority="242" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="175" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="116" priority="243" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="176" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="115" priority="244" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="177" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="245" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="123" priority="173" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="114" priority="241" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="122" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="113" priority="240" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="containsText" dxfId="121" priority="167" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
+  <conditionalFormatting sqref="E21:F21 E20">
+    <cfRule type="containsText" dxfId="112" priority="235" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="168" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
+    <cfRule type="containsText" dxfId="111" priority="236" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="169" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
+    <cfRule type="containsText" dxfId="110" priority="237" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="170" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
+    <cfRule type="containsText" dxfId="109" priority="238" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="171" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="containsText" dxfId="116" priority="163" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="164" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="165" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="166" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
+    <cfRule type="containsText" dxfId="108" priority="239" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="113" priority="162" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="104" priority="230" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="112" priority="161" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="103" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="111" priority="156" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="102" priority="224" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="157" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="101" priority="225" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="158" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="100" priority="226" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="159" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="99" priority="227" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="160" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="98" priority="228" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="106" priority="155" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="97" priority="223" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="containsText" dxfId="105" priority="151" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="152" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="153" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="154" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="102" priority="146" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="147" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="148" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="149" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="150" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="97" priority="145" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="93" priority="213" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F17">
-    <cfRule type="containsText" dxfId="96" priority="140" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="92" priority="208" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="141" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="91" priority="209" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="142" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="90" priority="210" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="143" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="89" priority="211" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="144" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="88" priority="212" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J17">
-    <cfRule type="containsText" dxfId="91" priority="136" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="137" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="138" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="139" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="88" priority="135" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="84" priority="203" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="87" priority="134" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="83" priority="202" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27:F27">
-    <cfRule type="containsText" dxfId="86" priority="129" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="130" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="131" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="132" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="133" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
-    <cfRule type="containsText" dxfId="81" priority="125" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="126" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="127" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="128" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="78" priority="124" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="77" priority="123" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="76" priority="118" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="82" priority="186" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="119" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="81" priority="187" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="120" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="188" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="121" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="79" priority="189" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="122" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="78" priority="190" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="containsText" dxfId="71" priority="114" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="115" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="116" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="117" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="68" priority="113" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="74" priority="181" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="67" priority="112" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="73" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="66" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="152" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="85" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="71" priority="153" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="86" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="70" priority="154" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="87" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="69" priority="155" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="88" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="68" priority="156" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="81" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="82" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="83" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="58" priority="79" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="64" priority="147" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="57" priority="78" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="63" priority="146" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:F33">
-    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="containsText" dxfId="62" priority="137" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="74" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E33)))</formula>
+    <cfRule type="containsText" dxfId="61" priority="138" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="75" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E33)))</formula>
+    <cfRule type="containsText" dxfId="60" priority="139" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="76" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J33">
-    <cfRule type="containsText" dxfId="51" priority="69" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="70" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="72" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="48" priority="68" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="47" priority="67" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="46" priority="62" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="63" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="64" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="65" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F33)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="66" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="41" priority="61" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F33)))</formula>
+    <cfRule type="containsText" priority="140" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="39" priority="55" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="59" priority="123" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="56" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="58" priority="124" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="57" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="57" priority="125" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="58" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="56" priority="126" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="59" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="55" priority="127" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="34" priority="50" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="54" priority="118" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="53" priority="119" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="52" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="52" priority="120" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="51" priority="121" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="54" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="50" priority="122" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="49" priority="114" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="48" priority="115" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="48" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="47" priority="116" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="49" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="117" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="26" priority="45" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="46" priority="113" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="25" priority="44" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="45" priority="112" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J57">
-    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J57)))</formula>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="containsText" dxfId="44" priority="92" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J57)))</formula>
+    <cfRule type="containsText" dxfId="43" priority="93" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="26" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J57)))</formula>
+    <cfRule type="containsText" dxfId="42" priority="94" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="27" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J57)))</formula>
+    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F57)))</formula>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F57)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F57)))</formula>
+    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F57)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="90" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F57)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F57)))</formula>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="36" priority="86" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F57)))</formula>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="containsText" dxfId="35" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E57">
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="containsText" dxfId="34" priority="80" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E57)))</formula>
+    <cfRule type="containsText" dxfId="33" priority="81" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E57)))</formula>
+    <cfRule type="containsText" dxfId="32" priority="82" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E57)))</formula>
+    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E57)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="84" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E56:F56">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
+  <conditionalFormatting sqref="E53:F53">
+    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E56)))</formula>
+    <cfRule type="containsText" dxfId="28" priority="76" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E56)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E56)))</formula>
+    <cfRule type="containsText" dxfId="26" priority="78" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E56)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="79" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J56)))</formula>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="containsText" dxfId="24" priority="71" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="72" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="73" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="6" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J56)))</formula>
+    <cfRule type="containsText" priority="74" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="21" priority="70" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="containsText" dxfId="20" priority="69" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="19" priority="64" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="66" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="67" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="68" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J31:J33">
+    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="58" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="11" priority="54" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="10" priority="53" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="9" priority="48" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="49" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="50" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="52" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="4" priority="47" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:F33">
+    <cfRule type="containsText" dxfId="3" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J24">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J20:J27 J51:J54 J38:J42 J3:J6 J44:J49 J29:J36 J56:J58 J8:J18" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J18 J48:J51 J35:J39 J3:J6 J41:J46 J53:J55 J26:J33 J20:J24" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E51:E54 E58 E38:E42 E44:E49 E29:E36" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E51 E55 E35:E39 E41:E46 E26:E33" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F38:F42 F20:F27 F44:F49 F3:F6 F51:F54 F29:F36 F56:F58 F8:F18" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F39 F20:F24 F41:F46 F3:F6 F48:F51 F53:F55 F8:F18 F26:F33" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E27 E3:E6 E56:E57 E8:E18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E18 E3:E6 E53:E54 E20:E24" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E715036B-9A63-4D18-A8D9-D3DD1F126D4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADE71F-145D-43AE-A8B3-881A5D227ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -1189,18 +1189,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,11 +1210,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="209">
+  <dxfs count="194">
     <dxf>
       <fill>
         <patternFill>
@@ -1866,34 +1866,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1950,230 +1922,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2258,10 +2006,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2282,6 +2032,116 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4010,8 +3870,8 @@
   <dimension ref="A1:AF1082"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4124,7 +3984,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="73" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4178,7 +4038,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4231,7 +4091,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4284,7 +4144,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4334,15 +4194,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4368,7 +4228,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="73" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4415,7 +4275,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4459,7 +4319,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4503,7 +4363,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4547,7 +4407,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4591,7 +4451,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4635,7 +4495,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4679,7 +4539,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4723,7 +4583,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4767,7 +4627,7 @@
       <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4811,7 +4671,7 @@
       <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4852,15 +4712,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4889,7 +4749,7 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -4941,7 +4801,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -4991,7 +4851,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -5041,7 +4901,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -5091,7 +4951,7 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
@@ -5138,15 +4998,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5175,7 +5035,7 @@
       <c r="B26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="73" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -5225,7 +5085,7 @@
       <c r="B27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="19" t="s">
         <v>126</v>
       </c>
@@ -5273,7 +5133,7 @@
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
@@ -5321,7 +5181,7 @@
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="19" t="s">
         <v>128</v>
       </c>
@@ -5369,7 +5229,7 @@
       <c r="B30" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="19" t="s">
         <v>88</v>
       </c>
@@ -5417,7 +5277,7 @@
       <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="19" t="s">
         <v>120</v>
       </c>
@@ -5465,7 +5325,7 @@
       <c r="B32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5513,7 +5373,7 @@
       <c r="B33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
         <v>130</v>
       </c>
@@ -5558,15 +5418,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5595,7 +5455,7 @@
       <c r="B35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="72" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5645,7 +5505,7 @@
       <c r="B36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
@@ -5693,7 +5553,7 @@
       <c r="B37" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
@@ -5741,7 +5601,7 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="26" t="s">
         <v>67</v>
       </c>
@@ -5789,7 +5649,7 @@
       <c r="B39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5834,15 +5694,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5871,7 +5731,7 @@
       <c r="B41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5921,7 +5781,7 @@
       <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="26" t="s">
         <v>69</v>
       </c>
@@ -5969,7 +5829,7 @@
       <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="26" t="s">
         <v>76</v>
       </c>
@@ -6017,7 +5877,7 @@
       <c r="B44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
@@ -6065,7 +5925,7 @@
       <c r="B45" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -6113,7 +5973,7 @@
       <c r="B46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
@@ -6145,15 +6005,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6169,7 +6029,7 @@
       <c r="B48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6206,7 +6066,7 @@
       <c r="B49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="26" t="s">
         <v>83</v>
       </c>
@@ -6241,7 +6101,7 @@
       <c r="B50" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="26" t="s">
         <v>71</v>
       </c>
@@ -6273,7 +6133,7 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
@@ -6305,15 +6165,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6327,7 +6187,7 @@
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="66" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -6353,7 +6213,7 @@
       <c r="B54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="71"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
@@ -39499,6 +39359,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B47:J47"/>
@@ -39507,40 +39374,33 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">
-    <cfRule type="containsText" dxfId="208" priority="502" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="193" priority="502" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="503" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="192" priority="503" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="504" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="191" priority="504" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="505" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="190" priority="505" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="506" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="189" priority="506" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26 J41:J46 J3:J4 J8:J18">
-    <cfRule type="containsText" dxfId="203" priority="473" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="188" priority="473" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="474" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="187" priority="474" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="475" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="186" priority="475" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="476" operator="containsText" text="Not Started">
@@ -39548,13 +39408,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J29">
-    <cfRule type="containsText" dxfId="200" priority="372" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="185" priority="372" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="373" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="184" priority="373" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="374" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="183" priority="374" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="375" operator="containsText" text="Not Started">
@@ -39562,30 +39422,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="197" priority="367" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="182" priority="367" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="368" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="181" priority="368" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="369" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="180" priority="369" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="370" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="179" priority="370" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="371" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="178" priority="371" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J39">
-    <cfRule type="containsText" dxfId="192" priority="350" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="177" priority="350" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="351" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="176" priority="351" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="352" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="175" priority="352" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="353" operator="containsText" text="Not Started">
@@ -39593,13 +39453,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J51">
-    <cfRule type="containsText" dxfId="189" priority="342" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="174" priority="342" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="343" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="173" priority="343" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="344" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="172" priority="344" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="345" operator="containsText" text="Not Started">
@@ -39607,13 +39467,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="186" priority="338" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="171" priority="338" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="339" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="170" priority="339" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="340" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="169" priority="340" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="341" operator="containsText" text="Not Started">
@@ -39621,285 +39481,285 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="183" priority="337" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="168" priority="337" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="182" priority="336" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="167" priority="336" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="181" priority="335" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="166" priority="335" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="180" priority="334" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="165" priority="334" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="179" priority="333" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="164" priority="333" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="containsText" dxfId="178" priority="332" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="163" priority="332" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="177" priority="331" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="162" priority="331" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="176" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="330"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="175" priority="314" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="160" priority="314" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="174" priority="313" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="159" priority="313" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="173" priority="308" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="158" priority="308" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="309" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="157" priority="309" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="310" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="156" priority="310" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="311" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="155" priority="311" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="312" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="154" priority="312" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="168" priority="307" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="153" priority="307" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="167" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="152" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="166" priority="305" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="151" priority="305" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="165" priority="304" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="150" priority="304" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="164" priority="299" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="149" priority="299" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="300" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="148" priority="300" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="301" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="147" priority="301" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="302" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="146" priority="302" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="303" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="145" priority="303" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="159" priority="298" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="144" priority="298" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="158" priority="297" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="143" priority="297" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="157" priority="296" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="142" priority="296" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="156" priority="295" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="141" priority="295" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="155" priority="294" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="140" priority="294" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="154" priority="293" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="139" priority="293" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="153" priority="288" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="138" priority="288" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="289" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="137" priority="289" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="290" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="136" priority="290" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="291" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="135" priority="291" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="292" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="134" priority="292" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="148" priority="287" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="133" priority="287" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="147" priority="286" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="132" priority="286" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="146" priority="285" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="131" priority="285" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="145" priority="284" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="130" priority="284" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="144" priority="283" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="129" priority="283" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="143" priority="278" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="128" priority="278" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="279" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="127" priority="279" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="280" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="126" priority="280" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="281" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="125" priority="281" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="282" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="124" priority="282" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="138" priority="277" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="123" priority="277" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="137" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="122" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="136" priority="275" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="121" priority="275" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="135" priority="274" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="120" priority="274" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="134" priority="269" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="119" priority="269" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="270" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="118" priority="270" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="271" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="117" priority="271" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="272" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="116" priority="272" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="273" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="115" priority="273" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="129" priority="268" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="114" priority="268" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="128" priority="267" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="113" priority="267" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="127" priority="251" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="112" priority="251" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="252" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="111" priority="252" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="253" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="110" priority="253" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="254" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="109" priority="254" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="255" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="108" priority="255" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="122" priority="246" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="107" priority="246" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="247" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="106" priority="247" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="248" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="105" priority="248" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="249" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="104" priority="249" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="250" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="103" priority="250" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="117" priority="242" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="102" priority="242" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="243" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="101" priority="243" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="244" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="100" priority="244" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="245" operator="containsText" text="Not Started">
@@ -39907,137 +39767,137 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="114" priority="241" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="99" priority="241" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="113" priority="240" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="98" priority="240" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21 E20">
-    <cfRule type="containsText" dxfId="112" priority="235" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="97" priority="235" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="236" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="96" priority="236" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="237" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="95" priority="237" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="238" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="94" priority="238" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="239" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="93" priority="239" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="104" priority="230" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="92" priority="230" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="103" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="91" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="102" priority="224" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="90" priority="224" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="225" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="89" priority="225" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="226" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="88" priority="226" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="227" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="87" priority="227" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="228" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="86" priority="228" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="97" priority="223" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="85" priority="223" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="93" priority="213" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="84" priority="213" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F17">
-    <cfRule type="containsText" dxfId="92" priority="208" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="83" priority="208" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="209" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="82" priority="209" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="210" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="81" priority="210" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="211" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="80" priority="211" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="212" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="79" priority="212" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="84" priority="203" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="78" priority="203" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="83" priority="202" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="77" priority="202" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="82" priority="186" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="76" priority="186" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="187" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="75" priority="187" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="188" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="74" priority="188" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="189" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="73" priority="189" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="190" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="72" priority="190" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="74" priority="181" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="71" priority="181" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="73" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="70" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="72" priority="152" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="69" priority="152" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="153" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="68" priority="153" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="154" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="67" priority="154" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="155" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="66" priority="155" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="156" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="65" priority="156" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADE71F-145D-43AE-A8B3-881A5D227ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB15384-5153-43A3-9A12-7A739982C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -23,12 +23,14 @@
     <definedName name="Status">'Product Backlog'!$N$4:$N$6</definedName>
     <definedName name="YesNo">'Product Backlog'!$L$4:$L$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1189,6 +1191,18 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1208,18 +1222,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3870,8 +3872,8 @@
   <dimension ref="A1:AF1082"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D44" sqref="D44"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3984,7 +3986,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="67" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4038,7 +4040,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4091,7 +4093,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4144,7 +4146,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4194,15 +4196,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4228,7 +4230,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="67" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4275,7 +4277,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4319,7 +4321,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4363,7 +4365,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4407,7 +4409,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4451,7 +4453,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4495,7 +4497,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4539,7 +4541,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4583,7 +4585,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4671,7 +4673,7 @@
       <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4712,15 +4714,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4749,7 +4751,7 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -4801,7 +4803,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -4851,7 +4853,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -4901,7 +4903,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -4951,7 +4953,7 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
@@ -4998,15 +5000,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5035,7 +5037,7 @@
       <c r="B26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="67" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -5085,7 +5087,7 @@
       <c r="B27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="19" t="s">
         <v>126</v>
       </c>
@@ -5133,7 +5135,7 @@
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
@@ -5181,7 +5183,7 @@
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="19" t="s">
         <v>128</v>
       </c>
@@ -5229,7 +5231,7 @@
       <c r="B30" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="19" t="s">
         <v>88</v>
       </c>
@@ -5277,7 +5279,7 @@
       <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="19" t="s">
         <v>120</v>
       </c>
@@ -5325,7 +5327,7 @@
       <c r="B32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5373,7 +5375,7 @@
       <c r="B33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="19" t="s">
         <v>130</v>
       </c>
@@ -5418,15 +5420,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="71"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5455,7 +5457,7 @@
       <c r="B35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="76" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5505,7 +5507,7 @@
       <c r="B36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
@@ -5553,7 +5555,7 @@
       <c r="B37" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
@@ -5601,7 +5603,7 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="26" t="s">
         <v>67</v>
       </c>
@@ -5649,7 +5651,7 @@
       <c r="B39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5694,15 +5696,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5731,7 +5733,7 @@
       <c r="B41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5781,7 +5783,7 @@
       <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="26" t="s">
         <v>69</v>
       </c>
@@ -5829,7 +5831,7 @@
       <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="74"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="26" t="s">
         <v>76</v>
       </c>
@@ -5877,7 +5879,7 @@
       <c r="B44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="74"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
@@ -5925,7 +5927,7 @@
       <c r="B45" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -5973,7 +5975,7 @@
       <c r="B46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
@@ -6005,15 +6007,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="71"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="75"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6029,7 +6031,7 @@
       <c r="B48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6066,7 +6068,7 @@
       <c r="B49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="72"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="26" t="s">
         <v>83</v>
       </c>
@@ -6101,7 +6103,7 @@
       <c r="B50" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="72"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="26" t="s">
         <v>71</v>
       </c>
@@ -6133,7 +6135,7 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="72"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
@@ -6165,15 +6167,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6187,7 +6189,7 @@
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="70" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -6213,7 +6215,7 @@
       <c r="B54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
@@ -39359,13 +39361,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B47:J47"/>
@@ -39374,6 +39369,13 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB15384-5153-43A3-9A12-7A739982C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91E002-C6CE-4641-A436-26B8C1273641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -1191,18 +1191,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,6 +1210,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3986,7 +3986,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="73" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4040,7 +4040,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4146,7 +4146,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4196,15 +4196,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4230,7 +4230,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="73" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4277,7 +4277,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4365,7 +4365,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4497,7 +4497,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4541,7 +4541,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4714,15 +4714,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4751,7 +4751,7 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -4803,7 +4803,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -4953,7 +4953,7 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
@@ -5000,15 +5000,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5037,7 +5037,7 @@
       <c r="B26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="73" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -5087,7 +5087,7 @@
       <c r="B27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="19" t="s">
         <v>126</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="19" t="s">
         <v>128</v>
       </c>
@@ -5231,7 +5231,7 @@
       <c r="B30" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="19" t="s">
         <v>88</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="19" t="s">
         <v>120</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="B32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="B33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
         <v>130</v>
       </c>
@@ -5420,15 +5420,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5457,7 +5457,7 @@
       <c r="B35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="72" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5507,7 +5507,7 @@
       <c r="B36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="B37" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
@@ -5603,7 +5603,7 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="26" t="s">
         <v>67</v>
       </c>
@@ -5651,7 +5651,7 @@
       <c r="B39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5696,15 +5696,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5733,7 +5733,7 @@
       <c r="B41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5783,7 +5783,7 @@
       <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="26" t="s">
         <v>69</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="26" t="s">
         <v>76</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="B44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
@@ -5927,7 +5927,7 @@
       <c r="B45" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="B46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
@@ -6007,15 +6007,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6031,7 +6031,7 @@
       <c r="B48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6068,7 +6068,7 @@
       <c r="B49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="26" t="s">
         <v>83</v>
       </c>
@@ -6103,7 +6103,7 @@
       <c r="B50" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="26" t="s">
         <v>71</v>
       </c>
@@ -6135,7 +6135,7 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
@@ -6167,15 +6167,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6189,7 +6189,7 @@
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="66" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -6215,7 +6215,7 @@
       <c r="B54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="71"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
@@ -39361,6 +39361,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B47:J47"/>
@@ -39369,13 +39376,6 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB15384-5153-43A3-9A12-7A739982C9D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DEE0A-7E3F-41BC-89BD-BE82C3170BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="10230" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -23,14 +23,12 @@
     <definedName name="Status">'Product Backlog'!$N$4:$N$6</definedName>
     <definedName name="YesNo">'Product Backlog'!$L$4:$L$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -1191,18 +1189,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1222,6 +1208,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3872,8 +3870,8 @@
   <dimension ref="A1:AF1082"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3986,7 +3984,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="73" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4040,7 +4038,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4093,7 +4091,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4146,7 +4144,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4196,15 +4194,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4230,7 +4228,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="73" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4277,7 +4275,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4321,7 +4319,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4365,7 +4363,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="74"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4409,7 +4407,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4453,7 +4451,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4497,7 +4495,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4541,7 +4539,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4585,7 +4583,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4629,7 +4627,7 @@
       <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4673,7 +4671,7 @@
       <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4714,15 +4712,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4751,7 +4749,7 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="73" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -4803,7 +4801,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -4853,7 +4851,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -4903,7 +4901,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -4953,7 +4951,7 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
@@ -5000,15 +4998,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5037,7 +5035,7 @@
       <c r="B26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="73" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -5087,7 +5085,7 @@
       <c r="B27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="19" t="s">
         <v>126</v>
       </c>
@@ -5135,7 +5133,7 @@
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
@@ -5183,7 +5181,7 @@
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="19" t="s">
         <v>128</v>
       </c>
@@ -5231,7 +5229,7 @@
       <c r="B30" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="19" t="s">
         <v>88</v>
       </c>
@@ -5279,7 +5277,7 @@
       <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="19" t="s">
         <v>120</v>
       </c>
@@ -5327,7 +5325,7 @@
       <c r="B32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5375,7 +5373,7 @@
       <c r="B33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
         <v>130</v>
       </c>
@@ -5420,15 +5418,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="71"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5457,7 +5455,7 @@
       <c r="B35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="72" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5507,7 +5505,7 @@
       <c r="B36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="76"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
@@ -5555,7 +5553,7 @@
       <c r="B37" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
@@ -5603,7 +5601,7 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="26" t="s">
         <v>67</v>
       </c>
@@ -5651,7 +5649,7 @@
       <c r="B39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5696,15 +5694,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5733,7 +5731,7 @@
       <c r="B41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="73" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5783,7 +5781,7 @@
       <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="74"/>
       <c r="D42" s="26" t="s">
         <v>69</v>
       </c>
@@ -5831,7 +5829,7 @@
       <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="74"/>
       <c r="D43" s="26" t="s">
         <v>76</v>
       </c>
@@ -5879,7 +5877,7 @@
       <c r="B44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="74"/>
       <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
@@ -5927,7 +5925,7 @@
       <c r="B45" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -5975,7 +5973,7 @@
       <c r="B46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
@@ -6007,15 +6005,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="71"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6031,7 +6029,7 @@
       <c r="B48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="76" t="s">
+      <c r="C48" s="72" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6068,7 +6066,7 @@
       <c r="B49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="26" t="s">
         <v>83</v>
       </c>
@@ -6103,7 +6101,7 @@
       <c r="B50" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="26" t="s">
         <v>71</v>
       </c>
@@ -6135,7 +6133,7 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
@@ -6167,15 +6165,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6189,7 +6187,7 @@
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="70" t="s">
+      <c r="C53" s="66" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -6215,7 +6213,7 @@
       <c r="B54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="71"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
@@ -39361,6 +39359,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B47:J47"/>
@@ -39369,13 +39374,6 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125DEE0A-7E3F-41BC-89BD-BE82C3170BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BBEDE-A3A5-45FF-866A-423EE7E103E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="10230" windowHeight="10035" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>Đạt huỳnh, team</t>
+  </si>
+  <si>
+    <t>Anh Minh, team</t>
   </si>
 </sst>
 </file>
@@ -1189,6 +1195,18 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1210,23 +1228,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="197">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3870,8 +3904,8 @@
   <dimension ref="A1:AF1082"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3984,7 +4018,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="67" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4038,7 +4072,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="74"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4091,7 +4125,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4144,7 +4178,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4194,15 +4228,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4228,7 +4262,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="67" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4275,7 +4309,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4319,7 +4353,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4363,7 +4397,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4407,7 +4441,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="74"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4451,7 +4485,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="74"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4495,7 +4529,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="74"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4539,7 +4573,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="74"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4583,7 +4617,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="74"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4627,7 +4661,7 @@
       <c r="B17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="68"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4671,7 +4705,7 @@
       <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="74"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="19" t="s">
         <v>52</v>
       </c>
@@ -4712,15 +4746,15 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
       <c r="K19" s="3"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -4749,7 +4783,7 @@
       <c r="B20" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="67" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -4801,7 +4835,7 @@
       <c r="B21" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="74"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="19" t="s">
         <v>44</v>
       </c>
@@ -4851,7 +4885,7 @@
       <c r="B22" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="19" t="s">
         <v>54</v>
       </c>
@@ -4901,7 +4935,7 @@
       <c r="B23" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="19" t="s">
         <v>45</v>
       </c>
@@ -4951,7 +4985,7 @@
       <c r="B24" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="19" t="s">
         <v>55</v>
       </c>
@@ -4998,15 +5032,15 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5035,7 +5069,7 @@
       <c r="B26" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="67" t="s">
         <v>56</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -5048,14 +5082,16 @@
         <v>79</v>
       </c>
       <c r="G26" s="22">
-        <v>43836</v>
+        <v>43892</v>
       </c>
       <c r="H26" s="22">
-        <v>43838</v>
+        <v>43896</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="J26" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
@@ -5085,7 +5121,7 @@
       <c r="B27" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="74"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="19" t="s">
         <v>126</v>
       </c>
@@ -5096,14 +5132,16 @@
         <v>79</v>
       </c>
       <c r="G27" s="22">
-        <v>43836</v>
+        <v>43899</v>
       </c>
       <c r="H27" s="22">
-        <v>43838</v>
+        <v>43903</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="J27" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
@@ -5133,7 +5171,7 @@
       <c r="B28" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="74"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="19" t="s">
         <v>127</v>
       </c>
@@ -5144,14 +5182,16 @@
         <v>79</v>
       </c>
       <c r="G28" s="22">
-        <v>43836</v>
+        <v>43906</v>
       </c>
       <c r="H28" s="22">
-        <v>43838</v>
+        <v>43910</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="J28" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
@@ -5181,7 +5221,7 @@
       <c r="B29" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="19" t="s">
         <v>128</v>
       </c>
@@ -5192,14 +5232,16 @@
         <v>79</v>
       </c>
       <c r="G29" s="22">
-        <v>43836</v>
+        <v>43913</v>
       </c>
       <c r="H29" s="22">
-        <v>43838</v>
+        <v>43921</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="J29" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5229,7 +5271,7 @@
       <c r="B30" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="74"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="19" t="s">
         <v>88</v>
       </c>
@@ -5240,14 +5282,16 @@
         <v>79</v>
       </c>
       <c r="G30" s="22">
-        <v>43836</v>
+        <v>43913</v>
       </c>
       <c r="H30" s="22">
-        <v>43838</v>
+        <v>43921</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="23" t="s">
+        <v>132</v>
+      </c>
       <c r="J30" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5277,7 +5321,7 @@
       <c r="B31" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="19" t="s">
         <v>120</v>
       </c>
@@ -5288,14 +5332,16 @@
         <v>80</v>
       </c>
       <c r="G31" s="22">
-        <v>43836</v>
+        <v>43900</v>
       </c>
       <c r="H31" s="22">
-        <v>43838</v>
+        <v>43907</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="J31" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5325,7 +5371,7 @@
       <c r="B32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="74"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="19" t="s">
         <v>129</v>
       </c>
@@ -5336,14 +5382,16 @@
         <v>80</v>
       </c>
       <c r="G32" s="22">
-        <v>43836</v>
+        <v>43908</v>
       </c>
       <c r="H32" s="22">
-        <v>43838</v>
+        <v>43915</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="J32" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5373,7 +5421,7 @@
       <c r="B33" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="69"/>
       <c r="D33" s="19" t="s">
         <v>130</v>
       </c>
@@ -5384,14 +5432,16 @@
         <v>80</v>
       </c>
       <c r="G33" s="22">
-        <v>43836</v>
+        <v>43916</v>
       </c>
       <c r="H33" s="22">
-        <v>43838</v>
+        <v>43922</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="23" t="s">
+        <v>133</v>
+      </c>
       <c r="J33" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -5418,15 +5468,15 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="71"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="75"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5455,7 +5505,7 @@
       <c r="B35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="76" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="26" t="s">
@@ -5505,7 +5555,7 @@
       <c r="B36" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="72"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="19" t="s">
         <v>89</v>
       </c>
@@ -5553,7 +5603,7 @@
       <c r="B37" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="72"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="26" t="s">
         <v>91</v>
       </c>
@@ -5601,7 +5651,7 @@
       <c r="B38" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="72"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="26" t="s">
         <v>67</v>
       </c>
@@ -5649,7 +5699,7 @@
       <c r="B39" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="72"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="26" t="s">
         <v>66</v>
       </c>
@@ -5694,15 +5744,15 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5731,7 +5781,7 @@
       <c r="B41" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="67" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="26" t="s">
@@ -5781,7 +5831,7 @@
       <c r="B42" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="74"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="26" t="s">
         <v>69</v>
       </c>
@@ -5829,7 +5879,7 @@
       <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="74"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="26" t="s">
         <v>76</v>
       </c>
@@ -5877,7 +5927,7 @@
       <c r="B44" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="74"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="26" t="s">
         <v>81</v>
       </c>
@@ -5925,7 +5975,7 @@
       <c r="B45" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="26" t="s">
         <v>70</v>
       </c>
@@ -5973,7 +6023,7 @@
       <c r="B46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="75"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="26" t="s">
         <v>72</v>
       </c>
@@ -6005,15 +6055,15 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="70"/>
-      <c r="J47" s="71"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="75"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6029,7 +6079,7 @@
       <c r="B48" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="26" t="s">
@@ -6066,7 +6116,7 @@
       <c r="B49" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="72"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="26" t="s">
         <v>83</v>
       </c>
@@ -6101,7 +6151,7 @@
       <c r="B50" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="72"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="26" t="s">
         <v>71</v>
       </c>
@@ -6133,7 +6183,7 @@
       <c r="B51" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="72"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="26" t="s">
         <v>73</v>
       </c>
@@ -6165,15 +6215,15 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -6187,7 +6237,7 @@
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="70" t="s">
         <v>93</v>
       </c>
       <c r="D53" s="19" t="s">
@@ -6213,7 +6263,7 @@
       <c r="B54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="67"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="19" t="s">
         <v>113</v>
       </c>
@@ -39359,13 +39409,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="B40:J40"/>
     <mergeCell ref="B47:J47"/>
@@ -39374,798 +39417,777 @@
     <mergeCell ref="C48:C51"/>
     <mergeCell ref="C41:C46"/>
     <mergeCell ref="C35:C39"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="C8:C18"/>
+    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">
-    <cfRule type="containsText" dxfId="193" priority="502" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="196" priority="506" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="503" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="195" priority="507" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="504" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="194" priority="508" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="505" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="193" priority="509" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="506" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="192" priority="510" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26 J41:J46 J3:J4 J8:J18">
-    <cfRule type="containsText" dxfId="188" priority="473" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J41:J46 J3:J4 J8:J18">
+    <cfRule type="containsText" dxfId="191" priority="477" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="474" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="190" priority="478" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="475" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="189" priority="479" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="476" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="480" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J29">
-    <cfRule type="containsText" dxfId="185" priority="372" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="373" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="374" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="375" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="182" priority="367" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="185" priority="371" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="368" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="184" priority="372" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="369" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="183" priority="373" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="370" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="182" priority="374" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="371" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="181" priority="375" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J39">
-    <cfRule type="containsText" dxfId="177" priority="350" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="180" priority="354" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="351" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="179" priority="355" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="352" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="178" priority="356" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="353" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="357" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J51">
-    <cfRule type="containsText" dxfId="174" priority="342" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="177" priority="346" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="343" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="176" priority="347" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="344" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="175" priority="348" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="345" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="349" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="171" priority="338" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="174" priority="342" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="339" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="173" priority="343" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="340" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="172" priority="344" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="341" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="345" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="168" priority="337" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="171" priority="341" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="167" priority="336" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="170" priority="340" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="166" priority="335" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="169" priority="339" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="165" priority="334" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="168" priority="338" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="164" priority="333" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="167" priority="337" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F51">
-    <cfRule type="containsText" dxfId="163" priority="332" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="166" priority="336" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="162" priority="331" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="165" priority="335" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="161" priority="330"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="334"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="160" priority="314" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="163" priority="318" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="159" priority="313" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="162" priority="317" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="158" priority="308" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="161" priority="312" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="309" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="160" priority="313" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="310" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="159" priority="314" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="311" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="158" priority="315" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="312" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="157" priority="316" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="153" priority="307" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="156" priority="311" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="152" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="155" priority="310" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="151" priority="305" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="154" priority="309" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="150" priority="304" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="153" priority="308" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="149" priority="299" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="152" priority="303" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="300" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="151" priority="304" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="301" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="150" priority="305" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="302" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="149" priority="306" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="303" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="148" priority="307" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="144" priority="298" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="147" priority="302" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="143" priority="297" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="146" priority="301" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="142" priority="296" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="145" priority="300" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="141" priority="295" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="144" priority="299" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="140" priority="294" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="143" priority="298" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="139" priority="293" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="142" priority="297" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="138" priority="288" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="141" priority="292" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="289" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="140" priority="293" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="290" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="139" priority="294" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="291" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="138" priority="295" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="292" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="137" priority="296" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="133" priority="287" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="136" priority="291" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="132" priority="286" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="135" priority="290" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="131" priority="285" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="134" priority="289" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="130" priority="284" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="133" priority="288" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="129" priority="283" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="132" priority="287" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="128" priority="278" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="131" priority="282" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="279" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="130" priority="283" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="280" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="129" priority="284" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="281" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="128" priority="285" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="282" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="127" priority="286" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="123" priority="277" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="126" priority="281" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="122" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="125" priority="280" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="121" priority="275" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="124" priority="279" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="120" priority="274" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="123" priority="278" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="119" priority="269" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="122" priority="273" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="270" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="121" priority="274" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="271" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="120" priority="275" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="272" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="119" priority="276" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="273" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="118" priority="277" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="114" priority="268" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="117" priority="272" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="113" priority="267" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="116" priority="271" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="112" priority="251" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="115" priority="255" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="252" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="114" priority="256" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="253" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="113" priority="257" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="254" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="112" priority="258" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="255" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="111" priority="259" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="107" priority="246" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="110" priority="250" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="247" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="109" priority="251" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="248" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="108" priority="252" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="249" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="107" priority="253" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="250" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="102" priority="242" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="246" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="243" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="104" priority="247" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="244" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="103" priority="248" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="245" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="249" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="99" priority="241" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="102" priority="245" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="98" priority="240" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="101" priority="244" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:F21 E20">
-    <cfRule type="containsText" dxfId="97" priority="235" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="100" priority="239" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="236" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="99" priority="240" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="237" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="98" priority="241" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="238" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="97" priority="242" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="239" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="96" priority="243" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="92" priority="230" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="95" priority="234" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="91" priority="229" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="94" priority="233" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="90" priority="224" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="93" priority="228" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="225" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="92" priority="229" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="226" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="91" priority="230" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="227" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="90" priority="231" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="228" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="89" priority="232" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="85" priority="223" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="88" priority="227" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="84" priority="213" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="87" priority="217" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F17">
-    <cfRule type="containsText" dxfId="83" priority="208" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="86" priority="212" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="209" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="85" priority="213" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="210" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="214" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="211" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="83" priority="215" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="212" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="82" priority="216" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="78" priority="203" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="81" priority="207" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="77" priority="202" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="80" priority="206" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="76" priority="186" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="79" priority="190" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="187" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="78" priority="191" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="188" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="77" priority="192" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="189" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="76" priority="193" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="190" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="75" priority="194" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="71" priority="181" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="74" priority="185" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="70" priority="180" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="73" priority="184" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="69" priority="152" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="156" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="153" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="71" priority="157" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="154" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="70" priority="158" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="155" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="69" priority="159" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="156" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="68" priority="160" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="64" priority="147" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="67" priority="151" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="63" priority="146" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="66" priority="150" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J30">
-    <cfRule type="containsText" dxfId="62" priority="137" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="138" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="139" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J30)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="140" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J30)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="59" priority="123" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="62" priority="127" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="124" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="61" priority="128" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="125" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="60" priority="129" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="126" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="59" priority="130" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="127" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="58" priority="131" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="54" priority="118" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="57" priority="122" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="119" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="56" priority="123" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="120" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="55" priority="124" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="121" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="54" priority="125" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="122" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="53" priority="126" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="49" priority="114" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="52" priority="118" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="115" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="51" priority="119" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="116" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="50" priority="120" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="117" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="121" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="46" priority="113" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="49" priority="117" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="45" priority="112" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="48" priority="116" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="44" priority="92" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="47" priority="96" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="93" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="46" priority="97" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="94" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="45" priority="98" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="99" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="88" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="43" priority="92" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="89" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="42" priority="93" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="90" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="91" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="36" priority="86" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="35" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="34" priority="80" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="37" priority="84" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="81" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="36" priority="85" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="82" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="35" priority="86" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="83" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="34" priority="87" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="84" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="33" priority="88" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:F53">
-    <cfRule type="containsText" dxfId="29" priority="75" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="32" priority="79" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="76" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="31" priority="80" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="77" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="78" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="29" priority="82" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="79" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="24" priority="71" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="72" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="26" priority="76" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="73" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="74" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="78" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="21" priority="70" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="24" priority="74" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="20" priority="69" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="19" priority="64" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="65" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="66" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="20" priority="70" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="67" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="19" priority="71" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="68" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="72" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31:J33">
-    <cfRule type="containsText" dxfId="14" priority="55" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="56" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="57" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="58" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="11" priority="54" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="10" priority="53" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="9" priority="48" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="52" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="49" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="11" priority="53" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="50" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="10" priority="54" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="9" priority="55" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="52" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="8" priority="56" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="4" priority="47" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="7" priority="51" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="3" priority="46" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="6" priority="50" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20:J24">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="8" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J33">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J18 J48:J51 J35:J39 J3:J6 J41:J46 J53:J55 J26:J33 J20:J24" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J18 J48:J51 J35:J39 J3:J6 J41:J46 J53:J55 J20:J24 J26:J33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E51 E55 E35:E39 E41:E46 E26:E33" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377BBEDE-A3A5-45FF-866A-423EE7E103E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7ECFF2-60B3-4722-B8B5-4FAB294E0262}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>Anh Minh, team</t>
+  </si>
+  <si>
+    <t>FR.14.1</t>
+  </si>
+  <si>
+    <t>Sửa nhân sự</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1162,6 +1168,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1195,18 +1204,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,11 +1225,219 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="197">
+  <dxfs count="208">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1376,34 +1581,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1828,34 +2005,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3100,34 +3249,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3191,7 +3312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3502,18 +3623,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="58"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
@@ -3521,16 +3642,16 @@
       <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -3538,121 +3659,121 @@
       <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="62"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="34"/>
       <c r="L4" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="M4" s="61" t="s">
+      <c r="M4" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="63"/>
       <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="62"/>
+      <c r="N5" s="63"/>
       <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="60"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="34"/>
       <c r="L6" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="62"/>
+      <c r="N6" s="63"/>
       <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="62"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="K8" s="32"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
@@ -3660,16 +3781,16 @@
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
       <c r="K9" s="32"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
@@ -3677,16 +3798,16 @@
       <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="32"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -3694,35 +3815,35 @@
       <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="63" t="s">
+      <c r="L11" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="34"/>
       <c r="L12" s="39" t="s">
         <v>103</v>
@@ -3738,16 +3859,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40" t="s">
         <v>107</v>
@@ -3763,16 +3884,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="60"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="34"/>
       <c r="L14" s="44"/>
       <c r="M14" s="45"/>
@@ -3780,16 +3901,16 @@
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="34"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
@@ -3797,16 +3918,16 @@
       <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="60"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="34"/>
       <c r="L16" s="46"/>
       <c r="M16" s="47"/>
@@ -3814,16 +3935,16 @@
       <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="60"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
       <c r="K17" s="34"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -3831,16 +3952,16 @@
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="60"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="34"/>
       <c r="L18" s="46"/>
       <c r="M18" s="47"/>
@@ -3848,16 +3969,16 @@
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="34"/>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>
@@ -3865,16 +3986,16 @@
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="34"/>
       <c r="L20" s="46"/>
       <c r="M20" s="47"/>
@@ -3901,11 +4022,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1082"/>
+  <dimension ref="A1:AF1083"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4018,7 +4139,7 @@
       <c r="B3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>124</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4040,7 +4161,7 @@
         <v>131</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="5" t="s">
@@ -4072,7 +4193,7 @@
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="51" t="s">
         <v>121</v>
       </c>
@@ -4092,7 +4213,7 @@
         <v>131</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
@@ -4125,7 +4246,7 @@
       <c r="B5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4145,7 +4266,7 @@
         <v>131</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
@@ -4178,7 +4299,7 @@
       <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="69"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="51" t="s">
         <v>121</v>
       </c>
@@ -4198,7 +4319,7 @@
         <v>131</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="28" t="s">
@@ -4228,15 +4349,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4262,7 +4383,7 @@
       <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="74" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -4284,7 +4405,7 @@
         <v>131</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="30"/>
@@ -4309,7 +4430,7 @@
       <c r="B9" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="24" t="s">
         <v>51</v>
       </c>
@@ -4329,7 +4450,7 @@
         <v>131</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K9" s="3"/>
       <c r="O9" s="3"/>
@@ -4353,7 +4474,7 @@
       <c r="B10" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="68"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="24" t="s">
         <v>53</v>
       </c>
@@ -4373,7 +4494,7 @@
         <v>131</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K10" s="3"/>
       <c r="O10" s="3"/>
@@ -4397,7 +4518,7 @@
       <c r="B11" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="68"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="19" t="s">
         <v>52</v>
       </c>
@@ -4417,7 +4538,7 @@
         <v>131</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K11" s="3"/>
       <c r="O11" s="3"/>
@@ -4441,7 +4562,7 @@
       <c r="B12" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="19" t="s">
         <v>85</v>
       </c>
@@ -4461,7 +4582,7 @@
         <v>131</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3"/>
       <c r="O12" s="3"/>
@@ -4485,7 +4606,7 @@
       <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="19" t="s">
         <v>86</v>
       </c>
@@ -4505,7 +4626,7 @@
         <v>131</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K13" s="3"/>
       <c r="O13" s="3"/>
@@ -4529,7 +4650,7 @@
       <c r="B14" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="19" t="s">
         <v>87</v>
       </c>
@@ -4549,7 +4670,7 @@
         <v>131</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K14" s="3"/>
       <c r="O14" s="3"/>
@@ -4573,7 +4694,7 @@
       <c r="B15" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="19" t="s">
         <v>84</v>
       </c>
@@ -4593,7 +4714,7 @@
         <v>131</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K15" s="3"/>
       <c r="O15" s="3"/>
@@ -4617,7 +4738,7 @@
       <c r="B16" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="19" t="s">
         <v>112</v>
       </c>
@@ -4637,7 +4758,7 @@
         <v>131</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K16" s="3"/>
       <c r="O16" s="3"/>
@@ -4658,10 +4779,10 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="68"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="19" t="s">
         <v>51</v>
       </c>
@@ -4681,7 +4802,7 @@
         <v>131</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K17" s="3"/>
       <c r="O17" s="3"/>
@@ -4703,11 +4824,11 @@
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="52" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
-      <c r="C18" s="68"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="19" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>10</v>
@@ -4716,16 +4837,16 @@
         <v>80</v>
       </c>
       <c r="G18" s="22">
-        <v>43848</v>
+        <v>43843</v>
       </c>
       <c r="H18" s="22">
-        <v>43849</v>
+        <v>43844</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>131</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K18" s="3"/>
       <c r="O18" s="3"/>
@@ -4746,19 +4867,32 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="B19" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="22">
+        <v>43848</v>
+      </c>
+      <c r="H19" s="22">
+        <v>43849</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>8</v>
+      </c>
       <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
@@ -4774,39 +4908,18 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="22">
-        <v>43850</v>
-      </c>
-      <c r="H20" s="22">
-        <v>43851</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4833,11 +4946,13 @@
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="74" t="s">
+        <v>92</v>
+      </c>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>7</v>
@@ -4846,10 +4961,10 @@
         <v>80</v>
       </c>
       <c r="G21" s="22">
-        <v>43826</v>
+        <v>43850</v>
       </c>
       <c r="H21" s="22">
-        <v>43827</v>
+        <v>43851</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>131</v>
@@ -4883,11 +4998,11 @@
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="C22" s="68"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>7</v>
@@ -4896,10 +5011,10 @@
         <v>80</v>
       </c>
       <c r="G22" s="22">
-        <v>43823</v>
+        <v>43826</v>
       </c>
       <c r="H22" s="22">
-        <v>43825</v>
+        <v>43827</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>131</v>
@@ -4933,11 +5048,11 @@
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
-      <c r="C23" s="68"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="19" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>7</v>
@@ -4946,10 +5061,10 @@
         <v>80</v>
       </c>
       <c r="G23" s="22">
-        <v>43826</v>
+        <v>43823</v>
       </c>
       <c r="H23" s="22">
-        <v>43827</v>
+        <v>43825</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>131</v>
@@ -4982,12 +5097,12 @@
     </row>
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="50" t="s">
-        <v>38</v>
+      <c r="B24" s="49" t="s">
+        <v>37</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
@@ -5032,15 +5147,31 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="B25" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="22">
+        <v>43826</v>
+      </c>
+      <c r="H25" s="22">
+        <v>43827</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -5066,33 +5197,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="22">
-        <v>43892</v>
-      </c>
-      <c r="H26" s="22">
-        <v>43896</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>11</v>
-      </c>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5118,12 +5231,14 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="54" t="s">
-        <v>40</v>
+      <c r="B27" s="49" t="s">
+        <v>39</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="74" t="s">
+        <v>56</v>
+      </c>
       <c r="D27" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>7</v>
@@ -5132,10 +5247,10 @@
         <v>79</v>
       </c>
       <c r="G27" s="22">
-        <v>43899</v>
+        <v>43892</v>
       </c>
       <c r="H27" s="22">
-        <v>43903</v>
+        <v>43896</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>132</v>
@@ -5169,11 +5284,11 @@
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="C28" s="68"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>7</v>
@@ -5182,10 +5297,10 @@
         <v>79</v>
       </c>
       <c r="G28" s="22">
-        <v>43906</v>
+        <v>43899</v>
       </c>
       <c r="H28" s="22">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>132</v>
@@ -5219,11 +5334,11 @@
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="54" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
-      <c r="C29" s="68"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>7</v>
@@ -5232,10 +5347,10 @@
         <v>79</v>
       </c>
       <c r="G29" s="22">
-        <v>43913</v>
+        <v>43906</v>
       </c>
       <c r="H29" s="22">
-        <v>43921</v>
+        <v>43910</v>
       </c>
       <c r="I29" s="23" t="s">
         <v>132</v>
@@ -5244,9 +5359,9 @@
         <v>11</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
@@ -5269,11 +5384,11 @@
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
-      <c r="C30" s="68"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="19" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>7</v>
@@ -5319,26 +5434,26 @@
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="19" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="22">
-        <v>43900</v>
+        <v>43913</v>
       </c>
       <c r="H31" s="22">
-        <v>43907</v>
+        <v>43921</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="23" t="s">
         <v>11</v>
@@ -5369,11 +5484,11 @@
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="19" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
@@ -5382,10 +5497,10 @@
         <v>80</v>
       </c>
       <c r="G32" s="22">
-        <v>43908</v>
+        <v>43900</v>
       </c>
       <c r="H32" s="22">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="I32" s="23" t="s">
         <v>133</v>
@@ -5419,11 +5534,11 @@
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="54" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>7</v>
@@ -5432,10 +5547,10 @@
         <v>80</v>
       </c>
       <c r="G33" s="22">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="H33" s="22">
-        <v>43922</v>
+        <v>43915</v>
       </c>
       <c r="I33" s="23" t="s">
         <v>133</v>
@@ -5468,15 +5583,31 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="74"/>
-      <c r="J34" s="75"/>
+      <c r="B34" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="22">
+        <v>43916</v>
+      </c>
+      <c r="H34" s="22">
+        <v>43922</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -5502,35 +5633,19 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H35" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="48"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
@@ -5553,17 +5668,19 @@
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="19" t="s">
-        <v>89</v>
+      <c r="C36" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G36" s="22">
         <v>43839</v>
@@ -5578,7 +5695,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="48"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -5601,17 +5718,17 @@
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="49" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="26" t="s">
-        <v>91</v>
+      <c r="C37" s="73"/>
+      <c r="D37" s="19" t="s">
+        <v>89</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" s="22">
         <v>43839</v>
@@ -5647,13 +5764,13 @@
       <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
+      <c r="A38" s="1"/>
       <c r="B38" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="73"/>
       <c r="D38" s="26" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>7</v>
@@ -5697,11 +5814,11 @@
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="73"/>
       <c r="D39" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>7</v>
@@ -5744,15 +5861,29 @@
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
+      <c r="B40" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="73"/>
+      <c r="D40" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H40" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -5778,31 +5909,15 @@
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="67" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H41" s="22">
-        <v>43872</v>
-      </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -5829,11 +5944,13 @@
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="C42" s="68"/>
+      <c r="C42" s="74" t="s">
+        <v>15</v>
+      </c>
       <c r="D42" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>7</v>
@@ -5877,11 +5994,11 @@
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
-      <c r="C43" s="68"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="26" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>7</v>
@@ -5923,13 +6040,13 @@
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
-      <c r="C44" s="68"/>
+      <c r="C44" s="75"/>
       <c r="D44" s="26" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>7</v>
@@ -5971,13 +6088,13 @@
       <c r="AF44" s="3"/>
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="75"/>
       <c r="D45" s="26" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>7</v>
@@ -6019,13 +6136,13 @@
       <c r="AF45" s="3"/>
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>7</v>
@@ -6034,10 +6151,10 @@
         <v>79</v>
       </c>
       <c r="G46" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H46" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="s">
@@ -6052,18 +6169,45 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+      <c r="AF46" s="3"/>
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75"/>
+      <c r="B47" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="76"/>
+      <c r="D47" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H47" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -6076,31 +6220,15 @@
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G48" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H48" s="22">
-        <v>43876</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="71"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="72"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -6114,11 +6242,13 @@
     <row r="49" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="73" t="s">
+        <v>16</v>
+      </c>
       <c r="D49" s="26" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E49" s="25" t="s">
         <v>10</v>
@@ -6149,11 +6279,11 @@
     <row r="50" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="73"/>
       <c r="D50" s="26" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E50" s="25" t="s">
         <v>10</v>
@@ -6172,6 +6302,9 @@
         <v>13</v>
       </c>
       <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
@@ -6181,11 +6314,11 @@
     <row r="51" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="73"/>
       <c r="D51" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E51" s="25" t="s">
         <v>10</v>
@@ -6204,9 +6337,6 @@
         <v>13</v>
       </c>
       <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
@@ -6215,57 +6345,68 @@
     </row>
     <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
+      <c r="B52" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H52" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
     </row>
     <row r="53" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C53" s="70" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="69"/>
+      <c r="H53" s="69"/>
+      <c r="I53" s="69"/>
+      <c r="J53" s="69"/>
+      <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
     </row>
     <row r="54" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
       <c r="B54" s="52" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
-      <c r="C54" s="71"/>
+      <c r="C54" s="67" t="s">
+        <v>93</v>
+      </c>
       <c r="D54" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>7</v>
@@ -6277,43 +6418,30 @@
       <c r="H54" s="22"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
-      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="C55" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>75</v>
+      <c r="C55" s="68"/>
+      <c r="D55" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H55" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
       <c r="I55" s="23"/>
-      <c r="J55" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J55" s="23"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -6326,43 +6454,52 @@
     </row>
     <row r="56" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
+      <c r="B56" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H56" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
+      <c r="B57" s="1"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
       <c r="K57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -6392,14 +6529,21 @@
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
+      <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
@@ -6455,9 +6599,9 @@
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
@@ -6476,9 +6620,9 @@
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
@@ -6500,7 +6644,7 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="O63" s="1"/>
+      <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -6517,15 +6661,15 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="1"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
     </row>
     <row r="65" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
@@ -6538,15 +6682,15 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
     </row>
     <row r="66" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
@@ -6560,9 +6704,9 @@
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
@@ -6582,6 +6726,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
@@ -6598,7 +6745,12 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="1"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
     </row>
     <row r="69" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
@@ -6611,7 +6763,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
@@ -6638,9 +6790,6 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -6654,19 +6803,9 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
     </row>
     <row r="73" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
@@ -7191,7 +7330,7 @@
     <row r="93" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="1"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -7218,9 +7357,9 @@
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -7320,15 +7459,15 @@
     </row>
     <row r="98" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
+      <c r="B98" s="3"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -7617,9 +7756,9 @@
       <c r="J109" s="1"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -7641,20 +7780,20 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
     </row>
     <row r="111" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
@@ -7998,13 +8137,13 @@
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="3"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -8331,14 +8470,6 @@
       <c r="V136" s="1"/>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
-      <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
     </row>
     <row r="137" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
@@ -8888,13 +9019,13 @@
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="1"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="3"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -38806,6 +38937,7 @@
     </row>
     <row r="1033" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
       <c r="D1033" s="1"/>
       <c r="E1033" s="12"/>
@@ -38872,6 +39004,7 @@
     </row>
     <row r="1035" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="1"/>
+      <c r="C1035" s="1"/>
       <c r="D1035" s="1"/>
       <c r="E1035" s="12"/>
       <c r="F1035" s="12"/>
@@ -38944,6 +39077,9 @@
       <c r="I1037" s="12"/>
       <c r="J1037" s="1"/>
       <c r="K1037" s="1"/>
+      <c r="L1037" s="1"/>
+      <c r="M1037" s="1"/>
+      <c r="N1037" s="1"/>
       <c r="O1037" s="1"/>
       <c r="P1037" s="1"/>
       <c r="Q1037" s="1"/>
@@ -39002,6 +39138,7 @@
       <c r="I1039" s="12"/>
       <c r="J1039" s="1"/>
       <c r="K1039" s="1"/>
+      <c r="O1039" s="1"/>
       <c r="P1039" s="1"/>
       <c r="Q1039" s="1"/>
       <c r="R1039" s="1"/>
@@ -39021,6 +39158,7 @@
       <c r="AF1039" s="1"/>
     </row>
     <row r="1040" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1"/>
       <c r="D1040" s="1"/>
       <c r="E1040" s="12"/>
       <c r="F1040" s="12"/>
@@ -39028,6 +39166,24 @@
       <c r="H1040" s="12"/>
       <c r="I1040" s="12"/>
       <c r="J1040" s="1"/>
+      <c r="K1040" s="1"/>
+      <c r="P1040" s="1"/>
+      <c r="Q1040" s="1"/>
+      <c r="R1040" s="1"/>
+      <c r="S1040" s="1"/>
+      <c r="T1040" s="1"/>
+      <c r="U1040" s="1"/>
+      <c r="V1040" s="1"/>
+      <c r="W1040" s="1"/>
+      <c r="X1040" s="1"/>
+      <c r="Y1040" s="1"/>
+      <c r="Z1040" s="1"/>
+      <c r="AA1040" s="1"/>
+      <c r="AB1040" s="1"/>
+      <c r="AC1040" s="1"/>
+      <c r="AD1040" s="1"/>
+      <c r="AE1040" s="1"/>
+      <c r="AF1040" s="1"/>
     </row>
     <row r="1041" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1041" s="1"/>
@@ -39407,796 +39563,804 @@
       <c r="I1082" s="12"/>
       <c r="J1082" s="1"/>
     </row>
+    <row r="1083" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1083" s="1"/>
+      <c r="E1083" s="12"/>
+      <c r="F1083" s="12"/>
+      <c r="G1083" s="12"/>
+      <c r="H1083" s="12"/>
+      <c r="I1083" s="12"/>
+      <c r="J1083" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="C35:C39"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="C27:C34"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B20:J20"/>
     <mergeCell ref="B7:J7"/>
-    <mergeCell ref="C8:C18"/>
-    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="C8:C19"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C42:C47"/>
+    <mergeCell ref="C36:C40"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E26:F26 E48:F51 E55:F55 E41:F46 E35:F39 E22 F22:F23 E8:F14 E3:F4 F26:F30 E27:E33">
-    <cfRule type="containsText" dxfId="196" priority="506" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E27:F27 E49:F52 E56:F56 E42:F47 E36:F40 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34">
+    <cfRule type="containsText" dxfId="207" priority="528" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="507" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="206" priority="529" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="508" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="205" priority="530" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="509" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="204" priority="531" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="510" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="203" priority="532" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J46 J3:J4 J8:J18">
-    <cfRule type="containsText" dxfId="191" priority="477" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J42:J47 J3:J6 J8:J19">
+    <cfRule type="containsText" dxfId="202" priority="499" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="478" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="201" priority="500" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="479" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="200" priority="501" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="480" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="502" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="185" priority="371" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="containsText" dxfId="199" priority="393" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="372" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E23)))</formula>
+    <cfRule type="containsText" dxfId="198" priority="394" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="373" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E23)))</formula>
+    <cfRule type="containsText" dxfId="197" priority="395" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="374" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E23)))</formula>
+    <cfRule type="containsText" dxfId="196" priority="396" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="375" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E23)))</formula>
+    <cfRule type="containsText" dxfId="195" priority="397" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35:J39">
-    <cfRule type="containsText" dxfId="180" priority="354" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J35)))</formula>
+  <conditionalFormatting sqref="J36:J40">
+    <cfRule type="containsText" dxfId="194" priority="376" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="355" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
+    <cfRule type="containsText" dxfId="193" priority="377" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="356" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J35)))</formula>
+    <cfRule type="containsText" dxfId="192" priority="378" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="357" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J35)))</formula>
+    <cfRule type="containsText" priority="379" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J48:J51">
-    <cfRule type="containsText" dxfId="177" priority="346" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J48)))</formula>
+  <conditionalFormatting sqref="J49:J52">
+    <cfRule type="containsText" dxfId="191" priority="368" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="347" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
+    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="348" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J48)))</formula>
+    <cfRule type="containsText" dxfId="189" priority="370" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J49)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="349" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J48)))</formula>
+    <cfRule type="containsText" priority="371" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J49)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="174" priority="342" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="containsText" dxfId="188" priority="364" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="343" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    <cfRule type="containsText" dxfId="187" priority="365" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="344" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="345" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J55)))</formula>
+    <cfRule type="containsText" priority="367" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="171" priority="341" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
+    <cfRule type="containsText" dxfId="185" priority="363" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="170" priority="340" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+  <conditionalFormatting sqref="F27:F31">
+    <cfRule type="containsText" dxfId="184" priority="362" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="169" priority="339" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="183" priority="361" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="containsText" dxfId="168" priority="338" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="167" priority="337" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F42">
+    <cfRule type="containsText" dxfId="182" priority="360" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F51">
-    <cfRule type="containsText" dxfId="166" priority="336" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F48)))</formula>
+  <conditionalFormatting sqref="F43:F47">
+    <cfRule type="containsText" dxfId="181" priority="359" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="165" priority="335" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
+  <conditionalFormatting sqref="F49:F52">
+    <cfRule type="containsText" dxfId="180" priority="358" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="containsText" dxfId="179" priority="357" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="164" priority="334"/>
+    <cfRule type="duplicateValues" dxfId="178" priority="356"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F23 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="163" priority="318" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
+    <cfRule type="containsText" dxfId="177" priority="340" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="162" priority="317" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+  <conditionalFormatting sqref="F27:F31">
+    <cfRule type="containsText" dxfId="176" priority="339" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="161" priority="312" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
+  <conditionalFormatting sqref="F27:F31">
+    <cfRule type="containsText" dxfId="175" priority="334" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="313" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F26)))</formula>
+    <cfRule type="containsText" dxfId="174" priority="335" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="314" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F26)))</formula>
+    <cfRule type="containsText" dxfId="173" priority="336" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="315" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F26)))</formula>
+    <cfRule type="containsText" dxfId="172" priority="337" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="316" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F26)))</formula>
+    <cfRule type="containsText" dxfId="171" priority="338" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="156" priority="311" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F26)))</formula>
+  <conditionalFormatting sqref="F27:F31">
+    <cfRule type="containsText" dxfId="170" priority="333" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F30">
-    <cfRule type="containsText" dxfId="155" priority="310" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F26)))</formula>
+  <conditionalFormatting sqref="F27:F31">
+    <cfRule type="containsText" dxfId="169" priority="332" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="154" priority="309" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="168" priority="331" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="153" priority="308" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="167" priority="330" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="152" priority="303" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="166" priority="325" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="304" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
+    <cfRule type="containsText" dxfId="165" priority="326" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="305" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
+    <cfRule type="containsText" dxfId="164" priority="327" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="306" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
+    <cfRule type="containsText" dxfId="163" priority="328" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="307" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
+    <cfRule type="containsText" dxfId="162" priority="329" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="147" priority="302" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="161" priority="324" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="146" priority="301" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="160" priority="323" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F46">
-    <cfRule type="containsText" dxfId="145" priority="300" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F43:F47">
+    <cfRule type="containsText" dxfId="159" priority="322" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="158" priority="321" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="144" priority="299" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="157" priority="320" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="143" priority="298" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="156" priority="319" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="142" priority="297" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="155" priority="314" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="315" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="316" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="317" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="151" priority="318" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="141" priority="292" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="293" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="294" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="295" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="296" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="150" priority="313" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="136" priority="291" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="149" priority="312" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="135" priority="290" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="148" priority="311" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="134" priority="289" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="147" priority="310" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="133" priority="288" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="146" priority="309" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="132" priority="287" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="145" priority="304" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="305" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="306" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="307" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="308" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="131" priority="282" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="283" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="284" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="285" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F41)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="286" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="140" priority="303" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="126" priority="281" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F41)))</formula>
+  <conditionalFormatting sqref="F42:F47">
+    <cfRule type="containsText" dxfId="139" priority="302" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:F46">
-    <cfRule type="containsText" dxfId="125" priority="280" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F41)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="138" priority="301" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="124" priority="279" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="137" priority="300" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="123" priority="278" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="136" priority="295" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="135" priority="296" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="297" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="298" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="299" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="122" priority="273" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="274" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="275" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="276" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="277" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="131" priority="294" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="117" priority="272" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F39">
-    <cfRule type="containsText" dxfId="116" priority="271" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F35)))</formula>
+  <conditionalFormatting sqref="F36:F40">
+    <cfRule type="containsText" dxfId="130" priority="293" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="115" priority="255" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="129" priority="277" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="256" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="128" priority="278" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="257" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="127" priority="279" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="258" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="126" priority="280" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="259" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="125" priority="281" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="110" priority="250" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="124" priority="272" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="251" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="123" priority="273" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="252" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="122" priority="274" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="253" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="121" priority="275" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="254" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="120" priority="276" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="containsText" dxfId="105" priority="246" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="247" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="248" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="249" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="102" priority="245" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="116" priority="267" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="101" priority="244" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="115" priority="266" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21 E20">
-    <cfRule type="containsText" dxfId="100" priority="239" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+  <conditionalFormatting sqref="E22:F22 E21">
+    <cfRule type="containsText" dxfId="114" priority="261" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="240" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E20)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="262" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="241" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E20)))</formula>
+    <cfRule type="containsText" dxfId="112" priority="263" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="242" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E20)))</formula>
+    <cfRule type="containsText" dxfId="111" priority="264" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="243" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E20)))</formula>
+    <cfRule type="containsText" dxfId="110" priority="265" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="109" priority="256" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="containsText" dxfId="108" priority="255" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="95" priority="234" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="107" priority="250" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="251" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="252" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="253" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="254" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="containsText" dxfId="102" priority="249" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="94" priority="233" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="101" priority="239" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="93" priority="228" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="229" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="230" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="231" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="232" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="88" priority="227" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="87" priority="217" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15:F17">
-    <cfRule type="containsText" dxfId="86" priority="212" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E15:F16 E18:F18">
+    <cfRule type="containsText" dxfId="100" priority="234" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="213" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="99" priority="235" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="214" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="98" priority="236" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="215" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="97" priority="237" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="216" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="96" priority="238" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="81" priority="207" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F15:F16 F18">
+    <cfRule type="containsText" dxfId="95" priority="229" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="80" priority="206" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F15:F16 F18">
+    <cfRule type="containsText" dxfId="94" priority="228" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="79" priority="190" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+  <conditionalFormatting sqref="E19:F19">
+    <cfRule type="containsText" dxfId="93" priority="212" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="191" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E18)))</formula>
+    <cfRule type="containsText" dxfId="92" priority="213" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="192" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E18)))</formula>
+    <cfRule type="containsText" dxfId="91" priority="214" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="193" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E18)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="215" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="194" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E18)))</formula>
+    <cfRule type="containsText" dxfId="89" priority="216" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="74" priority="185" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F18)))</formula>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="88" priority="207" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="73" priority="184" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F18)))</formula>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="87" priority="206" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="72" priority="156" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
+  <conditionalFormatting sqref="E25:F25">
+    <cfRule type="containsText" dxfId="86" priority="178" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="157" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
+    <cfRule type="containsText" dxfId="85" priority="179" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="158" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
+    <cfRule type="containsText" dxfId="84" priority="180" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="159" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
+    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="160" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
+    <cfRule type="containsText" dxfId="82" priority="182" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="67" priority="151" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F24)))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="66" priority="150" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F24)))</formula>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="containsText" dxfId="80" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="62" priority="127" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="128" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="78" priority="150" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="129" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="77" priority="151" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="130" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="76" priority="152" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="131" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="75" priority="153" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="57" priority="122" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="74" priority="144" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="123" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="73" priority="145" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="124" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="146" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="125" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="71" priority="147" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="126" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="70" priority="148" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="52" priority="118" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="119" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="120" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="121" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="49" priority="117" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="66" priority="139" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="48" priority="116" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="65" priority="138" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="containsText" dxfId="64" priority="118" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="120" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="121" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="114" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="116" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="117" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="56" priority="112" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="containsText" dxfId="54" priority="106" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="108" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="109" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E55)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="110" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:F54">
+    <cfRule type="containsText" dxfId="49" priority="101" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="102" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="103" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="104" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E54)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="105" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="47" priority="96" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="44" priority="97" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="97" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="43" priority="98" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="98" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="42" priority="99" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="99" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="100" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="44" priority="91" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="92" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="93" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="94" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F54)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="41" priority="96" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="38" priority="89" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="37" priority="84" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="85" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E54)))</formula>
+    <cfRule type="containsText" dxfId="38" priority="91" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="86" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+    <cfRule type="containsText" dxfId="37" priority="92" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="87" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E54)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="93" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="88" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E54)))</formula>
+    <cfRule type="containsText" dxfId="35" priority="94" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E53:F53">
-    <cfRule type="containsText" dxfId="32" priority="79" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="80" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="81" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="82" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="83" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E53)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="34" priority="80" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="containsText" dxfId="27" priority="75" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="76" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="77" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J53)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="78" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J53)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="33" priority="79" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="24" priority="74" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F53)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="75" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="76" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="23" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F53)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="22" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="69" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="71" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="72" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+  <conditionalFormatting sqref="J21:J25">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="30" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="13" priority="57" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+  <conditionalFormatting sqref="J27:J34">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="26" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="12" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="53" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F31)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="54" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F31)))</formula>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="55" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F31)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="56" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F31)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="7" priority="51" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F31)))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F33">
-    <cfRule type="containsText" dxfId="6" priority="50" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F31)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J24">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="8" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J33">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J26)))</formula>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J18 J48:J51 J35:J39 J3:J6 J41:J46 J53:J55 J20:J24 J26:J33" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J27:J34 J49:J52 J36:J40 J3:J6 J42:J47 J54:J56 J21:J25 J8:J19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E48:E51 E55 E35:E39 E41:E46 E26:E33" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E52 E56 E36:E40 E42:E47 E27:E34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F35:F39 F20:F24 F41:F46 F3:F6 F48:F51 F53:F55 F8:F18 F26:F33" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36:F40 F21:F25 F42:F47 F3:F6 F49:F52 F54:F56 F27:F34 F8:F19" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E18 E3:E6 E53:E54 E20:E24" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E54:E55 E8:E19" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7ECFF2-60B3-4722-B8B5-4FAB294E0262}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="Status">'Product Backlog'!$N$4:$N$6</definedName>
     <definedName name="YesNo">'Product Backlog'!$L$4:$L$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -87,12 +86,6 @@
   </si>
   <si>
     <t>Quản lý công tác</t>
-  </si>
-  <si>
-    <t>Quản lý nghỉ việc</t>
-  </si>
-  <si>
-    <t>Đăng ký nghỉ việc</t>
   </si>
   <si>
     <t>ASIGN TO</t>
@@ -239,12 +232,6 @@
     <t>FR.36</t>
   </si>
   <si>
-    <t>Xem đồ thị kết quả kinh doanh</t>
-  </si>
-  <si>
-    <t>Xem so sánh kết quả kinh doanh</t>
-  </si>
-  <si>
     <t>Đăng ký chuyến đi công tác</t>
   </si>
   <si>
@@ -254,22 +241,10 @@
     <t>Xem lịch sử chuyển đi công tác</t>
   </si>
   <si>
-    <t>Phê duyệt nghỉ việc</t>
-  </si>
-  <si>
-    <t>Tìm kiếm chuyến đi công tác</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn xin nghỉ việc</t>
-  </si>
-  <si>
     <t>Chức năng sinh nhật</t>
   </si>
   <si>
     <t>Chúc mừng sinh nhật</t>
-  </si>
-  <si>
-    <t>Hủy chuyến đi công tác</t>
   </si>
   <si>
     <t>START</t>
@@ -291,9 +266,6 @@
 Web App</t>
   </si>
   <si>
-    <t>Xem lịch sử nghỉ việc</t>
-  </si>
-  <si>
     <t>Xem chính sách công ty</t>
   </si>
   <si>
@@ -307,15 +279,6 @@
   </si>
   <si>
     <t>Xem chi tiết dự án</t>
-  </si>
-  <si>
-    <t>Tải lên kết quả kinh doanh</t>
-  </si>
-  <si>
-    <t>Xem kết quả kinh doanh</t>
-  </si>
-  <si>
-    <t>Lọc kết quả kinh doanh</t>
   </si>
   <si>
     <t xml:space="preserve"> Quản lý tài khoản</t>
@@ -395,9 +358,6 @@
     <t>Xem danh sách chính sách công ty</t>
   </si>
   <si>
-    <t>Chỉnh sửa thông tin cá nhân</t>
-  </si>
-  <si>
     <t>Quên mật khẩu</t>
   </si>
   <si>
@@ -463,12 +423,120 @@
   <si>
     <t>Sửa nhân sự</t>
   </si>
+  <si>
+    <t>Xem đồ thị kết quả kinh doanh mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Xem kết quả kinh doanh mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đồ thị kết quả kinh doanh mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Xem đồ thị kết quả kinh doanh mục "Team"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đồ thị kết quả kinh doanh mục "Phòng"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đồ thị kết quả kinh doanh mục "Team"</t>
+  </si>
+  <si>
+    <t>Xem đồ thị kết quả kinh doanh mục "Phòng"</t>
+  </si>
+  <si>
+    <t>Xem so sánh kết quả kinh doanh mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm so sánh kết quả kinh doanh mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Xem so sánh kết quả kinh doanh mục "Team"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm so sánh kết quả kinh doanh mục "Team"</t>
+  </si>
+  <si>
+    <t>Xem so sánh kết quả kinh doanh mục "Phòng"</t>
+  </si>
+  <si>
+    <t>Tìm kiếm so sánh kết quả kinh doanh mục "Phòng"</t>
+  </si>
+  <si>
+    <t>FR.44</t>
+  </si>
+  <si>
+    <t>Xem kết quả kinh doanh tuần mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Xem chi tiết kết quả kinh doanh tuần mục "Nhân viên"</t>
+  </si>
+  <si>
+    <t>Xem kết quả kinh doanh tuần mục "Team"</t>
+  </si>
+  <si>
+    <t>Xem kết quả kinh doanh tuần mục "Phòng"</t>
+  </si>
+  <si>
+    <t>FR.45</t>
+  </si>
+  <si>
+    <t>FR.46</t>
+  </si>
+  <si>
+    <t>FR.47</t>
+  </si>
+  <si>
+    <t>Xem chuyến đi công tác</t>
+  </si>
+  <si>
+    <t>Từ chối chuyến đi công tác</t>
+  </si>
+  <si>
+    <t>Xem chi tiết đơn công tác</t>
+  </si>
+  <si>
+    <t>Xem mục "duyệt phiếu" chuyến công tác</t>
+  </si>
+  <si>
+    <t>Lựa chọn đơn công tác</t>
+  </si>
+  <si>
+    <t>FR.48</t>
+  </si>
+  <si>
+    <t>FR.49</t>
+  </si>
+  <si>
+    <t>FR.50</t>
+  </si>
+  <si>
+    <t>FR.51</t>
+  </si>
+  <si>
+    <t>FR.52</t>
+  </si>
+  <si>
+    <t>FR.53</t>
+  </si>
+  <si>
+    <t>FR.54</t>
+  </si>
+  <si>
+    <t>FR.55</t>
+  </si>
+  <si>
+    <t>FR.56</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -564,15 +632,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,14 +712,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -999,17 +1054,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1147,9 +1191,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1158,6 +1199,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1204,6 +1248,18 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,23 +1281,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="208">
+  <dxfs count="379">
     <dxf>
       <font>
         <color theme="1"/>
@@ -1289,6 +1333,224 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,10 +1673,758 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1901,34 +2911,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2395,34 +3377,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3298,6 +4252,798 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3607,7 +5353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB1503D-A958-43C1-8365-BED9265E775A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -3624,7 +5370,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -3671,10 +5417,10 @@
       <c r="J3" s="61"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M3" s="62" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="N3" s="63"/>
       <c r="O3" s="36"/>
@@ -3692,10 +5438,10 @@
       <c r="J4" s="61"/>
       <c r="K4" s="34"/>
       <c r="L4" s="37" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="M4" s="62" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="N4" s="63"/>
       <c r="O4" s="36"/>
@@ -3713,10 +5459,10 @@
       <c r="J5" s="61"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="N5" s="63"/>
       <c r="O5" s="36"/>
@@ -3734,10 +5480,10 @@
       <c r="J6" s="61"/>
       <c r="K6" s="34"/>
       <c r="L6" s="37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M6" s="62" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="N6" s="63"/>
       <c r="O6" s="36"/>
@@ -3755,10 +5501,10 @@
       <c r="J7" s="61"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="M7" s="62" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N7" s="63"/>
       <c r="O7" s="36"/>
@@ -3827,7 +5573,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="34"/>
       <c r="L11" s="64" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M11" s="65"/>
       <c r="N11" s="65"/>
@@ -3846,16 +5592,16 @@
       <c r="J12" s="61"/>
       <c r="K12" s="34"/>
       <c r="L12" s="39" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="M12" s="39" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N12" s="39" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="O12" s="39" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3871,16 +5617,16 @@
       <c r="J13" s="61"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="M13" s="41" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="N13" s="42" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4017,16 +5763,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1083"/>
+  <dimension ref="A1:AF1095"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4049,7 +5795,7 @@
     <row r="1" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4097,16 +5843,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>5</v>
@@ -4137,10 +5883,10 @@
     <row r="3" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="74" t="s">
-        <v>124</v>
+        <v>17</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>111</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>6</v>
@@ -4149,7 +5895,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G3" s="22">
         <v>43822</v>
@@ -4158,7 +5904,7 @@
         <v>43823</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>8</v>
@@ -4190,18 +5936,18 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="51" t="s">
-        <v>121</v>
+      <c r="B4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G4" s="22">
         <v>43822</v>
@@ -4210,14 +5956,14 @@
         <v>43823</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>7</v>
@@ -4243,10 +5989,10 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="75"/>
+      <c r="B5" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="69"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4254,7 +6000,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" s="22">
         <v>43824</v>
@@ -4263,14 +6009,14 @@
         <v>43825</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="29" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>10</v>
@@ -4296,18 +6042,18 @@
     </row>
     <row r="6" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="51" t="s">
-        <v>121</v>
+      <c r="B6" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" s="22">
         <v>43825</v>
@@ -4316,14 +6062,14 @@
         <v>43826</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="28" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="M6" s="28" t="s">
         <v>12</v>
@@ -4349,15 +6095,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -4381,19 +6127,19 @@
     <row r="8" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>81</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G8" s="22">
         <v>43829</v>
@@ -4402,7 +6148,7 @@
         <v>43830</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>8</v>
@@ -4427,18 +6173,18 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="75"/>
+      <c r="B9" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="69"/>
       <c r="D9" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G9" s="22">
         <v>43829</v>
@@ -4447,7 +6193,7 @@
         <v>43830</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>8</v>
@@ -4471,18 +6217,18 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="75"/>
+      <c r="B10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="69"/>
       <c r="D10" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G10" s="22">
         <v>43831</v>
@@ -4491,7 +6237,7 @@
         <v>43832</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>8</v>
@@ -4515,18 +6261,18 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="75"/>
+      <c r="B11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="69"/>
       <c r="D11" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G11" s="22">
         <v>43832</v>
@@ -4535,7 +6281,7 @@
         <v>43833</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>8</v>
@@ -4559,18 +6305,18 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="75"/>
+      <c r="B12" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="69"/>
       <c r="D12" s="19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G12" s="22">
         <v>43832</v>
@@ -4579,7 +6325,7 @@
         <v>43833</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>8</v>
@@ -4603,18 +6349,18 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="75"/>
+      <c r="B13" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="69"/>
       <c r="D13" s="19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G13" s="22">
         <v>43836</v>
@@ -4623,7 +6369,7 @@
         <v>43837</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>8</v>
@@ -4647,18 +6393,18 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="75"/>
+      <c r="B14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="69"/>
       <c r="D14" s="19" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G14" s="22">
         <v>43838</v>
@@ -4667,7 +6413,7 @@
         <v>43839</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>8</v>
@@ -4691,18 +6437,18 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="75"/>
+      <c r="B15" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="69"/>
       <c r="D15" s="19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G15" s="22">
         <v>43839</v>
@@ -4711,7 +6457,7 @@
         <v>43840</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>8</v>
@@ -4735,18 +6481,18 @@
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="75"/>
+      <c r="B16" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="69"/>
       <c r="D16" s="19" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G16" s="22">
         <v>43839</v>
@@ -4755,7 +6501,7 @@
         <v>43840</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>8</v>
@@ -4779,18 +6525,18 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="75"/>
+      <c r="B17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="69"/>
       <c r="D17" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G17" s="22">
         <v>43843</v>
@@ -4799,7 +6545,7 @@
         <v>43844</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>8</v>
@@ -4823,18 +6569,18 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" s="75"/>
+      <c r="B18" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="69"/>
       <c r="D18" s="19" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G18" s="22">
         <v>43843</v>
@@ -4843,7 +6589,7 @@
         <v>43844</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>8</v>
@@ -4867,18 +6613,18 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="75"/>
+      <c r="B19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="69"/>
       <c r="D19" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" s="22">
         <v>43848</v>
@@ -4887,7 +6633,7 @@
         <v>43849</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J19" s="23" t="s">
         <v>8</v>
@@ -4911,15 +6657,15 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4945,20 +6691,20 @@
     </row>
     <row r="21" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="74" t="s">
-        <v>92</v>
+      <c r="B21" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>80</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G21" s="22">
         <v>43850</v>
@@ -4967,10 +6713,10 @@
         <v>43851</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="1"/>
@@ -4997,18 +6743,18 @@
     </row>
     <row r="22" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="75"/>
+      <c r="B22" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="69"/>
       <c r="D22" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G22" s="22">
         <v>43826</v>
@@ -5017,10 +6763,10 @@
         <v>43827</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
@@ -5047,18 +6793,18 @@
     </row>
     <row r="23" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="75"/>
+      <c r="B23" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="69"/>
       <c r="D23" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G23" s="22">
         <v>43823</v>
@@ -5067,10 +6813,10 @@
         <v>43825</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
@@ -5097,18 +6843,18 @@
     </row>
     <row r="24" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="75"/>
+      <c r="B24" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="69"/>
       <c r="D24" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G24" s="22">
         <v>43826</v>
@@ -5117,10 +6863,10 @@
         <v>43827</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="1"/>
@@ -5147,18 +6893,18 @@
     </row>
     <row r="25" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="76"/>
+      <c r="B25" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="70"/>
       <c r="D25" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G25" s="22">
         <v>43826</v>
@@ -5167,10 +6913,10 @@
         <v>43827</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
@@ -5197,15 +6943,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5231,20 +6977,20 @@
     </row>
     <row r="27" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>56</v>
+      <c r="B27" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="E27" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G27" s="22">
         <v>43892</v>
@@ -5253,10 +6999,10 @@
         <v>43896</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
@@ -5283,18 +7029,18 @@
     </row>
     <row r="28" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="75"/>
+      <c r="B28" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="69"/>
       <c r="D28" s="19" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G28" s="22">
         <v>43899</v>
@@ -5303,10 +7049,10 @@
         <v>43903</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
@@ -5333,18 +7079,18 @@
     </row>
     <row r="29" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="75"/>
+      <c r="B29" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="69"/>
       <c r="D29" s="19" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="E29" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G29" s="22">
         <v>43906</v>
@@ -5353,10 +7099,10 @@
         <v>43910</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="1"/>
@@ -5383,18 +7129,18 @@
     </row>
     <row r="30" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="75"/>
+      <c r="B30" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="69"/>
       <c r="D30" s="19" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G30" s="22">
         <v>43913</v>
@@ -5403,10 +7149,10 @@
         <v>43921</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -5433,18 +7179,18 @@
     </row>
     <row r="31" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="75"/>
+      <c r="B31" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="69"/>
       <c r="D31" s="19" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G31" s="22">
         <v>43913</v>
@@ -5453,10 +7199,10 @@
         <v>43921</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5483,18 +7229,18 @@
     </row>
     <row r="32" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="75"/>
+      <c r="B32" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="69"/>
       <c r="D32" s="19" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="E32" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G32" s="22">
         <v>43900</v>
@@ -5503,10 +7249,10 @@
         <v>43907</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5533,18 +7279,18 @@
     </row>
     <row r="33" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="75"/>
+      <c r="B33" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="69"/>
       <c r="D33" s="19" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G33" s="22">
         <v>43908</v>
@@ -5553,10 +7299,10 @@
         <v>43915</v>
       </c>
       <c r="I33" s="23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J33" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -5583,18 +7329,18 @@
     </row>
     <row r="34" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="76"/>
+      <c r="B34" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="70"/>
       <c r="D34" s="19" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G34" s="22">
         <v>43916</v>
@@ -5603,10 +7349,10 @@
         <v>43922</v>
       </c>
       <c r="I34" s="23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="J34" s="23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -5633,15 +7379,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -5667,20 +7413,20 @@
     </row>
     <row r="36" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="73" t="s">
+      <c r="B36" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G36" s="22">
         <v>43839</v>
@@ -5695,7 +7441,7 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="48"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
@@ -5713,22 +7459,21 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
     </row>
     <row r="37" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="19" t="s">
-        <v>89</v>
+      <c r="B37" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="E37" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G37" s="22">
         <v>43839</v>
@@ -5761,22 +7506,21 @@
       <c r="AC37" s="3"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
     </row>
     <row r="38" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="73"/>
+      <c r="B38" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="77"/>
       <c r="D38" s="26" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G38" s="22">
         <v>43839</v>
@@ -5809,22 +7553,21 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
     </row>
     <row r="39" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="73"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="77"/>
       <c r="D39" s="26" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G39" s="22">
         <v>43839</v>
@@ -5857,29 +7600,24 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
     </row>
     <row r="40" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="73"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="77"/>
       <c r="D40" s="26" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E40" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="22">
-        <v>43839</v>
-      </c>
-      <c r="H40" s="22">
-        <v>43841</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23" t="s">
         <v>13</v>
@@ -5908,16 +7646,26 @@
       <c r="AF40" s="3"/>
     </row>
     <row r="41" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -5942,28 +7690,22 @@
       <c r="AF41" s="3"/>
     </row>
     <row r="42" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="74" t="s">
-        <v>15</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="77"/>
       <c r="D42" s="26" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="E42" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H42" s="22">
-        <v>43872</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23" t="s">
         <v>13</v>
@@ -5992,26 +7734,22 @@
       <c r="AF42" s="3"/>
     </row>
     <row r="43" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="75"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="77"/>
       <c r="D43" s="26" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="E43" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G43" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H43" s="22">
-        <v>43872</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="s">
         <v>13</v>
@@ -6040,26 +7778,22 @@
       <c r="AF43" s="3"/>
     </row>
     <row r="44" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="75"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="77"/>
       <c r="D44" s="26" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E44" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H44" s="22">
-        <v>43872</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23" t="s">
         <v>13</v>
@@ -6089,25 +7823,21 @@
     </row>
     <row r="45" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="75"/>
+      <c r="B45" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="77"/>
       <c r="D45" s="26" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E45" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H45" s="22">
-        <v>43872</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
       <c r="I45" s="23"/>
       <c r="J45" s="23" t="s">
         <v>13</v>
@@ -6136,26 +7866,22 @@
       <c r="AF45" s="3"/>
     </row>
     <row r="46" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="75"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="77"/>
       <c r="D46" s="26" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="E46" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="22">
-        <v>43871</v>
-      </c>
-      <c r="H46" s="22">
-        <v>43872</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23" t="s">
         <v>13</v>
@@ -6185,25 +7911,21 @@
     </row>
     <row r="47" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="76"/>
+      <c r="B47" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="77"/>
       <c r="D47" s="26" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G47" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H47" s="22">
-        <v>43876</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
       <c r="I47" s="23"/>
       <c r="J47" s="23" t="s">
         <v>13</v>
@@ -6217,18 +7939,41 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3"/>
+      <c r="AE47" s="3"/>
+      <c r="AF47" s="3"/>
     </row>
     <row r="48" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="72"/>
+      <c r="B48" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -6238,30 +7983,37 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-    </row>
-    <row r="49" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+    </row>
+    <row r="49" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="73" t="s">
-        <v>16</v>
-      </c>
+      <c r="B49" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="77"/>
       <c r="D49" s="26" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H49" s="22">
-        <v>43876</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23" t="s">
         <v>13</v>
@@ -6275,28 +8027,37 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
-    </row>
-    <row r="50" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3"/>
+      <c r="AF49" s="3"/>
+    </row>
+    <row r="50" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="73"/>
+      <c r="B50" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="77"/>
       <c r="D50" s="26" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G50" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H50" s="22">
-        <v>43876</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23" t="s">
         <v>13</v>
@@ -6310,60 +8071,81 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
-    </row>
-    <row r="51" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+      <c r="AF50" s="3"/>
+    </row>
+    <row r="51" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="73"/>
+      <c r="B51" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="77"/>
       <c r="D51" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G51" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H51" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23" t="s">
         <v>13</v>
       </c>
       <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
-    </row>
-    <row r="52" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+      <c r="AF51" s="3"/>
+    </row>
+    <row r="52" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
-      <c r="B52" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="73"/>
+      <c r="B52" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="77"/>
       <c r="D52" s="26" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G52" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H52" s="22">
-        <v>43876</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23" t="s">
         <v>13</v>
@@ -6377,71 +8159,127 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-    </row>
-    <row r="53" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+      <c r="AF52" s="3"/>
+    </row>
+    <row r="53" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
+      <c r="B53" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H53" s="22">
+        <v>43841</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-    </row>
-    <row r="54" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>114</v>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3"/>
+      <c r="AE53" s="3"/>
+      <c r="AF53" s="3"/>
+    </row>
+    <row r="54" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="26" t="s">
+        <v>140</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
+        <v>72</v>
+      </c>
+      <c r="G54" s="22">
+        <v>43839</v>
+      </c>
+      <c r="H54" s="22">
+        <v>43841</v>
+      </c>
       <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
+      <c r="J54" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="68"/>
-      <c r="D55" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+      <c r="AF54" s="3"/>
+    </row>
+    <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="73"/>
+      <c r="J55" s="73"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -6451,29 +8289,42 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="27" t="s">
-        <v>74</v>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="68" t="s">
+        <v>15</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="21" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G56" s="22">
-        <v>43874</v>
+        <v>43871</v>
       </c>
       <c r="H56" s="22">
-        <v>43876</v>
+        <v>43872</v>
       </c>
       <c r="I56" s="23"/>
       <c r="J56" s="23" t="s">
@@ -6488,19 +8339,45 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+      <c r="B57" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
@@ -6516,19 +8393,35 @@
       <c r="AA57" s="3"/>
       <c r="AB57" s="3"/>
       <c r="AC57" s="3"/>
-    </row>
-    <row r="58" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="AD57" s="3"/>
+      <c r="AE57" s="3"/>
+      <c r="AF57" s="3"/>
+    </row>
+    <row r="58" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
@@ -6544,18 +8437,31 @@
       <c r="AA58" s="3"/>
       <c r="AB58" s="3"/>
       <c r="AC58" s="3"/>
-    </row>
-    <row r="59" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="AD58" s="3"/>
+      <c r="AE58" s="3"/>
+      <c r="AF58" s="3"/>
+    </row>
+    <row r="59" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="69"/>
+      <c r="D59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -6565,18 +8471,41 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-    </row>
-    <row r="60" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+    </row>
+    <row r="60" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="69"/>
+      <c r="D60" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6586,18 +8515,41 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-    </row>
-    <row r="61" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+      <c r="AC60" s="3"/>
+      <c r="AD60" s="3"/>
+      <c r="AE60" s="3"/>
+      <c r="AF60" s="3"/>
+    </row>
+    <row r="61" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+      <c r="B61" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="69"/>
+      <c r="D61" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -6607,39 +8559,89 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-    </row>
-    <row r="62" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+      <c r="AA61" s="3"/>
+      <c r="AB61" s="3"/>
+      <c r="AC61" s="3"/>
+      <c r="AD61" s="3"/>
+      <c r="AE61" s="3"/>
+      <c r="AF61" s="3"/>
+    </row>
+    <row r="62" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+      <c r="B62" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="69"/>
+      <c r="D62" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K62" s="3"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-    </row>
-    <row r="63" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
+      <c r="AF62" s="3"/>
+    </row>
+    <row r="63" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+      <c r="B63" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H63" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -6649,81 +8651,133 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-    </row>
-    <row r="64" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
+      <c r="AE63" s="3"/>
+      <c r="AF63" s="3"/>
+    </row>
+    <row r="64" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="69"/>
+      <c r="D64" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="22">
+        <v>43871</v>
+      </c>
+      <c r="H64" s="22">
+        <v>43872</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="1"/>
+      <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+      <c r="AC64" s="3"/>
+      <c r="AD64" s="3"/>
+      <c r="AE64" s="3"/>
+      <c r="AF64" s="3"/>
+    </row>
+    <row r="65" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="1"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="75"/>
+      <c r="I65" s="75"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+    </row>
+    <row r="66" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="B67" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" s="72"/>
+      <c r="D67" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -6734,38 +8788,72 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
     </row>
-    <row r="68" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
+      <c r="B68" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H68" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
       <c r="S68" s="3"/>
     </row>
-    <row r="69" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="3"/>
+      <c r="B69" s="1"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="1"/>
-    </row>
-    <row r="70" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="3"/>
+      <c r="AC69" s="3"/>
+    </row>
+    <row r="70" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6777,8 +8865,23 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+    </row>
+    <row r="71" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6790,8 +8893,16 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+    </row>
+    <row r="72" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6803,11 +8914,16 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+    </row>
+    <row r="73" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6827,13 +8943,8 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6845,21 +8956,16 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6879,13 +8985,8 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6900,18 +9001,13 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
+      <c r="O76" s="1"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6922,22 +9018,17 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="1"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -6949,21 +9040,16 @@
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
       <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -6983,13 +9069,8 @@
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
       <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -7002,18 +9083,10 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
       <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
     </row>
     <row r="81" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -7026,20 +9099,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="3"/>
-      <c r="T81" s="3"/>
-      <c r="U81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-      <c r="X81" s="3"/>
+      <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
@@ -7053,19 +9113,6 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="3"/>
-      <c r="T82" s="3"/>
-      <c r="U82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-      <c r="X82" s="3"/>
     </row>
     <row r="83" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -7079,19 +9126,6 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
       <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="3"/>
-      <c r="T83" s="3"/>
-      <c r="U83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-      <c r="X83" s="3"/>
     </row>
     <row r="84" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
@@ -7105,19 +9139,9 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
     </row>
     <row r="85" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
@@ -7356,7 +9380,7 @@
     <row r="94" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="1"/>
+      <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -7382,10 +9406,10 @@
     <row r="95" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -7408,10 +9432,10 @@
     <row r="96" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -7434,10 +9458,10 @@
     <row r="97" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -7460,10 +9484,10 @@
     <row r="98" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -7485,15 +9509,15 @@
     </row>
     <row r="99" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -7511,15 +9535,15 @@
     </row>
     <row r="100" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -7537,15 +9561,15 @@
     </row>
     <row r="101" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -7563,15 +9587,15 @@
     </row>
     <row r="102" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -7589,15 +9613,15 @@
     </row>
     <row r="103" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -7615,15 +9639,15 @@
     </row>
     <row r="104" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -7641,15 +9665,15 @@
     </row>
     <row r="105" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -7667,15 +9691,15 @@
     </row>
     <row r="106" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
+      <c r="B106" s="3"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -7693,15 +9717,15 @@
     </row>
     <row r="107" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
+      <c r="B107" s="3"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -7719,15 +9743,15 @@
     </row>
     <row r="108" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
+      <c r="B108" s="3"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -7745,15 +9769,15 @@
     </row>
     <row r="109" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
+      <c r="B109" s="3"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -7771,20 +9795,20 @@
     </row>
     <row r="110" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3"/>
@@ -7806,20 +9830,20 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="1"/>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
     </row>
     <row r="112" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
@@ -7832,20 +9856,20 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
     </row>
     <row r="113" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
@@ -7858,20 +9882,20 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
-      <c r="T113" s="1"/>
-      <c r="U113" s="1"/>
-      <c r="V113" s="1"/>
-      <c r="W113" s="1"/>
-      <c r="X113" s="1"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
     </row>
     <row r="114" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
@@ -7884,20 +9908,20 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
-      <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
-      <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
     </row>
     <row r="115" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
@@ -7910,20 +9934,20 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
     </row>
     <row r="116" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
@@ -7936,20 +9960,20 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
     </row>
     <row r="117" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
@@ -7962,20 +9986,20 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
-      <c r="K117" s="1"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1"/>
-      <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
-      <c r="S117" s="1"/>
-      <c r="T117" s="1"/>
-      <c r="U117" s="1"/>
-      <c r="V117" s="1"/>
-      <c r="W117" s="1"/>
-      <c r="X117" s="1"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
     </row>
     <row r="118" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
@@ -7988,20 +10012,20 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="X118" s="1"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
     </row>
     <row r="119" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
@@ -8014,20 +10038,20 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
     </row>
     <row r="120" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
@@ -8040,20 +10064,20 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
     </row>
     <row r="121" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
@@ -8066,20 +10090,20 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
     </row>
     <row r="122" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
@@ -8092,20 +10116,20 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
     </row>
     <row r="123" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
@@ -8163,13 +10187,13 @@
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="3"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -8189,13 +10213,13 @@
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="3"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
@@ -8215,13 +10239,13 @@
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="3"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
@@ -8241,13 +10265,13 @@
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="3"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -8263,17 +10287,17 @@
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
     </row>
-    <row r="129" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="3"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -8289,17 +10313,17 @@
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
     </row>
-    <row r="130" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="3"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -8315,17 +10339,17 @@
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
     </row>
-    <row r="131" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="3"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -8341,17 +10365,17 @@
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
     </row>
-    <row r="132" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="3"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
@@ -8367,17 +10391,17 @@
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
     </row>
-    <row r="133" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="3"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
@@ -8393,17 +10417,17 @@
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
     </row>
-    <row r="134" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="3"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -8419,17 +10443,17 @@
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
     </row>
-    <row r="135" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="3"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -8445,17 +10469,17 @@
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
     </row>
-    <row r="136" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="3"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -8471,7 +10495,7 @@
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
     </row>
-    <row r="137" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8496,16 +10520,8 @@
       <c r="V137" s="1"/>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-      <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
-    </row>
-    <row r="138" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8530,16 +10546,8 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="1"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="1"/>
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="1"/>
-      <c r="AF138" s="1"/>
-    </row>
-    <row r="139" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8564,16 +10572,8 @@
       <c r="V139" s="1"/>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="1"/>
-      <c r="Z139" s="1"/>
-      <c r="AA139" s="1"/>
-      <c r="AB139" s="1"/>
-      <c r="AC139" s="1"/>
-      <c r="AD139" s="1"/>
-      <c r="AE139" s="1"/>
-      <c r="AF139" s="1"/>
-    </row>
-    <row r="140" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8598,16 +10598,8 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
-      <c r="AB140" s="1"/>
-      <c r="AC140" s="1"/>
-      <c r="AD140" s="1"/>
-      <c r="AE140" s="1"/>
-      <c r="AF140" s="1"/>
-    </row>
-    <row r="141" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8632,16 +10624,8 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="1"/>
-      <c r="Z141" s="1"/>
-      <c r="AA141" s="1"/>
-      <c r="AB141" s="1"/>
-      <c r="AC141" s="1"/>
-      <c r="AD141" s="1"/>
-      <c r="AE141" s="1"/>
-      <c r="AF141" s="1"/>
-    </row>
-    <row r="142" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8666,16 +10650,8 @@
       <c r="V142" s="1"/>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AC142" s="1"/>
-      <c r="AD142" s="1"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="1"/>
-    </row>
-    <row r="143" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8700,16 +10676,8 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="1"/>
-    </row>
-    <row r="144" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8734,14 +10702,6 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
-      <c r="AB144" s="1"/>
-      <c r="AC144" s="1"/>
-      <c r="AD144" s="1"/>
-      <c r="AE144" s="1"/>
-      <c r="AF144" s="1"/>
     </row>
     <row r="145" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
@@ -8768,14 +10728,6 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
-      <c r="AB145" s="1"/>
-      <c r="AC145" s="1"/>
-      <c r="AD145" s="1"/>
-      <c r="AE145" s="1"/>
-      <c r="AF145" s="1"/>
     </row>
     <row r="146" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
@@ -8802,14 +10754,6 @@
       <c r="V146" s="1"/>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
-      <c r="AC146" s="1"/>
-      <c r="AD146" s="1"/>
-      <c r="AE146" s="1"/>
-      <c r="AF146" s="1"/>
     </row>
     <row r="147" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
@@ -8836,14 +10780,6 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
-      <c r="AE147" s="1"/>
-      <c r="AF147" s="1"/>
     </row>
     <row r="148" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
@@ -8870,14 +10806,6 @@
       <c r="V148" s="1"/>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-      <c r="AA148" s="1"/>
-      <c r="AB148" s="1"/>
-      <c r="AC148" s="1"/>
-      <c r="AD148" s="1"/>
-      <c r="AE148" s="1"/>
-      <c r="AF148" s="1"/>
     </row>
     <row r="149" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
@@ -9053,13 +10981,13 @@
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="1"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="3"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -9087,13 +11015,13 @@
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="1"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="3"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -9121,13 +11049,13 @@
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="1"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="3"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -9155,13 +11083,13 @@
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="1"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="3"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
@@ -9189,13 +11117,13 @@
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="1"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="3"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
@@ -9223,13 +11151,13 @@
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="1"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="3"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
@@ -9257,13 +11185,13 @@
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="1"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="3"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
@@ -9291,13 +11219,13 @@
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="1"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="3"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -9325,13 +11253,13 @@
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="1"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="3"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -9359,13 +11287,13 @@
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-      <c r="J163" s="1"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="3"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -9393,13 +11321,13 @@
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="J164" s="1"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="3"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -9427,13 +11355,13 @@
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
-      <c r="H165" s="12"/>
-      <c r="I165" s="12"/>
-      <c r="J165" s="1"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="3"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -38971,6 +40899,7 @@
     </row>
     <row r="1034" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
       <c r="D1034" s="1"/>
       <c r="E1034" s="12"/>
@@ -39004,6 +40933,7 @@
     </row>
     <row r="1035" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
       <c r="D1035" s="1"/>
       <c r="E1035" s="12"/>
@@ -39037,6 +40967,8 @@
     </row>
     <row r="1036" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
       <c r="D1036" s="1"/>
       <c r="E1036" s="12"/>
       <c r="F1036" s="12"/>
@@ -39069,6 +41001,8 @@
     </row>
     <row r="1037" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1037" s="1"/>
+      <c r="B1037" s="1"/>
+      <c r="C1037" s="1"/>
       <c r="D1037" s="1"/>
       <c r="E1037" s="12"/>
       <c r="F1037" s="12"/>
@@ -39101,6 +41035,8 @@
     </row>
     <row r="1038" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1038" s="1"/>
+      <c r="B1038" s="1"/>
+      <c r="C1038" s="1"/>
       <c r="D1038" s="1"/>
       <c r="E1038" s="12"/>
       <c r="F1038" s="12"/>
@@ -39109,6 +41045,9 @@
       <c r="I1038" s="12"/>
       <c r="J1038" s="1"/>
       <c r="K1038" s="1"/>
+      <c r="L1038" s="1"/>
+      <c r="M1038" s="1"/>
+      <c r="N1038" s="1"/>
       <c r="O1038" s="1"/>
       <c r="P1038" s="1"/>
       <c r="Q1038" s="1"/>
@@ -39130,6 +41069,8 @@
     </row>
     <row r="1039" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1039" s="1"/>
+      <c r="B1039" s="1"/>
+      <c r="C1039" s="1"/>
       <c r="D1039" s="1"/>
       <c r="E1039" s="12"/>
       <c r="F1039" s="12"/>
@@ -39138,6 +41079,9 @@
       <c r="I1039" s="12"/>
       <c r="J1039" s="1"/>
       <c r="K1039" s="1"/>
+      <c r="L1039" s="1"/>
+      <c r="M1039" s="1"/>
+      <c r="N1039" s="1"/>
       <c r="O1039" s="1"/>
       <c r="P1039" s="1"/>
       <c r="Q1039" s="1"/>
@@ -39159,6 +41103,8 @@
     </row>
     <row r="1040" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1040" s="1"/>
+      <c r="B1040" s="1"/>
+      <c r="C1040" s="1"/>
       <c r="D1040" s="1"/>
       <c r="E1040" s="12"/>
       <c r="F1040" s="12"/>
@@ -39167,6 +41113,10 @@
       <c r="I1040" s="12"/>
       <c r="J1040" s="1"/>
       <c r="K1040" s="1"/>
+      <c r="L1040" s="1"/>
+      <c r="M1040" s="1"/>
+      <c r="N1040" s="1"/>
+      <c r="O1040" s="1"/>
       <c r="P1040" s="1"/>
       <c r="Q1040" s="1"/>
       <c r="R1040" s="1"/>
@@ -39185,7 +41135,10 @@
       <c r="AE1040" s="1"/>
       <c r="AF1040" s="1"/>
     </row>
-    <row r="1041" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1"/>
+      <c r="B1041" s="1"/>
+      <c r="C1041" s="1"/>
       <c r="D1041" s="1"/>
       <c r="E1041" s="12"/>
       <c r="F1041" s="12"/>
@@ -39193,8 +41146,33 @@
       <c r="H1041" s="12"/>
       <c r="I1041" s="12"/>
       <c r="J1041" s="1"/>
-    </row>
-    <row r="1042" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1041" s="1"/>
+      <c r="L1041" s="1"/>
+      <c r="M1041" s="1"/>
+      <c r="N1041" s="1"/>
+      <c r="O1041" s="1"/>
+      <c r="P1041" s="1"/>
+      <c r="Q1041" s="1"/>
+      <c r="R1041" s="1"/>
+      <c r="S1041" s="1"/>
+      <c r="T1041" s="1"/>
+      <c r="U1041" s="1"/>
+      <c r="V1041" s="1"/>
+      <c r="W1041" s="1"/>
+      <c r="X1041" s="1"/>
+      <c r="Y1041" s="1"/>
+      <c r="Z1041" s="1"/>
+      <c r="AA1041" s="1"/>
+      <c r="AB1041" s="1"/>
+      <c r="AC1041" s="1"/>
+      <c r="AD1041" s="1"/>
+      <c r="AE1041" s="1"/>
+      <c r="AF1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1"/>
+      <c r="B1042" s="1"/>
+      <c r="C1042" s="1"/>
       <c r="D1042" s="1"/>
       <c r="E1042" s="12"/>
       <c r="F1042" s="12"/>
@@ -39202,8 +41180,33 @@
       <c r="H1042" s="12"/>
       <c r="I1042" s="12"/>
       <c r="J1042" s="1"/>
-    </row>
-    <row r="1043" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1042" s="1"/>
+      <c r="L1042" s="1"/>
+      <c r="M1042" s="1"/>
+      <c r="N1042" s="1"/>
+      <c r="O1042" s="1"/>
+      <c r="P1042" s="1"/>
+      <c r="Q1042" s="1"/>
+      <c r="R1042" s="1"/>
+      <c r="S1042" s="1"/>
+      <c r="T1042" s="1"/>
+      <c r="U1042" s="1"/>
+      <c r="V1042" s="1"/>
+      <c r="W1042" s="1"/>
+      <c r="X1042" s="1"/>
+      <c r="Y1042" s="1"/>
+      <c r="Z1042" s="1"/>
+      <c r="AA1042" s="1"/>
+      <c r="AB1042" s="1"/>
+      <c r="AC1042" s="1"/>
+      <c r="AD1042" s="1"/>
+      <c r="AE1042" s="1"/>
+      <c r="AF1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1"/>
+      <c r="B1043" s="1"/>
+      <c r="C1043" s="1"/>
       <c r="D1043" s="1"/>
       <c r="E1043" s="12"/>
       <c r="F1043" s="12"/>
@@ -39211,8 +41214,33 @@
       <c r="H1043" s="12"/>
       <c r="I1043" s="12"/>
       <c r="J1043" s="1"/>
-    </row>
-    <row r="1044" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1043" s="1"/>
+      <c r="L1043" s="1"/>
+      <c r="M1043" s="1"/>
+      <c r="N1043" s="1"/>
+      <c r="O1043" s="1"/>
+      <c r="P1043" s="1"/>
+      <c r="Q1043" s="1"/>
+      <c r="R1043" s="1"/>
+      <c r="S1043" s="1"/>
+      <c r="T1043" s="1"/>
+      <c r="U1043" s="1"/>
+      <c r="V1043" s="1"/>
+      <c r="W1043" s="1"/>
+      <c r="X1043" s="1"/>
+      <c r="Y1043" s="1"/>
+      <c r="Z1043" s="1"/>
+      <c r="AA1043" s="1"/>
+      <c r="AB1043" s="1"/>
+      <c r="AC1043" s="1"/>
+      <c r="AD1043" s="1"/>
+      <c r="AE1043" s="1"/>
+      <c r="AF1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1"/>
+      <c r="B1044" s="1"/>
+      <c r="C1044" s="1"/>
       <c r="D1044" s="1"/>
       <c r="E1044" s="12"/>
       <c r="F1044" s="12"/>
@@ -39220,8 +41248,33 @@
       <c r="H1044" s="12"/>
       <c r="I1044" s="12"/>
       <c r="J1044" s="1"/>
-    </row>
-    <row r="1045" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1044" s="1"/>
+      <c r="L1044" s="1"/>
+      <c r="M1044" s="1"/>
+      <c r="N1044" s="1"/>
+      <c r="O1044" s="1"/>
+      <c r="P1044" s="1"/>
+      <c r="Q1044" s="1"/>
+      <c r="R1044" s="1"/>
+      <c r="S1044" s="1"/>
+      <c r="T1044" s="1"/>
+      <c r="U1044" s="1"/>
+      <c r="V1044" s="1"/>
+      <c r="W1044" s="1"/>
+      <c r="X1044" s="1"/>
+      <c r="Y1044" s="1"/>
+      <c r="Z1044" s="1"/>
+      <c r="AA1044" s="1"/>
+      <c r="AB1044" s="1"/>
+      <c r="AC1044" s="1"/>
+      <c r="AD1044" s="1"/>
+      <c r="AE1044" s="1"/>
+      <c r="AF1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1"/>
+      <c r="B1045" s="1"/>
+      <c r="C1045" s="1"/>
       <c r="D1045" s="1"/>
       <c r="E1045" s="12"/>
       <c r="F1045" s="12"/>
@@ -39229,8 +41282,32 @@
       <c r="H1045" s="12"/>
       <c r="I1045" s="12"/>
       <c r="J1045" s="1"/>
-    </row>
-    <row r="1046" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1045" s="1"/>
+      <c r="L1045" s="1"/>
+      <c r="M1045" s="1"/>
+      <c r="N1045" s="1"/>
+      <c r="O1045" s="1"/>
+      <c r="P1045" s="1"/>
+      <c r="Q1045" s="1"/>
+      <c r="R1045" s="1"/>
+      <c r="S1045" s="1"/>
+      <c r="T1045" s="1"/>
+      <c r="U1045" s="1"/>
+      <c r="V1045" s="1"/>
+      <c r="W1045" s="1"/>
+      <c r="X1045" s="1"/>
+      <c r="Y1045" s="1"/>
+      <c r="Z1045" s="1"/>
+      <c r="AA1045" s="1"/>
+      <c r="AB1045" s="1"/>
+      <c r="AC1045" s="1"/>
+      <c r="AD1045" s="1"/>
+      <c r="AE1045" s="1"/>
+      <c r="AF1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1"/>
+      <c r="C1046" s="1"/>
       <c r="D1046" s="1"/>
       <c r="E1046" s="12"/>
       <c r="F1046" s="12"/>
@@ -39238,8 +41315,32 @@
       <c r="H1046" s="12"/>
       <c r="I1046" s="12"/>
       <c r="J1046" s="1"/>
-    </row>
-    <row r="1047" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1046" s="1"/>
+      <c r="L1046" s="1"/>
+      <c r="M1046" s="1"/>
+      <c r="N1046" s="1"/>
+      <c r="O1046" s="1"/>
+      <c r="P1046" s="1"/>
+      <c r="Q1046" s="1"/>
+      <c r="R1046" s="1"/>
+      <c r="S1046" s="1"/>
+      <c r="T1046" s="1"/>
+      <c r="U1046" s="1"/>
+      <c r="V1046" s="1"/>
+      <c r="W1046" s="1"/>
+      <c r="X1046" s="1"/>
+      <c r="Y1046" s="1"/>
+      <c r="Z1046" s="1"/>
+      <c r="AA1046" s="1"/>
+      <c r="AB1046" s="1"/>
+      <c r="AC1046" s="1"/>
+      <c r="AD1046" s="1"/>
+      <c r="AE1046" s="1"/>
+      <c r="AF1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1"/>
+      <c r="C1047" s="1"/>
       <c r="D1047" s="1"/>
       <c r="E1047" s="12"/>
       <c r="F1047" s="12"/>
@@ -39247,8 +41348,31 @@
       <c r="H1047" s="12"/>
       <c r="I1047" s="12"/>
       <c r="J1047" s="1"/>
-    </row>
-    <row r="1048" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1047" s="1"/>
+      <c r="L1047" s="1"/>
+      <c r="M1047" s="1"/>
+      <c r="N1047" s="1"/>
+      <c r="O1047" s="1"/>
+      <c r="P1047" s="1"/>
+      <c r="Q1047" s="1"/>
+      <c r="R1047" s="1"/>
+      <c r="S1047" s="1"/>
+      <c r="T1047" s="1"/>
+      <c r="U1047" s="1"/>
+      <c r="V1047" s="1"/>
+      <c r="W1047" s="1"/>
+      <c r="X1047" s="1"/>
+      <c r="Y1047" s="1"/>
+      <c r="Z1047" s="1"/>
+      <c r="AA1047" s="1"/>
+      <c r="AB1047" s="1"/>
+      <c r="AC1047" s="1"/>
+      <c r="AD1047" s="1"/>
+      <c r="AE1047" s="1"/>
+      <c r="AF1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1"/>
       <c r="D1048" s="1"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -39256,8 +41380,31 @@
       <c r="H1048" s="12"/>
       <c r="I1048" s="12"/>
       <c r="J1048" s="1"/>
-    </row>
-    <row r="1049" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1048" s="1"/>
+      <c r="L1048" s="1"/>
+      <c r="M1048" s="1"/>
+      <c r="N1048" s="1"/>
+      <c r="O1048" s="1"/>
+      <c r="P1048" s="1"/>
+      <c r="Q1048" s="1"/>
+      <c r="R1048" s="1"/>
+      <c r="S1048" s="1"/>
+      <c r="T1048" s="1"/>
+      <c r="U1048" s="1"/>
+      <c r="V1048" s="1"/>
+      <c r="W1048" s="1"/>
+      <c r="X1048" s="1"/>
+      <c r="Y1048" s="1"/>
+      <c r="Z1048" s="1"/>
+      <c r="AA1048" s="1"/>
+      <c r="AB1048" s="1"/>
+      <c r="AC1048" s="1"/>
+      <c r="AD1048" s="1"/>
+      <c r="AE1048" s="1"/>
+      <c r="AF1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1"/>
       <c r="D1049" s="1"/>
       <c r="E1049" s="12"/>
       <c r="F1049" s="12"/>
@@ -39265,8 +41412,31 @@
       <c r="H1049" s="12"/>
       <c r="I1049" s="12"/>
       <c r="J1049" s="1"/>
-    </row>
-    <row r="1050" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1049" s="1"/>
+      <c r="L1049" s="1"/>
+      <c r="M1049" s="1"/>
+      <c r="N1049" s="1"/>
+      <c r="O1049" s="1"/>
+      <c r="P1049" s="1"/>
+      <c r="Q1049" s="1"/>
+      <c r="R1049" s="1"/>
+      <c r="S1049" s="1"/>
+      <c r="T1049" s="1"/>
+      <c r="U1049" s="1"/>
+      <c r="V1049" s="1"/>
+      <c r="W1049" s="1"/>
+      <c r="X1049" s="1"/>
+      <c r="Y1049" s="1"/>
+      <c r="Z1049" s="1"/>
+      <c r="AA1049" s="1"/>
+      <c r="AB1049" s="1"/>
+      <c r="AC1049" s="1"/>
+      <c r="AD1049" s="1"/>
+      <c r="AE1049" s="1"/>
+      <c r="AF1049" s="1"/>
+    </row>
+    <row r="1050" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1"/>
       <c r="D1050" s="1"/>
       <c r="E1050" s="12"/>
       <c r="F1050" s="12"/>
@@ -39274,8 +41444,28 @@
       <c r="H1050" s="12"/>
       <c r="I1050" s="12"/>
       <c r="J1050" s="1"/>
-    </row>
-    <row r="1051" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1050" s="1"/>
+      <c r="O1050" s="1"/>
+      <c r="P1050" s="1"/>
+      <c r="Q1050" s="1"/>
+      <c r="R1050" s="1"/>
+      <c r="S1050" s="1"/>
+      <c r="T1050" s="1"/>
+      <c r="U1050" s="1"/>
+      <c r="V1050" s="1"/>
+      <c r="W1050" s="1"/>
+      <c r="X1050" s="1"/>
+      <c r="Y1050" s="1"/>
+      <c r="Z1050" s="1"/>
+      <c r="AA1050" s="1"/>
+      <c r="AB1050" s="1"/>
+      <c r="AC1050" s="1"/>
+      <c r="AD1050" s="1"/>
+      <c r="AE1050" s="1"/>
+      <c r="AF1050" s="1"/>
+    </row>
+    <row r="1051" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1"/>
       <c r="D1051" s="1"/>
       <c r="E1051" s="12"/>
       <c r="F1051" s="12"/>
@@ -39283,8 +41473,28 @@
       <c r="H1051" s="12"/>
       <c r="I1051" s="12"/>
       <c r="J1051" s="1"/>
-    </row>
-    <row r="1052" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1051" s="1"/>
+      <c r="O1051" s="1"/>
+      <c r="P1051" s="1"/>
+      <c r="Q1051" s="1"/>
+      <c r="R1051" s="1"/>
+      <c r="S1051" s="1"/>
+      <c r="T1051" s="1"/>
+      <c r="U1051" s="1"/>
+      <c r="V1051" s="1"/>
+      <c r="W1051" s="1"/>
+      <c r="X1051" s="1"/>
+      <c r="Y1051" s="1"/>
+      <c r="Z1051" s="1"/>
+      <c r="AA1051" s="1"/>
+      <c r="AB1051" s="1"/>
+      <c r="AC1051" s="1"/>
+      <c r="AD1051" s="1"/>
+      <c r="AE1051" s="1"/>
+      <c r="AF1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1"/>
       <c r="D1052" s="1"/>
       <c r="E1052" s="12"/>
       <c r="F1052" s="12"/>
@@ -39292,8 +41502,26 @@
       <c r="H1052" s="12"/>
       <c r="I1052" s="12"/>
       <c r="J1052" s="1"/>
-    </row>
-    <row r="1053" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1052" s="1"/>
+      <c r="P1052" s="1"/>
+      <c r="Q1052" s="1"/>
+      <c r="R1052" s="1"/>
+      <c r="S1052" s="1"/>
+      <c r="T1052" s="1"/>
+      <c r="U1052" s="1"/>
+      <c r="V1052" s="1"/>
+      <c r="W1052" s="1"/>
+      <c r="X1052" s="1"/>
+      <c r="Y1052" s="1"/>
+      <c r="Z1052" s="1"/>
+      <c r="AA1052" s="1"/>
+      <c r="AB1052" s="1"/>
+      <c r="AC1052" s="1"/>
+      <c r="AD1052" s="1"/>
+      <c r="AE1052" s="1"/>
+      <c r="AF1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1053" s="1"/>
       <c r="E1053" s="12"/>
       <c r="F1053" s="12"/>
@@ -39302,7 +41530,7 @@
       <c r="I1053" s="12"/>
       <c r="J1053" s="1"/>
     </row>
-    <row r="1054" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1054" s="1"/>
       <c r="E1054" s="12"/>
       <c r="F1054" s="12"/>
@@ -39311,7 +41539,7 @@
       <c r="I1054" s="12"/>
       <c r="J1054" s="1"/>
     </row>
-    <row r="1055" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1055" s="1"/>
       <c r="E1055" s="12"/>
       <c r="F1055" s="12"/>
@@ -39320,7 +41548,7 @@
       <c r="I1055" s="12"/>
       <c r="J1055" s="1"/>
     </row>
-    <row r="1056" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1056" s="1"/>
       <c r="E1056" s="12"/>
       <c r="F1056" s="12"/>
@@ -39572,8 +41800,122 @@
       <c r="I1083" s="12"/>
       <c r="J1083" s="1"/>
     </row>
+    <row r="1084" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1084" s="1"/>
+      <c r="E1084" s="12"/>
+      <c r="F1084" s="12"/>
+      <c r="G1084" s="12"/>
+      <c r="H1084" s="12"/>
+      <c r="I1084" s="12"/>
+      <c r="J1084" s="1"/>
+    </row>
+    <row r="1085" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1085" s="1"/>
+      <c r="E1085" s="12"/>
+      <c r="F1085" s="12"/>
+      <c r="G1085" s="12"/>
+      <c r="H1085" s="12"/>
+      <c r="I1085" s="12"/>
+      <c r="J1085" s="1"/>
+    </row>
+    <row r="1086" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1086" s="1"/>
+      <c r="E1086" s="12"/>
+      <c r="F1086" s="12"/>
+      <c r="G1086" s="12"/>
+      <c r="H1086" s="12"/>
+      <c r="I1086" s="12"/>
+      <c r="J1086" s="1"/>
+    </row>
+    <row r="1087" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1087" s="1"/>
+      <c r="E1087" s="12"/>
+      <c r="F1087" s="12"/>
+      <c r="G1087" s="12"/>
+      <c r="H1087" s="12"/>
+      <c r="I1087" s="12"/>
+      <c r="J1087" s="1"/>
+    </row>
+    <row r="1088" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1088" s="1"/>
+      <c r="E1088" s="12"/>
+      <c r="F1088" s="12"/>
+      <c r="G1088" s="12"/>
+      <c r="H1088" s="12"/>
+      <c r="I1088" s="12"/>
+      <c r="J1088" s="1"/>
+    </row>
+    <row r="1089" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1089" s="1"/>
+      <c r="E1089" s="12"/>
+      <c r="F1089" s="12"/>
+      <c r="G1089" s="12"/>
+      <c r="H1089" s="12"/>
+      <c r="I1089" s="12"/>
+      <c r="J1089" s="1"/>
+    </row>
+    <row r="1090" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1090" s="1"/>
+      <c r="E1090" s="12"/>
+      <c r="F1090" s="12"/>
+      <c r="G1090" s="12"/>
+      <c r="H1090" s="12"/>
+      <c r="I1090" s="12"/>
+      <c r="J1090" s="1"/>
+    </row>
+    <row r="1091" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1091" s="1"/>
+      <c r="E1091" s="12"/>
+      <c r="F1091" s="12"/>
+      <c r="G1091" s="12"/>
+      <c r="H1091" s="12"/>
+      <c r="I1091" s="12"/>
+      <c r="J1091" s="1"/>
+    </row>
+    <row r="1092" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1092" s="1"/>
+      <c r="E1092" s="12"/>
+      <c r="F1092" s="12"/>
+      <c r="G1092" s="12"/>
+      <c r="H1092" s="12"/>
+      <c r="I1092" s="12"/>
+      <c r="J1092" s="1"/>
+    </row>
+    <row r="1093" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1093" s="1"/>
+      <c r="E1093" s="12"/>
+      <c r="F1093" s="12"/>
+      <c r="G1093" s="12"/>
+      <c r="H1093" s="12"/>
+      <c r="I1093" s="12"/>
+      <c r="J1093" s="1"/>
+    </row>
+    <row r="1094" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1094" s="1"/>
+      <c r="E1094" s="12"/>
+      <c r="F1094" s="12"/>
+      <c r="G1094" s="12"/>
+      <c r="H1094" s="12"/>
+      <c r="I1094" s="12"/>
+      <c r="J1094" s="1"/>
+    </row>
+    <row r="1095" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1095" s="1"/>
+      <c r="E1095" s="12"/>
+      <c r="F1095" s="12"/>
+      <c r="G1095" s="12"/>
+      <c r="H1095" s="12"/>
+      <c r="I1095" s="12"/>
+      <c r="J1095" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="13">
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C36:C54"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C3:C6"/>
@@ -39581,786 +41923,1075 @@
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:C19"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C42:C47"/>
-    <mergeCell ref="C36:C40"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E27:F27 E49:F52 E56:F56 E42:F47 E36:F40 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34">
-    <cfRule type="containsText" dxfId="207" priority="528" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E27:F27 E68:F68 E36:F36 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34 E52:F54 E39:E51 E56:F64">
+    <cfRule type="containsText" dxfId="298" priority="612" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="529" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="297" priority="613" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="530" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="296" priority="614" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="531" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="295" priority="615" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="532" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="294" priority="616" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J42:J47 J3:J6 J8:J19">
-    <cfRule type="containsText" dxfId="202" priority="499" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J3:J6 J8:J19 J56:J64">
+    <cfRule type="containsText" dxfId="293" priority="583" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="500" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="292" priority="584" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="501" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="291" priority="585" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="502" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="586" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="199" priority="393" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="290" priority="477" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="394" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="289" priority="478" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="395" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="288" priority="479" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="396" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="287" priority="480" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="397" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="286" priority="481" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:J40">
-    <cfRule type="containsText" dxfId="194" priority="376" operator="containsText" text="Complete">
+  <conditionalFormatting sqref="J36 J39:J54">
+    <cfRule type="containsText" dxfId="285" priority="460" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="377" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="284" priority="461" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="378" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="283" priority="462" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="379" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="463" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:J52">
-    <cfRule type="containsText" dxfId="191" priority="368" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J49)))</formula>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="containsText" dxfId="279" priority="448" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="369" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J49)))</formula>
+    <cfRule type="containsText" dxfId="278" priority="449" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="370" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J49)))</formula>
+    <cfRule type="containsText" dxfId="277" priority="450" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="371" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J56">
-    <cfRule type="containsText" dxfId="188" priority="364" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="365" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="366" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J56)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="367" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J56)))</formula>
+    <cfRule type="containsText" priority="451" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="185" priority="363" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="276" priority="447" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="184" priority="362" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="275" priority="446" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="183" priority="361" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="274" priority="445" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="182" priority="360" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F47">
-    <cfRule type="containsText" dxfId="181" priority="359" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:F52">
-    <cfRule type="containsText" dxfId="180" priority="358" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="179" priority="357" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F56:F62">
+    <cfRule type="containsText" dxfId="273" priority="444" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F64">
+    <cfRule type="containsText" dxfId="272" priority="443" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="270" priority="441" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="178" priority="356"/>
+    <cfRule type="duplicateValues" dxfId="269" priority="440"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="177" priority="340" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="268" priority="424" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="176" priority="339" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="267" priority="423" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="175" priority="334" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="266" priority="418" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="335" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="265" priority="419" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="336" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="264" priority="420" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="337" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="263" priority="421" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="338" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="262" priority="422" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="170" priority="333" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="261" priority="417" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="169" priority="332" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="260" priority="416" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="168" priority="331" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="259" priority="415" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="167" priority="330" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="258" priority="414" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="166" priority="325" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="257" priority="409" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="326" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="256" priority="410" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="327" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="255" priority="411" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="328" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="254" priority="412" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="329" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="253" priority="413" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="161" priority="324" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="252" priority="408" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="160" priority="323" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="251" priority="407" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:F47">
-    <cfRule type="containsText" dxfId="159" priority="322" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F43)))</formula>
+  <conditionalFormatting sqref="F63:F64">
+    <cfRule type="containsText" dxfId="250" priority="406" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="158" priority="321" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="249" priority="405" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="157" priority="320" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="248" priority="404" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="156" priority="319" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="247" priority="403" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="155" priority="314" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="246" priority="398" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="315" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F42)))</formula>
+    <cfRule type="containsText" dxfId="245" priority="399" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="316" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    <cfRule type="containsText" dxfId="244" priority="400" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="317" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F42)))</formula>
+    <cfRule type="containsText" dxfId="243" priority="401" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="318" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F42)))</formula>
+    <cfRule type="containsText" dxfId="242" priority="402" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="150" priority="313" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="241" priority="397" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="149" priority="312" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="240" priority="396" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="148" priority="311" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="239" priority="395" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="147" priority="310" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="238" priority="394" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="146" priority="309" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="237" priority="393" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="145" priority="304" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="236" priority="388" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="305" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F42)))</formula>
+    <cfRule type="containsText" dxfId="235" priority="389" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="306" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F42)))</formula>
+    <cfRule type="containsText" dxfId="234" priority="390" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="307" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F42)))</formula>
+    <cfRule type="containsText" dxfId="233" priority="391" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="308" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F42)))</formula>
+    <cfRule type="containsText" dxfId="232" priority="392" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="140" priority="303" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="231" priority="387" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:F47">
-    <cfRule type="containsText" dxfId="139" priority="302" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F42)))</formula>
+  <conditionalFormatting sqref="F56:F64">
+    <cfRule type="containsText" dxfId="230" priority="386" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="138" priority="301" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="229" priority="385" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="137" priority="300" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="228" priority="384" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="136" priority="295" operator="containsText" text="Low">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="227" priority="379" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="296" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="226" priority="380" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="297" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="225" priority="381" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="298" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="224" priority="382" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="299" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="223" priority="383" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="131" priority="294" operator="containsText" text="Mobile App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="222" priority="378" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F40">
-    <cfRule type="containsText" dxfId="130" priority="293" operator="containsText" text="Mobile App &amp;&amp; Web App">
+  <conditionalFormatting sqref="F36 F52:F54">
+    <cfRule type="containsText" dxfId="221" priority="377" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="129" priority="277" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="220" priority="361" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="278" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="219" priority="362" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="279" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="218" priority="363" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="280" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="217" priority="364" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="281" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="216" priority="365" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="124" priority="272" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="215" priority="356" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="273" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="214" priority="357" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="274" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="213" priority="358" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="275" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="212" priority="359" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="276" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="211" priority="360" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="116" priority="267" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="210" priority="351" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="115" priority="266" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="209" priority="350" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22 E21">
-    <cfRule type="containsText" dxfId="114" priority="261" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="208" priority="345" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="262" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="207" priority="346" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="263" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="206" priority="347" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="264" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="205" priority="348" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="265" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="204" priority="349" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="109" priority="256" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="203" priority="340" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="108" priority="255" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="202" priority="339" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="107" priority="250" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="201" priority="334" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="251" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="200" priority="335" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="252" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="199" priority="336" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="253" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="198" priority="337" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="254" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="197" priority="338" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="102" priority="249" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="196" priority="333" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="101" priority="239" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="195" priority="323" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E18:F18">
-    <cfRule type="containsText" dxfId="100" priority="234" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="194" priority="318" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="235" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="193" priority="319" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="236" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="192" priority="320" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="237" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="191" priority="321" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="238" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="190" priority="322" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="95" priority="229" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="189" priority="313" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="94" priority="228" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="188" priority="312" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsText" dxfId="93" priority="212" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="187" priority="296" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="213" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="186" priority="297" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="214" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="185" priority="298" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="215" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="184" priority="299" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="216" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="183" priority="300" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="88" priority="207" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="182" priority="291" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="87" priority="206" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="181" priority="290" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="containsText" dxfId="86" priority="178" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="180" priority="262" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="179" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="179" priority="263" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="180" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="178" priority="264" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="181" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="177" priority="265" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="182" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="176" priority="266" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="81" priority="173" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="80" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="174" priority="256" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="79" priority="149" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="173" priority="233" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="150" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="172" priority="234" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="151" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="171" priority="235" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="152" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="170" priority="236" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="153" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="169" priority="237" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="74" priority="144" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="168" priority="228" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="145" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="167" priority="229" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="146" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="166" priority="230" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="147" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="165" priority="231" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="148" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="164" priority="232" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="66" priority="139" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="163" priority="223" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="65" priority="138" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="162" priority="222" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J55">
-    <cfRule type="containsText" dxfId="64" priority="118" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J55)))</formula>
+  <conditionalFormatting sqref="J67">
+    <cfRule type="containsText" dxfId="161" priority="202" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="119" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    <cfRule type="containsText" dxfId="160" priority="203" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="120" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J55)))</formula>
+    <cfRule type="containsText" dxfId="159" priority="204" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="121" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J55)))</formula>
+    <cfRule type="containsText" priority="205" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="61" priority="113" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F55)))</formula>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="158" priority="197" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="114" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F55)))</formula>
+    <cfRule type="containsText" dxfId="157" priority="198" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="115" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F55)))</formula>
+    <cfRule type="containsText" dxfId="156" priority="199" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="116" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F55)))</formula>
+    <cfRule type="containsText" dxfId="155" priority="200" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="117" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F55)))</formula>
+    <cfRule type="containsText" dxfId="154" priority="201" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="56" priority="112" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F55)))</formula>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="153" priority="196" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="55" priority="111" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F55)))</formula>
+  <conditionalFormatting sqref="F67">
+    <cfRule type="containsText" dxfId="152" priority="195" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E55">
-    <cfRule type="containsText" dxfId="54" priority="106" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E55)))</formula>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="containsText" dxfId="151" priority="190" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="107" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E55)))</formula>
+    <cfRule type="containsText" dxfId="150" priority="191" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="108" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E55)))</formula>
+    <cfRule type="containsText" dxfId="149" priority="192" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="109" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E55)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="193" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="110" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E55)))</formula>
+    <cfRule type="containsText" dxfId="147" priority="194" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:F54">
-    <cfRule type="containsText" dxfId="49" priority="101" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+  <conditionalFormatting sqref="E66:F66">
+    <cfRule type="containsText" dxfId="146" priority="185" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="102" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E54)))</formula>
+    <cfRule type="containsText" dxfId="145" priority="186" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="103" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E54)))</formula>
+    <cfRule type="containsText" dxfId="144" priority="187" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="104" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E54)))</formula>
+    <cfRule type="containsText" dxfId="143" priority="188" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="105" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E54)))</formula>
+    <cfRule type="containsText" dxfId="142" priority="189" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="containsText" dxfId="44" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J54)))</formula>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="containsText" dxfId="141" priority="181" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="98" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
+    <cfRule type="containsText" dxfId="140" priority="182" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="99" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J54)))</formula>
+    <cfRule type="containsText" dxfId="139" priority="183" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="100" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J54)))</formula>
+    <cfRule type="containsText" priority="184" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="41" priority="96" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F54)))</formula>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="138" priority="180" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="40" priority="95" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F54)))</formula>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="137" priority="179" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="39" priority="90" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="136" priority="174" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="91" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="135" priority="175" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="92" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="134" priority="176" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="93" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="133" priority="177" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="94" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="132" priority="178" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="34" priority="80" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="131" priority="164" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="33" priority="79" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="130" priority="163" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="32" priority="74" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="129" priority="158" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="75" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="128" priority="159" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="76" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="127" priority="160" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="77" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="126" priority="161" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="78" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="125" priority="162" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="124" priority="157" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="26" priority="72" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="123" priority="156" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J25">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="122" priority="111" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="121" priority="112" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="120" priority="113" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="30" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="114" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J34">
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="26" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="116" priority="87" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="115" priority="88" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="114" priority="89" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="113" priority="90" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="112" priority="91" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="111" priority="86" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E37:F37">
+    <cfRule type="containsText" dxfId="109" priority="80" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="81" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="82" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="83" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="84" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="104" priority="76" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="77" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="78" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="79" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="101" priority="75" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="100" priority="74" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="99" priority="73" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="98" priority="68" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="69" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="70" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="71" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="72" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="93" priority="67" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="92" priority="66" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="91" priority="65" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="90" priority="64" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="60" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="61" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="62" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="63" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="84" priority="58" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="83" priority="57" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="containsText" dxfId="82" priority="52" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="53" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="54" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="77" priority="48" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="50" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="51" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="73" priority="46" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="72" priority="45" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="71" priority="40" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="41" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="42" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="43" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="67" priority="44" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="65" priority="38" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="64" priority="37" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="63" priority="36" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="62" priority="31" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="32" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="34" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="57" priority="30" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="56" priority="29" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="55" priority="24" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="26" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="28" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="49" priority="22" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="48" priority="21" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="41" priority="14" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J34">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J27:J34 J49:J52 J36:J40 J3:J6 J42:J47 J54:J56 J21:J25 J8:J19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J8:J19 J3:J6 J36:J54 J66:J68 J27:J34 J56:J64">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E49:E52 E56 E36:E40 E42:E47 E27:E34" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68 E27:E34 E36:E54 E56:E64">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F36:F40 F21:F25 F42:F47 F3:F6 F49:F52 F54:F56 F27:F34 F8:F19" xr:uid="{3AC10220-1C63-412E-BC85-34197CE537DC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F19 F21:F25 F36:F54 F3:F6 F66:F68 F27:F34 F56:F64">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E54:E55 E8:E19" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E66:E67 E8:E19">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -530,6 +530,21 @@
   </si>
   <si>
     <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Xem thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>FR.57</t>
+  </si>
+  <si>
+    <t>FR.58</t>
+  </si>
+  <si>
+    <t>FR.59</t>
+  </si>
+  <si>
+    <t>FR.60</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1073,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1215,6 +1230,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,18 +1266,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1278,31 +1284,76 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="379">
+  <dxfs count="293">
     <dxf>
       <font>
-        <color theme="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,11 +1409,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1383,56 +1434,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1523,6 +1524,34 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2425,34 +2454,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4031,44 +4032,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
@@ -4179,798 +4142,6 @@
         <patternFill>
           <fgColor theme="7" tint="0.79998168889431442"/>
           <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5369,18 +4540,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="32"/>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
@@ -5388,16 +4559,16 @@
       <c r="O1" s="32"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="32"/>
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
@@ -5405,121 +4576,121 @@
       <c r="O2" s="32"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
       <c r="K3" s="34"/>
       <c r="L3" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="N3" s="63"/>
+      <c r="N3" s="64"/>
       <c r="O3" s="36"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="34"/>
       <c r="L4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="62" t="s">
+      <c r="M4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="N4" s="63"/>
+      <c r="N4" s="64"/>
       <c r="O4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62"/>
       <c r="K5" s="34"/>
       <c r="L5" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="63"/>
+      <c r="N5" s="64"/>
       <c r="O5" s="36"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="61"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="34"/>
       <c r="L6" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="M6" s="62" t="s">
+      <c r="M6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="63"/>
+      <c r="N6" s="64"/>
       <c r="O6" s="36"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="34"/>
       <c r="L7" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="N7" s="63"/>
+      <c r="N7" s="64"/>
       <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
       <c r="K8" s="32"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
@@ -5527,16 +4698,16 @@
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="62"/>
       <c r="K9" s="32"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
@@ -5544,16 +4715,16 @@
       <c r="O9" s="36"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="61"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="32"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -5561,35 +4732,35 @@
       <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="62"/>
       <c r="K11" s="34"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="67"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="61"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="62"/>
       <c r="K12" s="34"/>
       <c r="L12" s="39" t="s">
         <v>91</v>
@@ -5605,16 +4776,16 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="62"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40" t="s">
         <v>95</v>
@@ -5630,16 +4801,16 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="61"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="62"/>
       <c r="K14" s="34"/>
       <c r="L14" s="44"/>
       <c r="M14" s="45"/>
@@ -5647,16 +4818,16 @@
       <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="61"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="62"/>
       <c r="K15" s="34"/>
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
@@ -5664,16 +4835,16 @@
       <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="61"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
       <c r="K16" s="34"/>
       <c r="L16" s="46"/>
       <c r="M16" s="47"/>
@@ -5681,16 +4852,16 @@
       <c r="O16" s="47"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="61"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="62"/>
       <c r="K17" s="34"/>
       <c r="L17" s="46"/>
       <c r="M17" s="47"/>
@@ -5698,16 +4869,16 @@
       <c r="O17" s="47"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="34"/>
       <c r="L18" s="46"/>
       <c r="M18" s="47"/>
@@ -5715,16 +4886,16 @@
       <c r="O18" s="47"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="62"/>
       <c r="K19" s="34"/>
       <c r="L19" s="46"/>
       <c r="M19" s="47"/>
@@ -5732,16 +4903,16 @@
       <c r="O19" s="47"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="62"/>
       <c r="K20" s="34"/>
       <c r="L20" s="46"/>
       <c r="M20" s="47"/>
@@ -5768,11 +4939,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1095"/>
+  <dimension ref="A1:AF1096"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5885,7 +5056,7 @@
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="74" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -5939,7 +5110,7 @@
       <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="69"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="50" t="s">
         <v>108</v>
       </c>
@@ -5992,7 +5163,7 @@
       <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -6045,7 +5216,7 @@
       <c r="B6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="50" t="s">
         <v>108</v>
       </c>
@@ -6095,15 +5266,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -6129,7 +5300,7 @@
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="74" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -6176,7 +5347,7 @@
       <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="69"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
@@ -6220,7 +5391,7 @@
       <c r="B10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="24" t="s">
         <v>51</v>
       </c>
@@ -6264,7 +5435,7 @@
       <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -6308,7 +5479,7 @@
       <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
@@ -6352,7 +5523,7 @@
       <c r="B13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="19" t="s">
         <v>77</v>
       </c>
@@ -6396,7 +5567,7 @@
       <c r="B14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="75"/>
       <c r="D14" s="19" t="s">
         <v>78</v>
       </c>
@@ -6440,7 +5611,7 @@
       <c r="B15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="75"/>
       <c r="D15" s="19" t="s">
         <v>75</v>
       </c>
@@ -6484,7 +5655,7 @@
       <c r="B16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="75"/>
       <c r="D16" s="19" t="s">
         <v>100</v>
       </c>
@@ -6528,7 +5699,7 @@
       <c r="B17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
@@ -6572,7 +5743,7 @@
       <c r="B18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="75"/>
       <c r="D18" s="19" t="s">
         <v>122</v>
       </c>
@@ -6616,7 +5787,7 @@
       <c r="B19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="69"/>
+      <c r="C19" s="75"/>
       <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
@@ -6657,15 +5828,15 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -6694,7 +5865,7 @@
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="74" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -6746,7 +5917,7 @@
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="19" t="s">
         <v>42</v>
       </c>
@@ -6796,7 +5967,7 @@
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="69"/>
+      <c r="C23" s="75"/>
       <c r="D23" s="19" t="s">
         <v>52</v>
       </c>
@@ -6846,7 +6017,7 @@
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="69"/>
+      <c r="C24" s="75"/>
       <c r="D24" s="19" t="s">
         <v>43</v>
       </c>
@@ -6896,7 +6067,7 @@
       <c r="B25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="70"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="19" t="s">
         <v>53</v>
       </c>
@@ -6943,15 +6114,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -6980,7 +6151,7 @@
       <c r="B27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -7032,7 +6203,7 @@
       <c r="B28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="69"/>
+      <c r="C28" s="75"/>
       <c r="D28" s="19" t="s">
         <v>113</v>
       </c>
@@ -7082,7 +6253,7 @@
       <c r="B29" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="69"/>
+      <c r="C29" s="75"/>
       <c r="D29" s="19" t="s">
         <v>114</v>
       </c>
@@ -7132,7 +6303,7 @@
       <c r="B30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="69"/>
+      <c r="C30" s="75"/>
       <c r="D30" s="19" t="s">
         <v>115</v>
       </c>
@@ -7182,7 +6353,7 @@
       <c r="B31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="69"/>
+      <c r="C31" s="75"/>
       <c r="D31" s="19" t="s">
         <v>79</v>
       </c>
@@ -7232,7 +6403,7 @@
       <c r="B32" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="75"/>
       <c r="D32" s="19" t="s">
         <v>107</v>
       </c>
@@ -7282,7 +6453,7 @@
       <c r="B33" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="69"/>
+      <c r="C33" s="75"/>
       <c r="D33" s="19" t="s">
         <v>116</v>
       </c>
@@ -7332,7 +6503,7 @@
       <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="70"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="19" t="s">
         <v>117</v>
       </c>
@@ -7379,15 +6550,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="73"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -7416,7 +6587,7 @@
       <c r="B36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="77" t="s">
+      <c r="C36" s="76" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -7465,7 +6636,7 @@
       <c r="B37" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="77"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="26" t="s">
         <v>138</v>
       </c>
@@ -7512,7 +6683,7 @@
       <c r="B38" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="26" t="s">
         <v>139</v>
       </c>
@@ -7559,7 +6730,7 @@
       <c r="B39" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="26" t="s">
         <v>140</v>
       </c>
@@ -7606,7 +6777,7 @@
       <c r="B40" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="77"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
@@ -7650,7 +6821,7 @@
       <c r="B41" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="77"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="26" t="s">
         <v>125</v>
       </c>
@@ -7694,7 +6865,7 @@
       <c r="B42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="77"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="26" t="s">
         <v>126</v>
       </c>
@@ -7738,7 +6909,7 @@
       <c r="B43" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="77"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="26" t="s">
         <v>128</v>
       </c>
@@ -7782,7 +6953,7 @@
       <c r="B44" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="26" t="s">
         <v>129</v>
       </c>
@@ -7826,7 +6997,7 @@
       <c r="B45" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="77"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="26" t="s">
         <v>127</v>
       </c>
@@ -7870,7 +7041,7 @@
       <c r="B46" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="26" t="s">
         <v>130</v>
       </c>
@@ -7914,7 +7085,7 @@
       <c r="B47" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="77"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="26" t="s">
         <v>131</v>
       </c>
@@ -7958,7 +7129,7 @@
       <c r="B48" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="77"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="26" t="s">
         <v>132</v>
       </c>
@@ -8002,7 +7173,7 @@
       <c r="B49" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="77"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="26" t="s">
         <v>133</v>
       </c>
@@ -8046,7 +7217,7 @@
       <c r="B50" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="77"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="26" t="s">
         <v>134</v>
       </c>
@@ -8090,7 +7261,7 @@
       <c r="B51" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="77"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="26" t="s">
         <v>135</v>
       </c>
@@ -8134,7 +7305,7 @@
       <c r="B52" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="77"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="26" t="s">
         <v>124</v>
       </c>
@@ -8178,7 +7349,7 @@
       <c r="B53" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="77"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="26" t="s">
         <v>139</v>
       </c>
@@ -8226,7 +7397,7 @@
       <c r="B54" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="77"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="26" t="s">
         <v>140</v>
       </c>
@@ -8271,15 +7442,15 @@
     </row>
     <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="73"/>
-      <c r="J55" s="73"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -8308,7 +7479,7 @@
       <c r="B56" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="68" t="s">
+      <c r="C56" s="74" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -8358,7 +7529,7 @@
       <c r="B57" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C57" s="69"/>
+      <c r="C57" s="75"/>
       <c r="D57" s="26" t="s">
         <v>144</v>
       </c>
@@ -8402,7 +7573,7 @@
       <c r="B58" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="69"/>
+      <c r="C58" s="75"/>
       <c r="D58" s="26" t="s">
         <v>73</v>
       </c>
@@ -8446,7 +7617,7 @@
       <c r="B59" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="69"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="26" t="s">
         <v>65</v>
       </c>
@@ -8490,7 +7661,7 @@
       <c r="B60" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="69"/>
+      <c r="C60" s="75"/>
       <c r="D60" s="26" t="s">
         <v>145</v>
       </c>
@@ -8534,7 +7705,7 @@
       <c r="B61" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="69"/>
+      <c r="C61" s="75"/>
       <c r="D61" s="26" t="s">
         <v>147</v>
       </c>
@@ -8578,7 +7749,7 @@
       <c r="B62" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C62" s="69"/>
+      <c r="C62" s="75"/>
       <c r="D62" s="26" t="s">
         <v>146</v>
       </c>
@@ -8622,7 +7793,7 @@
       <c r="B63" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C63" s="69"/>
+      <c r="C63" s="75"/>
       <c r="D63" s="26" t="s">
         <v>66</v>
       </c>
@@ -8670,7 +7841,7 @@
       <c r="B64" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="69"/>
+      <c r="C64" s="75"/>
       <c r="D64" s="26" t="s">
         <v>148</v>
       </c>
@@ -8715,15 +7886,15 @@
     </row>
     <row r="65" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="76"/>
+      <c r="B65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
+      <c r="H65" s="72"/>
+      <c r="I65" s="72"/>
+      <c r="J65" s="73"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -8736,9 +7907,9 @@
     </row>
     <row r="66" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C66" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -8761,10 +7932,10 @@
     </row>
     <row r="67" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
-      <c r="B67" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="72"/>
+      <c r="B67" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="79"/>
       <c r="D67" s="19" t="s">
         <v>158</v>
       </c>
@@ -8790,31 +7961,23 @@
     </row>
     <row r="68" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
-      <c r="B68" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>68</v>
+      <c r="B68" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F68" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G68" s="22">
-        <v>43874</v>
-      </c>
-      <c r="H68" s="22">
-        <v>43876</v>
-      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23" t="s">
-        <v>13</v>
-      </c>
+      <c r="J68" s="23"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -8827,43 +7990,52 @@
     </row>
     <row r="69" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B69" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="22">
+        <v>43874</v>
+      </c>
+      <c r="H69" s="22">
+        <v>43876</v>
+      </c>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="3"/>
+      <c r="B70" s="1"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
       <c r="K70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
@@ -8893,14 +8065,21 @@
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -8956,9 +8135,9 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
@@ -8977,9 +8156,9 @@
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
@@ -9001,7 +8180,7 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="1"/>
+      <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
@@ -9018,15 +8197,15 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="1"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
     </row>
     <row r="78" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
@@ -9039,15 +8218,15 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
     </row>
     <row r="79" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
@@ -9061,9 +8240,9 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
@@ -9083,6 +8262,9 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
@@ -9099,7 +8281,12 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="1"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
     </row>
     <row r="82" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
@@ -9112,7 +8299,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
@@ -9139,9 +8326,6 @@
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
     </row>
     <row r="85" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
@@ -9155,19 +8339,9 @@
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="3"/>
-      <c r="T85" s="3"/>
-      <c r="U85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-      <c r="X85" s="3"/>
     </row>
     <row r="86" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
@@ -9692,7 +8866,7 @@
     <row r="106" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="1"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
@@ -9719,9 +8893,9 @@
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -9821,15 +8995,15 @@
     </row>
     <row r="111" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -10118,9 +9292,9 @@
       <c r="J122" s="1"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3"/>
@@ -10142,20 +9316,20 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
       <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
-      <c r="Q123" s="1"/>
-      <c r="R123" s="1"/>
-      <c r="S123" s="1"/>
-      <c r="T123" s="1"/>
-      <c r="U123" s="1"/>
-      <c r="V123" s="1"/>
-      <c r="W123" s="1"/>
-      <c r="X123" s="1"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
     </row>
     <row r="124" spans="1:24" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
@@ -10499,13 +9673,13 @@
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="3"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -10832,14 +10006,6 @@
       <c r="V149" s="1"/>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
-      <c r="AA149" s="1"/>
-      <c r="AB149" s="1"/>
-      <c r="AC149" s="1"/>
-      <c r="AD149" s="1"/>
-      <c r="AE149" s="1"/>
-      <c r="AF149" s="1"/>
     </row>
     <row r="150" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
@@ -11389,13 +10555,13 @@
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
-      <c r="H166" s="12"/>
-      <c r="I166" s="12"/>
-      <c r="J166" s="1"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="3"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -41307,6 +40473,7 @@
     </row>
     <row r="1046" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1046" s="1"/>
+      <c r="B1046" s="1"/>
       <c r="C1046" s="1"/>
       <c r="D1046" s="1"/>
       <c r="E1046" s="12"/>
@@ -41373,6 +40540,7 @@
     </row>
     <row r="1048" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1048" s="1"/>
+      <c r="C1048" s="1"/>
       <c r="D1048" s="1"/>
       <c r="E1048" s="12"/>
       <c r="F1048" s="12"/>
@@ -41445,6 +40613,9 @@
       <c r="I1050" s="12"/>
       <c r="J1050" s="1"/>
       <c r="K1050" s="1"/>
+      <c r="L1050" s="1"/>
+      <c r="M1050" s="1"/>
+      <c r="N1050" s="1"/>
       <c r="O1050" s="1"/>
       <c r="P1050" s="1"/>
       <c r="Q1050" s="1"/>
@@ -41503,6 +40674,7 @@
       <c r="I1052" s="12"/>
       <c r="J1052" s="1"/>
       <c r="K1052" s="1"/>
+      <c r="O1052" s="1"/>
       <c r="P1052" s="1"/>
       <c r="Q1052" s="1"/>
       <c r="R1052" s="1"/>
@@ -41522,6 +40694,7 @@
       <c r="AF1052" s="1"/>
     </row>
     <row r="1053" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1"/>
       <c r="D1053" s="1"/>
       <c r="E1053" s="12"/>
       <c r="F1053" s="12"/>
@@ -41529,6 +40702,24 @@
       <c r="H1053" s="12"/>
       <c r="I1053" s="12"/>
       <c r="J1053" s="1"/>
+      <c r="K1053" s="1"/>
+      <c r="P1053" s="1"/>
+      <c r="Q1053" s="1"/>
+      <c r="R1053" s="1"/>
+      <c r="S1053" s="1"/>
+      <c r="T1053" s="1"/>
+      <c r="U1053" s="1"/>
+      <c r="V1053" s="1"/>
+      <c r="W1053" s="1"/>
+      <c r="X1053" s="1"/>
+      <c r="Y1053" s="1"/>
+      <c r="Z1053" s="1"/>
+      <c r="AA1053" s="1"/>
+      <c r="AB1053" s="1"/>
+      <c r="AC1053" s="1"/>
+      <c r="AD1053" s="1"/>
+      <c r="AE1053" s="1"/>
+      <c r="AF1053" s="1"/>
     </row>
     <row r="1054" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D1054" s="1"/>
@@ -41908,14 +41099,17 @@
       <c r="I1095" s="12"/>
       <c r="J1095" s="1"/>
     </row>
+    <row r="1096" spans="4:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D1096" s="1"/>
+      <c r="E1096" s="12"/>
+      <c r="F1096" s="12"/>
+      <c r="G1096" s="12"/>
+      <c r="H1096" s="12"/>
+      <c r="I1096" s="12"/>
+      <c r="J1096" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C36:C54"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C3:C6"/>
@@ -41923,1075 +41117,1139 @@
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:C19"/>
     <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C36:C54"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="E27:F27 E68:F68 E36:F36 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34 E52:F54 E39:E51 E56:F64">
-    <cfRule type="containsText" dxfId="298" priority="612" operator="containsText" text="Low">
+  <conditionalFormatting sqref="E27:F27 E69:F69 E36:F36 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34 E52:F54 E39:E51 E56:F64">
+    <cfRule type="containsText" dxfId="292" priority="628" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="613" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="291" priority="629" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="614" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="290" priority="630" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="615" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="289" priority="631" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="616" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="288" priority="632" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6 J8:J19 J56:J64">
-    <cfRule type="containsText" dxfId="293" priority="583" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="287" priority="599" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="584" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="286" priority="600" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="585" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="285" priority="601" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="586" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="602" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="290" priority="477" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="284" priority="493" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="478" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="283" priority="494" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="479" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="282" priority="495" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="480" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="281" priority="496" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="481" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="280" priority="497" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36 J39:J54">
-    <cfRule type="containsText" dxfId="285" priority="460" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="279" priority="476" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="461" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="278" priority="477" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="462" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="277" priority="478" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="463" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="479" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="containsText" dxfId="279" priority="448" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J68)))</formula>
+  <conditionalFormatting sqref="J69">
+    <cfRule type="containsText" dxfId="276" priority="464" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="449" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
+    <cfRule type="containsText" dxfId="275" priority="465" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="450" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
+    <cfRule type="containsText" dxfId="274" priority="466" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="451" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J68)))</formula>
+    <cfRule type="containsText" priority="467" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="276" priority="447" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="273" priority="463" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="275" priority="446" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="272" priority="462" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="274" priority="445" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="271" priority="461" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F62">
-    <cfRule type="containsText" dxfId="273" priority="444" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="270" priority="460" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="containsText" dxfId="272" priority="443" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="269" priority="459" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="270" priority="441" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F68)))</formula>
+  <conditionalFormatting sqref="F69">
+    <cfRule type="containsText" dxfId="268" priority="457" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="269" priority="440"/>
+    <cfRule type="duplicateValues" dxfId="267" priority="456"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="268" priority="424" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="266" priority="440" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="267" priority="423" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="265" priority="439" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="266" priority="418" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="264" priority="434" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="419" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="263" priority="435" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="420" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="262" priority="436" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="421" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="261" priority="437" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="422" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="260" priority="438" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="261" priority="417" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="259" priority="433" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="260" priority="416" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="258" priority="432" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="259" priority="415" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="257" priority="431" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="258" priority="414" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="256" priority="430" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="257" priority="409" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="255" priority="425" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="410" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="254" priority="426" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="411" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="253" priority="427" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="412" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="252" priority="428" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="413" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="251" priority="429" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="252" priority="408" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="250" priority="424" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="251" priority="407" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="249" priority="423" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="containsText" dxfId="250" priority="406" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="248" priority="422" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="249" priority="405" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="247" priority="421" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="248" priority="404" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="246" priority="420" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="247" priority="403" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="245" priority="419" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="246" priority="398" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="244" priority="414" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="399" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="243" priority="415" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="400" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="242" priority="416" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="401" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="241" priority="417" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="402" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="240" priority="418" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="241" priority="397" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="239" priority="413" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="240" priority="396" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="238" priority="412" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="239" priority="395" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="237" priority="411" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="238" priority="394" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="236" priority="410" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="237" priority="393" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="235" priority="409" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="236" priority="388" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="234" priority="404" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="389" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="233" priority="405" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="390" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="232" priority="406" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="391" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="231" priority="407" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="392" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="230" priority="408" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="231" priority="387" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="229" priority="403" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="230" priority="386" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="228" priority="402" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="229" priority="385" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="227" priority="401" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="228" priority="384" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="226" priority="400" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="227" priority="379" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="225" priority="395" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="380" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="224" priority="396" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="381" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="223" priority="397" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="382" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="222" priority="398" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="383" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="221" priority="399" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="222" priority="378" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="220" priority="394" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="221" priority="377" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="219" priority="393" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="220" priority="361" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="218" priority="377" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="362" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="217" priority="378" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="363" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="216" priority="379" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="364" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="215" priority="380" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="365" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="214" priority="381" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="215" priority="356" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="213" priority="372" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="357" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="212" priority="373" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="358" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="211" priority="374" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="359" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="210" priority="375" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="360" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="209" priority="376" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="210" priority="351" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="208" priority="367" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="209" priority="350" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="207" priority="366" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22 E21">
-    <cfRule type="containsText" dxfId="208" priority="345" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="206" priority="361" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="346" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="205" priority="362" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="347" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="204" priority="363" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="348" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="203" priority="364" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="349" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="202" priority="365" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="203" priority="340" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="201" priority="356" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="202" priority="339" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="200" priority="355" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="201" priority="334" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="199" priority="350" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="335" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="198" priority="351" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="336" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="197" priority="352" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="337" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="196" priority="353" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="338" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="195" priority="354" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="196" priority="333" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="194" priority="349" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="195" priority="323" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="193" priority="339" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E18:F18">
-    <cfRule type="containsText" dxfId="194" priority="318" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="192" priority="334" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="319" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="191" priority="335" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="320" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="190" priority="336" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="321" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="189" priority="337" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="322" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="188" priority="338" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="189" priority="313" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="187" priority="329" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="188" priority="312" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="186" priority="328" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsText" dxfId="187" priority="296" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="185" priority="312" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="297" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="184" priority="313" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="298" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="183" priority="314" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="299" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="182" priority="315" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="300" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="181" priority="316" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="182" priority="291" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="180" priority="307" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="181" priority="290" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="179" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="containsText" dxfId="180" priority="262" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="178" priority="278" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="263" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="177" priority="279" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="264" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="176" priority="280" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="265" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="175" priority="281" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="266" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="174" priority="282" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="175" priority="257" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="173" priority="273" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="174" priority="256" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="172" priority="272" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="173" priority="233" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="171" priority="249" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="234" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="170" priority="250" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="235" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="169" priority="251" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="236" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="168" priority="252" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="237" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="167" priority="253" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="168" priority="228" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="166" priority="244" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="229" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="165" priority="245" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="230" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="164" priority="246" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="231" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="163" priority="247" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="232" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="162" priority="248" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="163" priority="223" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="161" priority="239" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="162" priority="222" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="160" priority="238" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J68">
+    <cfRule type="containsText" dxfId="159" priority="218" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="219" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="220" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="221" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="155" priority="214" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="215" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="216" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="217" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="151" priority="212" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="containsText" dxfId="150" priority="211" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="containsText" dxfId="149" priority="206" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="207" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="208" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="209" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E68)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="210" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E68)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66:F66">
+    <cfRule type="containsText" dxfId="144" priority="201" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="202" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="203" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="204" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="205" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66">
+    <cfRule type="containsText" dxfId="139" priority="197" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="198" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="199" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="200" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="136" priority="196" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="containsText" dxfId="135" priority="195" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="134" priority="190" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="191" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="192" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="131" priority="193" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="194" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="128" priority="179" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="127" priority="174" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="175" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="176" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="177" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="123" priority="178" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="122" priority="173" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F34">
+    <cfRule type="containsText" dxfId="121" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J25">
+    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="119" priority="128" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="129" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="130" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:F17">
+    <cfRule type="containsText" dxfId="117" priority="103" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="104" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="115" priority="105" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="106" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="107" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="112" priority="102" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="containsText" dxfId="111" priority="101" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:F37">
+    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="97" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="108" priority="98" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="99" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="100" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37">
+    <cfRule type="containsText" dxfId="105" priority="92" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="93" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="94" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="102" priority="91" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="101" priority="90" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="86" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="94" priority="83" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="93" priority="82" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="92" priority="81" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="91" priority="80" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="76" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="containsText" dxfId="84" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38:F38">
+    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="70" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",E38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="72" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",E38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J38">
+    <cfRule type="containsText" dxfId="78" priority="64" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="65" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="66" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="67" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="72" priority="56" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="57" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="58" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="60" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="67" priority="55" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="65" priority="53" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="50" priority="38" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Low">
+      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Mediun">
+      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="High">
+      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="Mobile App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F51">
+    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="Mobile App &amp;&amp; Web App">
+      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J34">
+    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="20" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J67">
-    <cfRule type="containsText" dxfId="161" priority="202" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="203" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="204" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="205" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="16" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="158" priority="197" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="198" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="199" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="200" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="201" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="153" priority="196" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="152" priority="195" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="151" priority="190" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="191" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="192" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="193" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="194" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E66:F66">
-    <cfRule type="containsText" dxfId="146" priority="185" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="186" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="187" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="188" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="189" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="containsText" dxfId="141" priority="181" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="182" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="183" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="184" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="138" priority="180" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="137" priority="179" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="136" priority="174" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="175" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="176" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="177" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="178" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="131" priority="164" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="130" priority="163" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="129" priority="158" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="159" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="160" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="161" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="162" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="124" priority="157" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="123" priority="156" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J25">
-    <cfRule type="containsText" dxfId="122" priority="111" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="112" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="113" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="114" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="116" priority="87" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="88" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="89" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="90" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="91" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="111" priority="86" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37:F37">
-    <cfRule type="containsText" dxfId="109" priority="80" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="81" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="82" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="83" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="84" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="104" priority="76" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="77" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="78" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="79" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="101" priority="75" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="100" priority="74" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="99" priority="73" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="98" priority="68" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="69" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="70" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="71" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="72" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="93" priority="67" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="92" priority="66" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="91" priority="65" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="90" priority="64" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="89" priority="59" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="60" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="61" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="62" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="63" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="84" priority="58" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="83" priority="57" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38:F38">
-    <cfRule type="containsText" dxfId="82" priority="52" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="53" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",E38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="54" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",E38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",E38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="77" priority="48" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="50" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="51" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="74" priority="47" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="73" priority="46" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="72" priority="45" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="71" priority="40" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="41" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="42" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="43" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="44" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="66" priority="39" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="65" priority="38" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="64" priority="37" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="63" priority="36" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="62" priority="31" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="32" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="34" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="35" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="57" priority="30" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="56" priority="29" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="55" priority="24" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="25" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="26" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="27" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="28" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="50" priority="23" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="49" priority="22" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="48" priority="21" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="18" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="19" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="20" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="41" priority="14" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="Low">
-      <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="10" operator="containsText" text="Mediun">
-      <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="High">
-      <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="Mobile App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="Mobile App &amp;&amp; Web App">
-      <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J34">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="3" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J8:J19 J3:J6 J36:J54 J66:J68 J27:J34 J56:J64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J8:J19 J3:J6 J36:J54 J56:J64 J27:J34 J66:J69">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E68 E27:E34 E36:E54 E56:E64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E27:E34 E36:E54 E56:E64">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F19 F21:F25 F36:F54 F3:F6 F66:F68 F27:F34 F56:F64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F19 F21:F25 F36:F54 F3:F6 F56:F64 F27:F34 F66:F69">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E66:E67 E8:E19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E8:E19 E66:E68">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Xem mục "duyệt phiếu" chuyến công tác</t>
   </si>
   <si>
-    <t>Lựa chọn đơn công tác</t>
-  </si>
-  <si>
     <t>FR.48</t>
   </si>
   <si>
@@ -545,6 +542,9 @@
   </si>
   <si>
     <t>FR.60</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đơn công tác</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1266,22 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1284,56 +1299,19 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="293">
+  <dxfs count="272">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <fgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1419,26 +1397,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1474,112 +1432,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2666,34 +2518,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -2840,34 +2664,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4942,8 +4738,8 @@
   <dimension ref="A1:AF1096"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5056,7 +4852,7 @@
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="69" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -5110,7 +4906,7 @@
       <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="50" t="s">
         <v>108</v>
       </c>
@@ -5163,7 +4959,7 @@
       <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -5216,7 +5012,7 @@
       <c r="B6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="71"/>
       <c r="D6" s="50" t="s">
         <v>108</v>
       </c>
@@ -5266,15 +5062,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5300,7 +5096,7 @@
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="69" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -5347,7 +5143,7 @@
       <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
@@ -5391,7 +5187,7 @@
       <c r="B10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="75"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="24" t="s">
         <v>51</v>
       </c>
@@ -5435,7 +5231,7 @@
       <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="75"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -5479,7 +5275,7 @@
       <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
@@ -5523,7 +5319,7 @@
       <c r="B13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="19" t="s">
         <v>77</v>
       </c>
@@ -5567,7 +5363,7 @@
       <c r="B14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="75"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="19" t="s">
         <v>78</v>
       </c>
@@ -5611,7 +5407,7 @@
       <c r="B15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="75"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="19" t="s">
         <v>75</v>
       </c>
@@ -5655,7 +5451,7 @@
       <c r="B16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="75"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="19" t="s">
         <v>100</v>
       </c>
@@ -5699,7 +5495,7 @@
       <c r="B17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
@@ -5743,7 +5539,7 @@
       <c r="B18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="75"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="19" t="s">
         <v>122</v>
       </c>
@@ -5787,7 +5583,7 @@
       <c r="B19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="75"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
@@ -5828,15 +5624,15 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5865,7 +5661,7 @@
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="69" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -5917,7 +5713,7 @@
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="19" t="s">
         <v>42</v>
       </c>
@@ -5967,7 +5763,7 @@
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="75"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="19" t="s">
         <v>52</v>
       </c>
@@ -6017,7 +5813,7 @@
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="75"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="19" t="s">
         <v>43</v>
       </c>
@@ -6067,7 +5863,7 @@
       <c r="B25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="78"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="19" t="s">
         <v>53</v>
       </c>
@@ -6114,15 +5910,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -6151,7 +5947,7 @@
       <c r="B27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="69" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -6203,7 +5999,7 @@
       <c r="B28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="19" t="s">
         <v>113</v>
       </c>
@@ -6253,7 +6049,7 @@
       <c r="B29" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="75"/>
+      <c r="C29" s="70"/>
       <c r="D29" s="19" t="s">
         <v>114</v>
       </c>
@@ -6303,7 +6099,7 @@
       <c r="B30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="75"/>
+      <c r="C30" s="70"/>
       <c r="D30" s="19" t="s">
         <v>115</v>
       </c>
@@ -6353,7 +6149,7 @@
       <c r="B31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="75"/>
+      <c r="C31" s="70"/>
       <c r="D31" s="19" t="s">
         <v>79</v>
       </c>
@@ -6403,7 +6199,7 @@
       <c r="B32" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="75"/>
+      <c r="C32" s="70"/>
       <c r="D32" s="19" t="s">
         <v>107</v>
       </c>
@@ -6453,7 +6249,7 @@
       <c r="B33" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="75"/>
+      <c r="C33" s="70"/>
       <c r="D33" s="19" t="s">
         <v>116</v>
       </c>
@@ -6503,7 +6299,7 @@
       <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="19" t="s">
         <v>117</v>
       </c>
@@ -6550,15 +6346,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
+      <c r="B35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -6587,7 +6383,7 @@
       <c r="B36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="79" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -6636,7 +6432,7 @@
       <c r="B37" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="76"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="26" t="s">
         <v>138</v>
       </c>
@@ -6683,7 +6479,7 @@
       <c r="B38" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="76"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="26" t="s">
         <v>139</v>
       </c>
@@ -6730,7 +6526,7 @@
       <c r="B39" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="76"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="26" t="s">
         <v>140</v>
       </c>
@@ -6777,7 +6573,7 @@
       <c r="B40" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
@@ -6821,7 +6617,7 @@
       <c r="B41" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="26" t="s">
         <v>125</v>
       </c>
@@ -6865,7 +6661,7 @@
       <c r="B42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="26" t="s">
         <v>126</v>
       </c>
@@ -6909,7 +6705,7 @@
       <c r="B43" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="76"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="26" t="s">
         <v>128</v>
       </c>
@@ -6953,7 +6749,7 @@
       <c r="B44" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="76"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="26" t="s">
         <v>129</v>
       </c>
@@ -6997,7 +6793,7 @@
       <c r="B45" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="76"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="26" t="s">
         <v>127</v>
       </c>
@@ -7041,7 +6837,7 @@
       <c r="B46" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="76"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="26" t="s">
         <v>130</v>
       </c>
@@ -7085,7 +6881,7 @@
       <c r="B47" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="76"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="26" t="s">
         <v>131</v>
       </c>
@@ -7129,7 +6925,7 @@
       <c r="B48" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="76"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="26" t="s">
         <v>132</v>
       </c>
@@ -7173,7 +6969,7 @@
       <c r="B49" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="76"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="26" t="s">
         <v>133</v>
       </c>
@@ -7217,7 +7013,7 @@
       <c r="B50" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="76"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="26" t="s">
         <v>134</v>
       </c>
@@ -7261,7 +7057,7 @@
       <c r="B51" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="76"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="26" t="s">
         <v>135</v>
       </c>
@@ -7305,7 +7101,7 @@
       <c r="B52" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="76"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="26" t="s">
         <v>124</v>
       </c>
@@ -7349,7 +7145,7 @@
       <c r="B53" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="76"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="26" t="s">
         <v>139</v>
       </c>
@@ -7397,7 +7193,7 @@
       <c r="B54" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="76"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="26" t="s">
         <v>140</v>
       </c>
@@ -7442,15 +7238,15 @@
     </row>
     <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="70"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
+      <c r="B55" s="75"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="75"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
+      <c r="I55" s="75"/>
+      <c r="J55" s="75"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -7477,16 +7273,16 @@
     <row r="56" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="69" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="26" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>71</v>
@@ -7527,14 +7323,14 @@
     <row r="57" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="75"/>
+        <v>149</v>
+      </c>
+      <c r="C57" s="70"/>
       <c r="D57" s="26" t="s">
         <v>144</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>71</v>
@@ -7571,14 +7367,14 @@
     <row r="58" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="75"/>
+        <v>150</v>
+      </c>
+      <c r="C58" s="70"/>
       <c r="D58" s="26" t="s">
         <v>73</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>71</v>
@@ -7615,14 +7411,14 @@
     <row r="59" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="75"/>
+        <v>151</v>
+      </c>
+      <c r="C59" s="70"/>
       <c r="D59" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>71</v>
@@ -7659,14 +7455,14 @@
     <row r="60" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="75"/>
+        <v>152</v>
+      </c>
+      <c r="C60" s="70"/>
       <c r="D60" s="26" t="s">
         <v>145</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F60" s="21" t="s">
         <v>71</v>
@@ -7703,14 +7499,14 @@
     <row r="61" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C61" s="75"/>
+        <v>153</v>
+      </c>
+      <c r="C61" s="70"/>
       <c r="D61" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F61" s="21" t="s">
         <v>71</v>
@@ -7747,14 +7543,14 @@
     <row r="62" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="75"/>
+        <v>154</v>
+      </c>
+      <c r="C62" s="70"/>
       <c r="D62" s="26" t="s">
         <v>146</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F62" s="21" t="s">
         <v>71</v>
@@ -7791,14 +7587,14 @@
     <row r="63" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="C63" s="75"/>
+        <v>155</v>
+      </c>
+      <c r="C63" s="70"/>
       <c r="D63" s="26" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F63" s="21" t="s">
         <v>71</v>
@@ -7839,14 +7635,14 @@
     <row r="64" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="C64" s="75"/>
+        <v>156</v>
+      </c>
+      <c r="C64" s="70"/>
       <c r="D64" s="26" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F64" s="21" t="s">
         <v>71</v>
@@ -7886,15 +7682,15 @@
     </row>
     <row r="65" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="72"/>
-      <c r="J65" s="73"/>
+      <c r="B65" s="76"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="78"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -7907,9 +7703,9 @@
     </row>
     <row r="66" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C66" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="72" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -7924,7 +7720,9 @@
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
+      <c r="J66" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -7933,11 +7731,11 @@
     <row r="67" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="79"/>
+        <v>160</v>
+      </c>
+      <c r="C67" s="73"/>
       <c r="D67" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>7</v>
@@ -7948,7 +7746,9 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
+      <c r="J67" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -7962,11 +7762,11 @@
     <row r="68" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C68" s="69"/>
+        <v>161</v>
+      </c>
+      <c r="C68" s="74"/>
       <c r="D68" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68" s="25" t="s">
         <v>7</v>
@@ -7977,7 +7777,9 @@
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
+      <c r="J68" s="23" t="s">
+        <v>13</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -7991,7 +7793,7 @@
     <row r="69" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="27" t="s">
         <v>67</v>
@@ -41110,6 +40912,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C36:C54"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C3:C6"/>
@@ -41117,1126 +40925,1092 @@
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:C19"/>
     <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C36:C54"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E27:F27 E69:F69 E36:F36 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34 E52:F54 E39:E51 E56:F64">
-    <cfRule type="containsText" dxfId="292" priority="628" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="271" priority="632" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="629" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="270" priority="633" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="630" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="269" priority="634" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="631" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="268" priority="635" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="632" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="267" priority="636" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J6 J8:J19 J56:J64">
-    <cfRule type="containsText" dxfId="287" priority="599" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="266" priority="603" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="600" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="265" priority="604" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="601" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="264" priority="605" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="602" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="606" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="containsText" dxfId="284" priority="493" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="263" priority="497" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="494" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="262" priority="498" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="495" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="261" priority="499" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="496" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="260" priority="500" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="497" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="259" priority="501" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36 J39:J54">
-    <cfRule type="containsText" dxfId="279" priority="476" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="258" priority="480" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="477" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="257" priority="481" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="478" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="256" priority="482" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J36)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="479" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="483" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J69">
-    <cfRule type="containsText" dxfId="276" priority="464" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="255" priority="468" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="465" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="254" priority="469" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="466" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="253" priority="470" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J69)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="467" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="471" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="273" priority="463" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="252" priority="467" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="272" priority="462" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="251" priority="466" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="271" priority="461" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="250" priority="465" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F62">
-    <cfRule type="containsText" dxfId="270" priority="460" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="249" priority="464" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="containsText" dxfId="269" priority="459" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="248" priority="463" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="268" priority="457" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="247" priority="461" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L5">
-    <cfRule type="duplicateValues" dxfId="267" priority="456"/>
+    <cfRule type="duplicateValues" dxfId="246" priority="460"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24 F8:F14 F3:F4">
-    <cfRule type="containsText" dxfId="266" priority="440" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="245" priority="444" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="265" priority="439" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="244" priority="443" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="264" priority="434" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="243" priority="438" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="435" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="242" priority="439" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="436" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="241" priority="440" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="437" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="240" priority="441" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="438" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="239" priority="442" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="259" priority="433" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="238" priority="437" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="258" priority="432" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="237" priority="436" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="257" priority="431" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="236" priority="435" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="256" priority="430" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="235" priority="434" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="255" priority="425" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="234" priority="429" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="426" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="233" priority="430" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="427" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="232" priority="431" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="428" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="231" priority="432" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="429" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="230" priority="433" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="250" priority="424" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="229" priority="428" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="249" priority="423" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="228" priority="427" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F64">
-    <cfRule type="containsText" dxfId="248" priority="422" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="227" priority="426" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="247" priority="421" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="226" priority="425" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="246" priority="420" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="225" priority="424" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="245" priority="419" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="224" priority="423" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="244" priority="414" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="223" priority="418" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="415" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="222" priority="419" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="416" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="221" priority="420" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="417" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="220" priority="421" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="418" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="219" priority="422" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="239" priority="413" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="218" priority="417" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="238" priority="412" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="217" priority="416" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="237" priority="411" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="216" priority="415" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="236" priority="410" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="215" priority="414" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="235" priority="409" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="214" priority="413" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="234" priority="404" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="213" priority="408" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="405" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="212" priority="409" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="406" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="211" priority="410" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="407" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="210" priority="411" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="408" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="209" priority="412" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="229" priority="403" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="208" priority="407" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F64">
-    <cfRule type="containsText" dxfId="228" priority="402" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="207" priority="406" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="227" priority="401" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="206" priority="405" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="226" priority="400" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="205" priority="404" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="225" priority="395" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="204" priority="399" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="396" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="203" priority="400" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="397" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="202" priority="401" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="398" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="201" priority="402" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="399" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="200" priority="403" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="220" priority="394" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="199" priority="398" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36 F52:F54">
-    <cfRule type="containsText" dxfId="219" priority="393" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="198" priority="397" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="218" priority="377" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="197" priority="381" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="378" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="196" priority="382" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="379" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="195" priority="383" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="380" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="194" priority="384" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="381" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="193" priority="385" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="213" priority="372" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="192" priority="376" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="373" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="191" priority="377" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="374" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="190" priority="378" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="375" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="189" priority="379" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="376" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="188" priority="380" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="208" priority="367" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="187" priority="371" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="207" priority="366" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="186" priority="370" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22 E21">
-    <cfRule type="containsText" dxfId="206" priority="361" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="185" priority="365" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="362" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="184" priority="366" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="363" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="183" priority="367" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="364" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="182" priority="368" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="365" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="181" priority="369" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="201" priority="356" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="180" priority="360" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="200" priority="355" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="179" priority="359" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="199" priority="350" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="178" priority="354" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="351" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="177" priority="355" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="352" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="176" priority="356" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="353" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="175" priority="357" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="354" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="174" priority="358" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="194" priority="349" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="173" priority="353" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="193" priority="339" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="172" priority="343" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F16 E18:F18">
-    <cfRule type="containsText" dxfId="192" priority="334" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="171" priority="338" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="335" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="170" priority="339" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="336" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="169" priority="340" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="337" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="168" priority="341" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="338" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="167" priority="342" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="187" priority="329" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="166" priority="333" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16 F18">
-    <cfRule type="containsText" dxfId="186" priority="328" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="165" priority="332" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="containsText" dxfId="185" priority="312" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="164" priority="316" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="313" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="163" priority="317" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="314" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="162" priority="318" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="315" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="161" priority="319" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="316" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="160" priority="320" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="180" priority="307" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="159" priority="311" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="179" priority="306" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="158" priority="310" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25:F25">
-    <cfRule type="containsText" dxfId="178" priority="278" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="157" priority="282" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="279" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="156" priority="283" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="280" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="155" priority="284" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="281" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="154" priority="285" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="282" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="153" priority="286" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="173" priority="273" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="152" priority="277" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="172" priority="272" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="151" priority="276" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="171" priority="249" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="150" priority="253" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="250" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="149" priority="254" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="251" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="148" priority="255" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="252" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="147" priority="256" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="253" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="146" priority="257" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="166" priority="244" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="145" priority="248" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="245" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="144" priority="249" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="246" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="143" priority="250" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="247" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="142" priority="251" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="248" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="141" priority="252" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="161" priority="239" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="140" priority="243" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="160" priority="238" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="139" priority="242" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J68">
-    <cfRule type="containsText" dxfId="159" priority="218" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="219" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="220" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J68)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="221" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J68)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="156" priority="213" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="138" priority="217" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="214" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="137" priority="218" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="215" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="136" priority="219" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="216" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="135" priority="220" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="217" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="134" priority="221" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="151" priority="212" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="133" priority="216" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="150" priority="211" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="132" priority="215" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="containsText" dxfId="149" priority="206" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="131" priority="210" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="207" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="130" priority="211" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="208" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="129" priority="212" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="209" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="128" priority="213" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="210" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="127" priority="214" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66:F66">
-    <cfRule type="containsText" dxfId="144" priority="201" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="126" priority="205" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="202" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="125" priority="206" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="203" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="124" priority="207" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="204" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="123" priority="208" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="205" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="122" priority="209" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="containsText" dxfId="139" priority="197" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="198" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="199" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="200" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J66)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="136" priority="196" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="121" priority="200" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="135" priority="195" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="120" priority="199" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="134" priority="190" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="119" priority="194" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="191" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="118" priority="195" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="192" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="117" priority="196" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="193" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="116" priority="197" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="194" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="115" priority="198" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="129" priority="180" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="114" priority="184" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="128" priority="179" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="113" priority="183" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="127" priority="174" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="112" priority="178" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="175" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="111" priority="179" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="176" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="110" priority="180" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="177" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="109" priority="181" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="178" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="108" priority="182" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="122" priority="173" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="107" priority="177" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F34">
-    <cfRule type="containsText" dxfId="121" priority="172" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="106" priority="176" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21:J25">
-    <cfRule type="containsText" dxfId="120" priority="127" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="105" priority="131" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="128" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="104" priority="132" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="129" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="103" priority="133" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J21)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="130" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="134" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="117" priority="103" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="104" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="105" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="100" priority="109" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="106" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="99" priority="110" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="107" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="98" priority="111" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="112" priority="102" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="97" priority="106" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="containsText" dxfId="111" priority="101" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="96" priority="105" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F37">
-    <cfRule type="containsText" dxfId="110" priority="96" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="95" priority="100" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="97" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="94" priority="101" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="98" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="93" priority="102" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="99" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="92" priority="103" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="100" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="91" priority="104" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="containsText" dxfId="105" priority="92" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="90" priority="96" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="93" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="89" priority="97" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="94" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="88" priority="98" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J37)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="95" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="99" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="102" priority="91" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="87" priority="95" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="101" priority="90" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="86" priority="94" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="100" priority="89" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="85" priority="93" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="99" priority="84" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="84" priority="88" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="85" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="86" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="82" priority="90" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="87" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="81" priority="91" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="88" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="80" priority="92" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="94" priority="83" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="79" priority="87" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="93" priority="82" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="78" priority="86" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="92" priority="81" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="77" priority="85" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="91" priority="80" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="76" priority="84" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="75" priority="79" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="76" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="74" priority="80" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="77" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="73" priority="81" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="78" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="72" priority="82" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="79" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="71" priority="83" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="85" priority="74" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="70" priority="78" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="84" priority="73" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F38">
-    <cfRule type="containsText" dxfId="83" priority="68" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="68" priority="72" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="69" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="70" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="66" priority="74" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="71" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="65" priority="75" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="72" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="64" priority="76" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="containsText" dxfId="78" priority="64" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="63" priority="68" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="65" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="62" priority="69" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="66" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="61" priority="70" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J38)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="67" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="71" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="75" priority="63" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="60" priority="67" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="74" priority="62" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="59" priority="66" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="72" priority="56" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="57" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="58" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="55" priority="62" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="59" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="54" priority="63" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="60" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="53" priority="64" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="67" priority="55" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="52" priority="59" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="66" priority="54" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="65" priority="53" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="50" priority="57" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="64" priority="52" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="49" priority="56" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="63" priority="47" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="48" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="49" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="50" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="51" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="44" priority="55" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="58" priority="46" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="43" priority="50" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="57" priority="45" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="42" priority="49" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="56" priority="40" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="41" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="42" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="39" priority="46" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="43" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="44" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="51" priority="39" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="50" priority="38" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="48" priority="32" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="34" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="31" priority="38" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="29" priority="40" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="27" priority="34" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="40" priority="28" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="24" priority="27" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="24" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="25" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="26" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="19" priority="26" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F51">
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:J34">
-    <cfRule type="containsText" dxfId="32" priority="17" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",J27)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="20" operator="containsText" text="Not Started">
+    <cfRule type="containsText" priority="24" operator="containsText" text="Not Started">
       <formula>NOT(ISERROR(SEARCH("Not Started",J27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J67">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="In Progress">
-      <formula>NOT(ISERROR(SEARCH("In Progress",J67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" priority="16" operator="containsText" text="Not Started">
-      <formula>NOT(ISERROR(SEARCH("Not Started",J67)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="12" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Mobile App">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Mobile App">
       <formula>NOT(ISERROR(SEARCH("Mobile App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Mobile App &amp;&amp; Web App">
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Mobile App &amp;&amp; Web App">
       <formula>NOT(ISERROR(SEARCH("Mobile App &amp;&amp; Web App",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Mediun">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Mediun">
       <formula>NOT(ISERROR(SEARCH("Mediun",E67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",E67)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J66:J68">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",J66)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="4" operator="containsText" text="Not Started">
+      <formula>NOT(ISERROR(SEARCH("Not Started",J66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D238DD25-6D95-4339-8079-983939019A3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -24,12 +25,6 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miyRgQn414ZovDUds2OTXvauoe0UQ=="/>
     </ext>
@@ -38,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="164">
   <si>
     <t>ID</t>
   </si>
@@ -550,7 +545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1266,18 +1261,6 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1299,12 +1282,24 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="272">
     <dxf>
@@ -4320,7 +4315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -4730,16 +4725,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AF1096"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4852,7 +4847,7 @@
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="75" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="19" t="s">
@@ -4906,7 +4901,7 @@
       <c r="B4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="70"/>
+      <c r="C4" s="76"/>
       <c r="D4" s="50" t="s">
         <v>108</v>
       </c>
@@ -4959,7 +4954,7 @@
       <c r="B5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="70"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -5012,7 +5007,7 @@
       <c r="B6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="50" t="s">
         <v>108</v>
       </c>
@@ -5062,15 +5057,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5096,7 +5091,7 @@
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="75" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -5143,7 +5138,7 @@
       <c r="B9" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="70"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
@@ -5187,7 +5182,7 @@
       <c r="B10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="70"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="24" t="s">
         <v>51</v>
       </c>
@@ -5231,7 +5226,7 @@
       <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="70"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -5275,7 +5270,7 @@
       <c r="B12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="70"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="19" t="s">
         <v>76</v>
       </c>
@@ -5319,7 +5314,7 @@
       <c r="B13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="19" t="s">
         <v>77</v>
       </c>
@@ -5363,7 +5358,7 @@
       <c r="B14" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="19" t="s">
         <v>78</v>
       </c>
@@ -5407,7 +5402,7 @@
       <c r="B15" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="70"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="19" t="s">
         <v>75</v>
       </c>
@@ -5451,7 +5446,7 @@
       <c r="B16" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="70"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="19" t="s">
         <v>100</v>
       </c>
@@ -5495,7 +5490,7 @@
       <c r="B17" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
@@ -5539,7 +5534,7 @@
       <c r="B18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="19" t="s">
         <v>122</v>
       </c>
@@ -5583,7 +5578,7 @@
       <c r="B19" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="70"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
@@ -5624,15 +5619,15 @@
     </row>
     <row r="20" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
       <c r="K20" s="3"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -5661,7 +5656,7 @@
       <c r="B21" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="75" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="19" t="s">
@@ -5713,7 +5708,7 @@
       <c r="B22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="70"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="19" t="s">
         <v>42</v>
       </c>
@@ -5763,7 +5758,7 @@
       <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="70"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="19" t="s">
         <v>52</v>
       </c>
@@ -5813,7 +5808,7 @@
       <c r="B24" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="70"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="19" t="s">
         <v>43</v>
       </c>
@@ -5863,7 +5858,7 @@
       <c r="B25" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="71"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="19" t="s">
         <v>53</v>
       </c>
@@ -5910,15 +5905,15 @@
     </row>
     <row r="26" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -5947,7 +5942,7 @@
       <c r="B27" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="75" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="19" t="s">
@@ -5999,7 +5994,7 @@
       <c r="B28" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="70"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="19" t="s">
         <v>113</v>
       </c>
@@ -6049,7 +6044,7 @@
       <c r="B29" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="70"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="19" t="s">
         <v>114</v>
       </c>
@@ -6099,7 +6094,7 @@
       <c r="B30" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="70"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="19" t="s">
         <v>115</v>
       </c>
@@ -6149,7 +6144,7 @@
       <c r="B31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="70"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="19" t="s">
         <v>79</v>
       </c>
@@ -6199,7 +6194,7 @@
       <c r="B32" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="70"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="19" t="s">
         <v>107</v>
       </c>
@@ -6249,7 +6244,7 @@
       <c r="B33" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="70"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="19" t="s">
         <v>116</v>
       </c>
@@ -6299,7 +6294,7 @@
       <c r="B34" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="71"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="19" t="s">
         <v>117</v>
       </c>
@@ -6346,15 +6341,15 @@
     </row>
     <row r="35" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -6383,7 +6378,7 @@
       <c r="B36" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="77" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="26" t="s">
@@ -6396,12 +6391,14 @@
         <v>71</v>
       </c>
       <c r="G36" s="22">
-        <v>43839</v>
+        <v>43923</v>
       </c>
       <c r="H36" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I36" s="23"/>
+        <v>43929</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J36" s="23" t="s">
         <v>13</v>
       </c>
@@ -6432,7 +6429,7 @@
       <c r="B37" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="77"/>
       <c r="D37" s="26" t="s">
         <v>138</v>
       </c>
@@ -6443,12 +6440,14 @@
         <v>71</v>
       </c>
       <c r="G37" s="22">
-        <v>43839</v>
+        <v>43923</v>
       </c>
       <c r="H37" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I37" s="23"/>
+        <v>43929</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J37" s="23" t="s">
         <v>13</v>
       </c>
@@ -6479,7 +6478,7 @@
       <c r="B38" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="26" t="s">
         <v>139</v>
       </c>
@@ -6490,12 +6489,14 @@
         <v>71</v>
       </c>
       <c r="G38" s="22">
-        <v>43839</v>
+        <v>43923</v>
       </c>
       <c r="H38" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I38" s="23"/>
+        <v>43929</v>
+      </c>
+      <c r="I38" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J38" s="23" t="s">
         <v>13</v>
       </c>
@@ -6526,7 +6527,7 @@
       <c r="B39" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="77"/>
       <c r="D39" s="26" t="s">
         <v>140</v>
       </c>
@@ -6537,12 +6538,14 @@
         <v>71</v>
       </c>
       <c r="G39" s="22">
-        <v>43839</v>
+        <v>43923</v>
       </c>
       <c r="H39" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I39" s="23"/>
+        <v>43929</v>
+      </c>
+      <c r="I39" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J39" s="23" t="s">
         <v>13</v>
       </c>
@@ -6573,7 +6576,7 @@
       <c r="B40" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="26" t="s">
         <v>123</v>
       </c>
@@ -6583,9 +6586,15 @@
       <c r="F40" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="23"/>
+      <c r="G40" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H40" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J40" s="23" t="s">
         <v>13</v>
       </c>
@@ -6617,7 +6626,7 @@
       <c r="B41" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="77"/>
       <c r="D41" s="26" t="s">
         <v>125</v>
       </c>
@@ -6627,9 +6636,15 @@
       <c r="F41" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="23"/>
+      <c r="G41" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H41" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J41" s="23" t="s">
         <v>13</v>
       </c>
@@ -6661,7 +6676,7 @@
       <c r="B42" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="77"/>
       <c r="D42" s="26" t="s">
         <v>126</v>
       </c>
@@ -6671,9 +6686,15 @@
       <c r="F42" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="23"/>
+      <c r="G42" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H42" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J42" s="23" t="s">
         <v>13</v>
       </c>
@@ -6705,7 +6726,7 @@
       <c r="B43" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="79"/>
+      <c r="C43" s="77"/>
       <c r="D43" s="26" t="s">
         <v>128</v>
       </c>
@@ -6715,9 +6736,15 @@
       <c r="F43" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+      <c r="G43" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H43" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I43" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J43" s="23" t="s">
         <v>13</v>
       </c>
@@ -6749,7 +6776,7 @@
       <c r="B44" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="26" t="s">
         <v>129</v>
       </c>
@@ -6759,9 +6786,15 @@
       <c r="F44" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="23"/>
+      <c r="G44" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H44" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J44" s="23" t="s">
         <v>13</v>
       </c>
@@ -6793,7 +6826,7 @@
       <c r="B45" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="79"/>
+      <c r="C45" s="77"/>
       <c r="D45" s="26" t="s">
         <v>127</v>
       </c>
@@ -6803,9 +6836,15 @@
       <c r="F45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="23"/>
+      <c r="G45" s="22">
+        <v>43930</v>
+      </c>
+      <c r="H45" s="22">
+        <v>43943</v>
+      </c>
+      <c r="I45" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J45" s="23" t="s">
         <v>13</v>
       </c>
@@ -6837,7 +6876,7 @@
       <c r="B46" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="77"/>
       <c r="D46" s="26" t="s">
         <v>130</v>
       </c>
@@ -6847,9 +6886,15 @@
       <c r="F46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
+      <c r="G46" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H46" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I46" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J46" s="23" t="s">
         <v>13</v>
       </c>
@@ -6881,7 +6926,7 @@
       <c r="B47" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="77"/>
       <c r="D47" s="26" t="s">
         <v>131</v>
       </c>
@@ -6891,9 +6936,15 @@
       <c r="F47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="23"/>
+      <c r="G47" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H47" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J47" s="23" t="s">
         <v>13</v>
       </c>
@@ -6925,7 +6976,7 @@
       <c r="B48" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="26" t="s">
         <v>132</v>
       </c>
@@ -6935,9 +6986,15 @@
       <c r="F48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="G48" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H48" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J48" s="23" t="s">
         <v>13</v>
       </c>
@@ -6969,7 +7026,7 @@
       <c r="B49" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="79"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="26" t="s">
         <v>133</v>
       </c>
@@ -6979,9 +7036,15 @@
       <c r="F49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="23"/>
+      <c r="G49" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H49" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I49" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J49" s="23" t="s">
         <v>13</v>
       </c>
@@ -7013,7 +7076,7 @@
       <c r="B50" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="79"/>
+      <c r="C50" s="77"/>
       <c r="D50" s="26" t="s">
         <v>134</v>
       </c>
@@ -7023,9 +7086,15 @@
       <c r="F50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="23"/>
+      <c r="G50" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H50" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J50" s="23" t="s">
         <v>13</v>
       </c>
@@ -7057,7 +7126,7 @@
       <c r="B51" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="79"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="26" t="s">
         <v>135</v>
       </c>
@@ -7067,9 +7136,15 @@
       <c r="F51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="23"/>
+      <c r="G51" s="22">
+        <v>43944</v>
+      </c>
+      <c r="H51" s="22">
+        <v>43957</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J51" s="23" t="s">
         <v>13</v>
       </c>
@@ -7101,7 +7176,7 @@
       <c r="B52" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="79"/>
+      <c r="C52" s="77"/>
       <c r="D52" s="26" t="s">
         <v>124</v>
       </c>
@@ -7111,9 +7186,15 @@
       <c r="F52" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
+      <c r="G52" s="22">
+        <v>43922</v>
+      </c>
+      <c r="H52" s="22">
+        <v>43931</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J52" s="23" t="s">
         <v>13</v>
       </c>
@@ -7145,7 +7226,7 @@
       <c r="B53" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="79"/>
+      <c r="C53" s="77"/>
       <c r="D53" s="26" t="s">
         <v>139</v>
       </c>
@@ -7156,12 +7237,14 @@
         <v>72</v>
       </c>
       <c r="G53" s="22">
-        <v>43839</v>
+        <v>43934</v>
       </c>
       <c r="H53" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I53" s="23"/>
+        <v>43945</v>
+      </c>
+      <c r="I53" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J53" s="23" t="s">
         <v>13</v>
       </c>
@@ -7193,7 +7276,7 @@
       <c r="B54" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="79"/>
+      <c r="C54" s="77"/>
       <c r="D54" s="26" t="s">
         <v>140</v>
       </c>
@@ -7204,12 +7287,14 @@
         <v>72</v>
       </c>
       <c r="G54" s="22">
-        <v>43839</v>
+        <v>43948</v>
       </c>
       <c r="H54" s="22">
-        <v>43841</v>
-      </c>
-      <c r="I54" s="23"/>
+        <v>43959</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="J54" s="23" t="s">
         <v>13</v>
       </c>
@@ -7238,15 +7323,15 @@
     </row>
     <row r="55" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -7275,7 +7360,7 @@
       <c r="B56" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C56" s="69" t="s">
+      <c r="C56" s="75" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="26" t="s">
@@ -7325,7 +7410,7 @@
       <c r="B57" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="70"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="26" t="s">
         <v>144</v>
       </c>
@@ -7369,7 +7454,7 @@
       <c r="B58" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="70"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="26" t="s">
         <v>73</v>
       </c>
@@ -7413,7 +7498,7 @@
       <c r="B59" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="70"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="26" t="s">
         <v>65</v>
       </c>
@@ -7457,7 +7542,7 @@
       <c r="B60" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="70"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="26" t="s">
         <v>145</v>
       </c>
@@ -7501,7 +7586,7 @@
       <c r="B61" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="70"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="26" t="s">
         <v>147</v>
       </c>
@@ -7545,7 +7630,7 @@
       <c r="B62" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="70"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="26" t="s">
         <v>146</v>
       </c>
@@ -7589,7 +7674,7 @@
       <c r="B63" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="70"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="26" t="s">
         <v>66</v>
       </c>
@@ -7637,7 +7722,7 @@
       <c r="B64" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="70"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="26" t="s">
         <v>163</v>
       </c>
@@ -7682,15 +7767,15 @@
     </row>
     <row r="65" spans="1:29" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="78"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="73"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="73"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="73"/>
+      <c r="J65" s="74"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -7705,7 +7790,7 @@
       <c r="B66" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="68" t="s">
         <v>81</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -7733,7 +7818,7 @@
       <c r="B67" s="56" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="73"/>
+      <c r="C67" s="69"/>
       <c r="D67" s="19" t="s">
         <v>157</v>
       </c>
@@ -7764,7 +7849,7 @@
       <c r="B68" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C68" s="74"/>
+      <c r="C68" s="70"/>
       <c r="D68" s="19" t="s">
         <v>158</v>
       </c>
@@ -40912,12 +40997,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="C56:C64"/>
-    <mergeCell ref="C36:C54"/>
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="C27:C34"/>
     <mergeCell ref="C3:C6"/>
@@ -40925,6 +41004,12 @@
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:C19"/>
     <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="C56:C64"/>
+    <mergeCell ref="C36:C54"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="E27:F27 E69:F69 E36:F36 E23 F23:F24 E8:F14 E3:F4 F27:F31 E28:E34 E52:F54 E39:E51 E56:F64">
@@ -42014,16 +42099,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J8:J19 J3:J6 J36:J54 J56:J64 J27:J34 J66:J69">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J21:J25 J8:J19 J3:J6 J36:J54 J56:J64 J27:J34 J66:J69" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E27:E34 E36:E54 E56:E64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E69 E27:E34 E36:E54 E56:E64" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F19 F21:F25 F36:F54 F3:F6 F56:F64 F27:F34 F66:F69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F19 F21:F25 F36:F54 F3:F6 F56:F64 F27:F34 F66:F69" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>Platform</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E8:E19 E66:E68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21:E25 E3:E6 E8:E19 E66:E68" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Priority</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Requirement/ProductBacklog/RE_ProductBacklog_Ver1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Requirement\ProductBacklog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D238DD25-6D95-4339-8079-983939019A3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB444B14-08B0-42A2-9382-6FD649095683}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7995" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="6" r:id="rId1"/>
@@ -23,8 +23,14 @@
     <definedName name="Status">'Product Backlog'!$N$4:$N$6</definedName>
     <definedName name="YesNo">'Product Backlog'!$L$4:$L$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miyRgQn414ZovDUds2OTXvauoe0UQ=="/>
     </ext>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -236,9 +242,6 @@
     <t>Xem lịch sử chuyển đi công tác</t>
   </si>
   <si>
-    <t>Chức năng sinh nhật</t>
-  </si>
-  <si>
     <t>Chúc mừng sinh nhật</t>
   </si>
   <si>
@@ -353,9 +356,6 @@
     <t>Xem danh sách chính sách công ty</t>
   </si>
   <si>
-    <t>Quên mật khẩu</t>
-  </si>
-  <si>
     <t>FR.37</t>
   </si>
   <si>
@@ -414,9 +414,6 @@
   </si>
   <si>
     <t>FR.14.1</t>
-  </si>
-  <si>
-    <t>Sửa nhân sự</t>
   </si>
   <si>
     <t>Xem đồ thị kết quả kinh doanh mục "Nhân viên"</t>
@@ -521,9 +518,6 @@
     <t>FR.56</t>
   </si>
   <si>
-    <t>Đổi mật khẩu</t>
-  </si>
-  <si>
     <t>Xem thông tin cá nhân</t>
   </si>
   <si>
@@ -533,13 +527,10 @@
     <t>FR.58</t>
   </si>
   <si>
-    <t>FR.59</t>
+    <t>Tìm kiếm đơn công tác</t>
   </si>
   <si>
-    <t>FR.60</t>
-  </si>
-  <si>
-    <t>Tìm kiếm đơn công tác</t>
+    <t>Quên/đổi mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1141,9 +1132,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1228,6 +1216,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,7 +1252,16 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,174 +1282,14 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="272">
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor theme="7" tint="0.79998168889431442"/>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="250">
     <dxf>
       <fill>
         <patternFill>
@@ -2429,76 +2269,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4318,8 +4088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4332,7 +4102,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -4343,11 +4113,11 @@
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
       <c r="J1" s="59"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60"/>
@@ -4360,11 +4130,11 @@
       <c r="H2" s="61"/>
       <c r="I2" s="61"/>
       <c r="J2" s="62"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="32"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="31"/>
     </row>
     <row r="3" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60"/>
@@ -4377,15 +4147,15 @@
       <c r="H3" s="61"/>
       <c r="I3" s="61"/>
       <c r="J3" s="62"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="35" t="s">
+      <c r="K3" s="33"/>
+      <c r="L3" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="63" t="s">
-        <v>83</v>
-      </c>
       <c r="N3" s="64"/>
-      <c r="O3" s="36"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="60"/>
@@ -4398,15 +4168,15 @@
       <c r="H4" s="61"/>
       <c r="I4" s="61"/>
       <c r="J4" s="62"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="37" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="63" t="s">
-        <v>85</v>
-      </c>
       <c r="N4" s="64"/>
-      <c r="O4" s="36"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="60"/>
@@ -4419,15 +4189,15 @@
       <c r="H5" s="61"/>
       <c r="I5" s="61"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35" t="s">
+      <c r="K5" s="33"/>
+      <c r="L5" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="63" t="s">
-        <v>87</v>
-      </c>
       <c r="N5" s="64"/>
-      <c r="O5" s="36"/>
+      <c r="O5" s="35"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="60"/>
@@ -4440,15 +4210,15 @@
       <c r="H6" s="61"/>
       <c r="I6" s="61"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="37" t="s">
-        <v>88</v>
+      <c r="K6" s="33"/>
+      <c r="L6" s="36" t="s">
+        <v>87</v>
       </c>
       <c r="M6" s="63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="36"/>
+      <c r="O6" s="35"/>
     </row>
     <row r="7" spans="1:15" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
@@ -4461,15 +4231,15 @@
       <c r="H7" s="61"/>
       <c r="I7" s="61"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35" t="s">
-        <v>89</v>
+      <c r="K7" s="33"/>
+      <c r="L7" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="M7" s="63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="36"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="60"/>
@@ -4482,11 +4252,11 @@
       <c r="H8" s="61"/>
       <c r="I8" s="61"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="60"/>
@@ -4499,11 +4269,11 @@
       <c r="H9" s="61"/>
       <c r="I9" s="61"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
@@ -4516,11 +4286,11 @@
       <c r="H10" s="61"/>
       <c r="I10" s="61"/>
       <c r="J10" s="62"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60"/>
@@ -4533,9 +4303,9 @@
       <c r="H11" s="61"/>
       <c r="I11" s="61"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="33"/>
       <c r="L11" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M11" s="66"/>
       <c r="N11" s="66"/>
@@ -4552,18 +4322,18 @@
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="39" t="s">
+      <c r="K12" s="33"/>
+      <c r="L12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="39" t="s">
+      <c r="N12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="39" t="s">
+      <c r="O12" s="38" t="s">
         <v>93</v>
-      </c>
-      <c r="O12" s="39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4577,18 +4347,18 @@
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
       <c r="J13" s="62"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="41" t="s">
+      <c r="K13" s="33"/>
+      <c r="L13" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="42" t="s">
         <v>98</v>
-      </c>
-      <c r="N13" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4602,11 +4372,11 @@
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
@@ -4619,11 +4389,11 @@
       <c r="H15" s="61"/>
       <c r="I15" s="61"/>
       <c r="J15" s="62"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="60"/>
@@ -4636,11 +4406,11 @@
       <c r="H16" s="61"/>
       <c r="I16" s="61"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60"/>
@@ -4653,11 +4423,11 @@
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="62"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="60"/>
@@ -4670,11 +4440,11 @@
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="62"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="60"/>
@@ -4687,11 +4457,11 @@
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="62"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="60"/>
@@ -4704,11 +4474,11 @@
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="62"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4730,11 +4500,11 @@
     <tabColor rgb="FFF2F2F2"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF1096"/>
+  <dimension ref="A1:AF1094"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E66" sqref="E66:E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="49.9" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4805,10 +4575,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="16" t="s">
         <v>3</v>
@@ -4847,8 +4617,8 @@
       <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>111</v>
+      <c r="C3" s="69" t="s">
+        <v>109</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>6</v>
@@ -4857,7 +4627,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="22">
         <v>43822</v>
@@ -4866,7 +4636,7 @@
         <v>43823</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>8</v>
@@ -4876,7 +4646,7 @@
         <v>9</v>
       </c>
       <c r="M3" s="6"/>
-      <c r="N3" s="31"/>
+      <c r="N3" s="30"/>
       <c r="O3" s="7"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -4898,18 +4668,18 @@
     </row>
     <row r="4" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="50" t="s">
-        <v>108</v>
+      <c r="C4" s="70"/>
+      <c r="D4" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" s="22">
         <v>43822</v>
@@ -4918,14 +4688,14 @@
         <v>43823</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>7</v>
@@ -4951,10 +4721,10 @@
     </row>
     <row r="5" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
@@ -4962,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" s="22">
         <v>43824</v>
@@ -4971,14 +4741,14 @@
         <v>43825</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="29" t="s">
-        <v>72</v>
+      <c r="L5" s="28" t="s">
+        <v>71</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>10</v>
@@ -5004,18 +4774,18 @@
     </row>
     <row r="6" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="50" t="s">
-        <v>108</v>
+      <c r="C6" s="71"/>
+      <c r="D6" s="49" t="s">
+        <v>106</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="22">
         <v>43825</v>
@@ -5024,16 +4794,16 @@
         <v>43826</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="3"/>
-      <c r="L6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="L6" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="N6" s="8" t="s">
@@ -5057,15 +4827,15 @@
     </row>
     <row r="7" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
       <c r="K7" s="3"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
@@ -5091,8 +4861,8 @@
       <c r="B8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="75" t="s">
-        <v>81</v>
+      <c r="C8" s="69" t="s">
+        <v>80</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>41</v>
@@ -5101,7 +4871,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="22">
         <v>43829</v>
@@ -5110,13 +4880,13 @@
         <v>43830</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="30"/>
+      <c r="L8" s="29"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5135,10 +4905,10 @@
     </row>
     <row r="9" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="76"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="24" t="s">
         <v>49</v>
       </c>
@@ -5146,7 +4916,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="22">
         <v>43829</v>
@@ -5155,7 +4925,7 @@
         <v>43830</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>8</v>
@@ -5179,10 +4949,10 @@
     </row>
     <row r="10" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="76"/>
+      <c r="C10" s="70"/>
       <c r="D10" s="24" t="s">
         <v>51</v>
       </c>
@@ -5190,7 +4960,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G10" s="22">
         <v>43831</v>
@@ -5199,7 +4969,7 @@
         <v>43832</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>8</v>
@@ -5223,10 +4993,10 @@
     </row>
     <row r="11" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="19" t="s">
         <v>50</v>
       </c>
@@ -5234,7 +5004,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G11" s="22">
         <v>43832</v>
@@ -5243,7 +5013,7 @@
         <v>43833</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J11" s="23" t="s">
         <v>8</v>
@@ -5267,18 +5037,18 @@
     </row>
     <row r="12" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="22">
         <v>43832</v>
@@ -5287,7 +5057,7 @@
         <v>43833</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>8</v>
@@ -5311,18 +5081,18 @@
     </row>
     <row r="13" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="22">
         <v>43836</v>
@@ -5331,7 +5101,7 @@
         <v>43837</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>8</v>
@@ -5355,18 +5125,18 @@
     </row>
     <row r="14" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="76"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="22">
         <v>43838</v>
@@ -5375,7 +5145,7 @@
         <v>43839</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" s="23" t="s">
         <v>8</v>
@@ -5399,18 +5169,18 @@
     </row>
     <row r="15" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="22">
         <v>43839</v>
@@ -5419,7 +5189,7 @@
         <v>43840</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>8</v>
@@ -5443,18 +5213,18 @@
     </row>
     <row r="16" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="22">
         <v>43839</v>
@@ -5463,7 +5233,7 @@
         <v>43840</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>8</v>
@@ -5487,18 +5257,18 @@
     </row>
     <row r="17" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="54" t="s">
+      <c r="B17" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="76"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="19" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G17" s="22">
         <v>43843</v>
@@ -5507,7 +5277,7 @@
         <v>43844</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J17" s="23" t="s">
         <v>8</v>
@@ -5531,18 +5301,18 @@
     </row>
     <row r="18" spans="1:32" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="76"/>
+      <c r="B18" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="70"/>
       <c r="D18" s="19" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" s="22">
         <v>43843</v>
@@ -5551,7 +5321,7 @@
         <v>43844</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J18" s="23" t="s">
         <v>8</v>
@@ -5575,10 +5345,10 @@
     </row>
     <row r="19" spans="1:32" ht="49.9" 